--- a/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
+++ b/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11130" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="wt" sheetId="1" r:id="rId1"/>
     <sheet name="dcin5_17" sheetId="3" r:id="rId2"/>
     <sheet name="dgln3" sheetId="4" r:id="rId3"/>
     <sheet name="dhap4" sheetId="5" r:id="rId4"/>
-    <sheet name="dzap1" sheetId="6" r:id="rId5"/>
+    <sheet name="rand1" sheetId="7" r:id="rId5"/>
+    <sheet name="rand2" sheetId="8" r:id="rId6"/>
+    <sheet name="rand3" sheetId="9" r:id="rId7"/>
+    <sheet name="rand4" sheetId="10" r:id="rId8"/>
+    <sheet name="dzap1" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="84">
   <si>
     <t>Gene</t>
   </si>
@@ -264,6 +273,21 @@
   <si>
     <t>dGln3 poorly modeled; dZap1 looks fine; dhap4, dcin5, and wt could be better but dhmo1 models fits their data enough to see  pattern</t>
   </si>
+  <si>
+    <t>Difference between random1 and db network 5 individual MSE values</t>
+  </si>
+  <si>
+    <t>LSE:minLSE</t>
+  </si>
+  <si>
+    <t>Difference between random network 2 and db network 5 (MSE comparison of individual genes)</t>
+  </si>
+  <si>
+    <t>Difference between random3 and db network 5 individual MSE values</t>
+  </si>
+  <si>
+    <t>Difference between random 4 and db network 5 individual gene MSE values</t>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +440,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -433,6 +457,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -765,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -779,9 +810,9 @@
       <selection activeCell="P6" sqref="P6:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -825,7 +856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="29" customHeight="1">
+    <row r="2" spans="1:21" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -877,7 +908,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1">
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -929,7 +960,7 @@
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1">
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -981,7 +1012,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:21" ht="44" customHeight="1">
+    <row r="5" spans="1:21" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1033,7 +1064,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:21" ht="28" customHeight="1">
+    <row r="6" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1085,7 +1116,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" ht="28" customHeight="1">
+    <row r="7" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1137,7 +1168,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="28" customHeight="1">
+    <row r="8" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1189,7 +1220,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" ht="28" customHeight="1">
+    <row r="9" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1241,7 +1272,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1">
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1293,7 +1324,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:21" ht="42" customHeight="1">
+    <row r="11" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1345,7 +1376,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" ht="27" customHeight="1">
+    <row r="12" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1397,7 +1428,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" ht="28" customHeight="1">
+    <row r="13" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1449,7 +1480,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" ht="27" customHeight="1">
+    <row r="14" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1501,7 +1532,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="28" customHeight="1">
+    <row r="15" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1553,7 +1584,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" ht="28" customHeight="1">
+    <row r="16" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1605,7 +1636,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" ht="28" customHeight="1">
+    <row r="17" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1657,23 +1688,29 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
     <mergeCell ref="P14:U14"/>
     <mergeCell ref="P15:U15"/>
     <mergeCell ref="P16:U16"/>
@@ -1684,12 +1721,6 @@
     <mergeCell ref="P11:U11"/>
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -1709,9 +1740,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1824,7 @@
         <v>4.5710094999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1865,7 @@
         <v>2.5966862E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1875,7 +1906,7 @@
         <v>0.34787221299999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1916,7 +1947,7 @@
         <v>0.117144835</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1957,7 +1988,7 @@
         <v>1.5741523E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1998,7 +2029,7 @@
         <v>1.1238299999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2039,7 +2070,7 @@
         <v>0.94148592399999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2080,7 +2111,7 @@
         <v>0.51129685499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2121,7 +2152,7 @@
         <v>8.3557084000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2162,7 +2193,7 @@
         <v>0.80272494000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +2234,7 @@
         <v>2.0751049999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2244,7 +2275,7 @@
         <v>0.329647735</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2285,7 +2316,7 @@
         <v>0.77989454400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2357,7 @@
         <v>0.29747801699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2367,7 +2398,7 @@
         <v>6.5292475000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2408,7 +2439,7 @@
         <v>0.26584607199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2468,9 +2499,9 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2537,7 @@
       </c>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2542,7 +2573,7 @@
       </c>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2578,7 +2609,7 @@
       </c>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2614,7 +2645,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2650,7 +2681,7 @@
       </c>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2686,7 +2717,7 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +2753,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2789,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2794,7 +2825,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2830,7 +2861,7 @@
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2897,7 @@
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2902,7 +2933,7 @@
       </c>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2938,7 +2969,7 @@
       </c>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +3005,7 @@
       </c>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3023,15 +3054,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16:T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="14" customHeight="1">
+    <row r="1" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="29" customHeight="1">
+    <row r="2" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3121,7 +3152,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="1:20" ht="29" customHeight="1">
+    <row r="3" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3168,7 +3199,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="1:20" ht="29" customHeight="1">
+    <row r="4" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3217,7 +3248,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
     </row>
-    <row r="5" spans="1:20" ht="29" customHeight="1">
+    <row r="5" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3264,7 +3295,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:20" ht="29" customHeight="1">
+    <row r="6" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3342,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="1:20" ht="29" customHeight="1">
+    <row r="7" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3358,7 +3389,7 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="1:20" ht="29" customHeight="1">
+    <row r="8" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3407,7 +3438,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
     </row>
-    <row r="9" spans="1:20" ht="29" customHeight="1">
+    <row r="9" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3454,7 +3485,7 @@
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="1:20" ht="29" customHeight="1">
+    <row r="10" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3503,7 +3534,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="1:20" ht="29" customHeight="1">
+    <row r="11" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3550,7 +3581,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="1:20" ht="29" customHeight="1">
+    <row r="12" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3597,7 +3628,7 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
     </row>
-    <row r="13" spans="1:20" ht="29" customHeight="1">
+    <row r="13" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3644,7 +3675,7 @@
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
-    <row r="14" spans="1:20" ht="29" customHeight="1">
+    <row r="14" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3693,7 +3724,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:20" ht="29" customHeight="1">
+    <row r="15" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3742,7 +3773,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20" ht="29" customHeight="1">
+    <row r="16" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3789,18 +3820,34 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.4262899447569053</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="O14:T14"/>
     <mergeCell ref="O15:T15"/>
     <mergeCell ref="O16:T16"/>
@@ -3810,12 +3857,6 @@
     <mergeCell ref="O11:T11"/>
     <mergeCell ref="O12:T12"/>
     <mergeCell ref="O13:T13"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="O7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3828,15 +3869,4489 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.49943241461318028</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.14709344988578046</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1.2335582605122648</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.10823838037097554</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.22104047968456661</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1.0160283909533248</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.40341617371518923</v>
+      </c>
+      <c r="C3" s="15">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.65269753278107367</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.55956054129737831</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.21112327504066367</v>
+      </c>
+      <c r="I3" s="18">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.1691003657336887</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1.3262840268471077</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.74280103769314521</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.89415500282576987</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.1673616550321195</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.83451764044709975</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.54819620728197871</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.46099081975152839</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.79550157196615101</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.75670862537802408</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1.0376358043249361</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.46859501534613868</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.27205031503127047</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.6069986642521934</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.25451466336976786</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.21996545204598314</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.34884443209181915</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.15394508393757547</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1.8650932620982499</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1.391770342556409</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2.3061993715426712</v>
+      </c>
+      <c r="G7" s="17">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1.6695016289902809</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.92137075860971607</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.62645336767292825</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.65449126571834759</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.35885397139454533</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2.9180452019698855</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.50260563481789</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.52134007093022605</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.29328423518852464</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.89707527262568088</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.25500288771464535</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.58259174262920965</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.27271577399171348</v>
+      </c>
+      <c r="M9" s="20">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.99090883155290055</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.26934101926872106</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.96581777972073402</v>
+      </c>
+      <c r="G10" s="17">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.18129154102987943</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1.1693623687518766</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.30352726404273478</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2.2139682915607048</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1.0401974377326451</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.13368709963734471</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.15728062870586967</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.64906213735894502</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1.2349381185198764</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.31068417464250242</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.72103653309031068</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.47450432749665211</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.1972765913564434</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.29490216368070316</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.24774444007494334</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.48011938996145598</v>
+      </c>
+      <c r="C13" s="15">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.22145719140967934</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.28926143766487428</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.58008382961119043</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.26555386940877401</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.27180895872603333</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.71081826338996668</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.59140979026148577</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.44116922971328648</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.30467515561059755</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.34016385436924179</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.52967263494909966</v>
+      </c>
+      <c r="M14" s="20">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.36536357079068682</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.81979168589071361</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.12698463221801584</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.46512788876555095</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.66388453354589305</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.45414515741133887</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2.3468045738623382</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.66877915856657066</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1.2649401663214157</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1.1168015855581388</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.46062824974243033</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16" s="14">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f>B2-dhap4!B2</f>
+        <v>8.5037710816194934E-2</v>
+      </c>
+      <c r="D20">
+        <f>D2-dhap4!D2</f>
+        <v>5.1011782704688285E-2</v>
+      </c>
+      <c r="F20">
+        <f>F2-dhap4!F2</f>
+        <v>-7.2483002069294589E-2</v>
+      </c>
+      <c r="H20">
+        <f>H2-dhap4!H2</f>
+        <v>-3.7725867201219884E-2</v>
+      </c>
+      <c r="J20">
+        <f>J2-dhap4!J2</f>
+        <v>1.0432802479958814E-2</v>
+      </c>
+      <c r="L20">
+        <f>L2-dhap4!L2</f>
+        <v>0.16907041510175169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f>B3-dhap4!B3</f>
+        <v>0.14982591015235142</v>
+      </c>
+      <c r="D21">
+        <f>D3-dhap4!D3</f>
+        <v>0.35232796332522426</v>
+      </c>
+      <c r="F21">
+        <f>F3-dhap4!F3</f>
+        <v>-7.4712863491504078E-2</v>
+      </c>
+      <c r="H21">
+        <f>H3-dhap4!H3</f>
+        <v>-0.10507478502383996</v>
+      </c>
+      <c r="J21">
+        <f>J3-dhap4!J3</f>
+        <v>-2.4210678743437519E-2</v>
+      </c>
+      <c r="L21">
+        <f>L3-dhap4!L3</f>
+        <v>0.13123559735976209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <f>B4-dhap4!B4</f>
+        <v>-8.6623803408902966E-2</v>
+      </c>
+      <c r="D22">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>F4-dhap4!F4</f>
+        <v>2.623494415149441E-2</v>
+      </c>
+      <c r="H22">
+        <f>H4-dhap4!H4</f>
+        <v>7.3009331454953141E-2</v>
+      </c>
+      <c r="J22">
+        <f>J4-dhap4!J4</f>
+        <v>6.4802476468290959E-2</v>
+      </c>
+      <c r="L22">
+        <f>L4-dhap4!L4</f>
+        <v>-0.12926667395981828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <f>B5-dhap4!B5</f>
+        <v>-5.1036508123678159E-2</v>
+      </c>
+      <c r="D23">
+        <f>D5-dhap4!D5</f>
+        <v>-0.108424072087146</v>
+      </c>
+      <c r="F23">
+        <f>F5-dhap4!F5</f>
+        <v>-1.2468656004904988E-2</v>
+      </c>
+      <c r="H23">
+        <f>H5-dhap4!H5</f>
+        <v>0.15190808513258547</v>
+      </c>
+      <c r="J23">
+        <f>J5-dhap4!J5</f>
+        <v>-3.4692808751385473E-2</v>
+      </c>
+      <c r="L23">
+        <f>L5-dhap4!L5</f>
+        <v>4.3346292396410274E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <f>B6-dhap4!B6</f>
+        <v>0.13267111267504017</v>
+      </c>
+      <c r="D24">
+        <f>D6-dhap4!D6</f>
+        <v>5.3116345927755326E-2</v>
+      </c>
+      <c r="F24">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>H6-dhap4!H6</f>
+        <v>3.3206218928462261E-2</v>
+      </c>
+      <c r="J24">
+        <f>J6-dhap4!J6</f>
+        <v>0.11179762199640608</v>
+      </c>
+      <c r="L24">
+        <f>L6-dhap4!L6</f>
+        <v>-1.8275942509344667E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <f>B7-dhap4!B7</f>
+        <v>-0.28502341025259725</v>
+      </c>
+      <c r="D25">
+        <f>D7-dhap4!D7</f>
+        <v>0.23074235785292463</v>
+      </c>
+      <c r="F25">
+        <f>F7-dhap4!F7</f>
+        <v>0.9616039388226969</v>
+      </c>
+      <c r="H25">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>J7-dhap4!J7</f>
+        <v>0.24811538730558258</v>
+      </c>
+      <c r="L25">
+        <f>L7-dhap4!L7</f>
+        <v>0.36170067962382402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <f>B8-dhap4!B8</f>
+        <v>8.7120686198433051E-3</v>
+      </c>
+      <c r="D26">
+        <f>D8-dhap4!D8</f>
+        <v>-2.9564126305268945E-2</v>
+      </c>
+      <c r="F26">
+        <f>F8-dhap4!F8</f>
+        <v>6.2134856352303369E-2</v>
+      </c>
+      <c r="H26">
+        <f>H8-dhap4!H8</f>
+        <v>9.0409918711307657E-2</v>
+      </c>
+      <c r="J26">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>L8-dhap4!L8</f>
+        <v>-2.1311537257296842E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <f>B9-dhap4!B9</f>
+        <v>5.786892407115457E-2</v>
+      </c>
+      <c r="D27">
+        <f>D9-dhap4!D9</f>
+        <v>-9.1382642271183478E-2</v>
+      </c>
+      <c r="F27">
+        <f>F9-dhap4!F9</f>
+        <v>0.12777043279933453</v>
+      </c>
+      <c r="H27">
+        <f>H9-dhap4!H9</f>
+        <v>4.8091819767089372E-2</v>
+      </c>
+      <c r="J27">
+        <f>J9-dhap4!J9</f>
+        <v>0.13357520070908629</v>
+      </c>
+      <c r="L27">
+        <f>L9-dhap4!L9</f>
+        <v>2.2753025303911462E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <f>B10-dhap4!B10</f>
+        <v>8.4299481319561886E-3</v>
+      </c>
+      <c r="D28">
+        <f>D10-dhap4!D10</f>
+        <v>-3.6279550895639168E-2</v>
+      </c>
+      <c r="F28">
+        <f>F10-dhap4!F10</f>
+        <v>-4.8037792652213529E-3</v>
+      </c>
+      <c r="H28">
+        <f>H10-dhap4!H10</f>
+        <v>3.1044201415303396E-3</v>
+      </c>
+      <c r="J28">
+        <f>J10-dhap4!J10</f>
+        <v>-1.6324282037136983E-2</v>
+      </c>
+      <c r="L28">
+        <f>L10-dhap4!L10</f>
+        <v>3.3770360912312392E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <f>B11-dhap4!B11</f>
+        <v>0.41762091097825227</v>
+      </c>
+      <c r="D29">
+        <f>D11-dhap4!D11</f>
+        <v>0.16406726685864548</v>
+      </c>
+      <c r="F29">
+        <f>F11-dhap4!F11</f>
+        <v>-0.2553154030475806</v>
+      </c>
+      <c r="H29">
+        <f>H11-dhap4!H11</f>
+        <v>-1.6697918872659451E-2</v>
+      </c>
+      <c r="J29">
+        <f>J11-dhap4!J11</f>
+        <v>0.11531278413699209</v>
+      </c>
+      <c r="L29">
+        <f>L11-dhap4!L11</f>
+        <v>-0.11251179997326144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <f>B12-dhap4!B12</f>
+        <v>1.6666443445210177E-3</v>
+      </c>
+      <c r="D30">
+        <f>D12-dhap4!D12</f>
+        <v>2.2483020250099961E-2</v>
+      </c>
+      <c r="F30">
+        <f>F12-dhap4!F12</f>
+        <v>4.8633654944452154E-3</v>
+      </c>
+      <c r="H30">
+        <f>H12-dhap4!H12</f>
+        <v>6.1585145941868147E-3</v>
+      </c>
+      <c r="J30">
+        <f>J12-dhap4!J12</f>
+        <v>-2.5198369073347493E-2</v>
+      </c>
+      <c r="L30">
+        <f>L12-dhap4!L12</f>
+        <v>1.4405364722319403E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <f>B13-dhap4!B13</f>
+        <v>7.6528489820448464E-2</v>
+      </c>
+      <c r="D31">
+        <f>D13-dhap4!D13</f>
+        <v>-4.7449502812859368E-3</v>
+      </c>
+      <c r="F31">
+        <f>F13-dhap4!F13</f>
+        <v>9.0474706161560725E-3</v>
+      </c>
+      <c r="H31">
+        <f>H13-dhap4!H13</f>
+        <v>0.11559371832326526</v>
+      </c>
+      <c r="J31">
+        <f>J13-dhap4!J13</f>
+        <v>2.4548886155013161E-2</v>
+      </c>
+      <c r="L31">
+        <f>L13-dhap4!L13</f>
+        <v>-4.2668681975209066E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <f>B14-dhap4!B14</f>
+        <v>-2.3237102232316675E-2</v>
+      </c>
+      <c r="D32">
+        <f>D14-dhap4!D14</f>
+        <v>-3.2328313088612837E-2</v>
+      </c>
+      <c r="F32">
+        <f>F14-dhap4!F14</f>
+        <v>-0.6012159338171057</v>
+      </c>
+      <c r="H32">
+        <f>H14-dhap4!H14</f>
+        <v>5.1131740735065656E-2</v>
+      </c>
+      <c r="J32">
+        <f>J14-dhap4!J14</f>
+        <v>5.3363779922079801E-2</v>
+      </c>
+      <c r="L32">
+        <f>L14-dhap4!L14</f>
+        <v>2.2699041919194141E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <f>B15-dhap4!B15</f>
+        <v>-3.9540069066125061E-2</v>
+      </c>
+      <c r="D33">
+        <f>D15-dhap4!D15</f>
+        <v>8.587769283987845E-2</v>
+      </c>
+      <c r="F33">
+        <f>F15-dhap4!F15</f>
+        <v>-1.3619357937339098</v>
+      </c>
+      <c r="H33">
+        <f>H15-dhap4!H15</f>
+        <v>-0.25872955183675556</v>
+      </c>
+      <c r="J33">
+        <f>J15-dhap4!J15</f>
+        <v>2.99247651993928E-3</v>
+      </c>
+      <c r="L33">
+        <f>L15-dhap4!L15</f>
+        <v>-4.983526858966647E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <f>B16-dhap4!B16</f>
+        <v>4.3064888637082355E-2</v>
+      </c>
+      <c r="D34">
+        <f>D16-dhap4!D16</f>
+        <v>-4.679176182976641E-3</v>
+      </c>
+      <c r="F34">
+        <f>F16-dhap4!F16</f>
+        <v>-1.5279705983060943E-2</v>
+      </c>
+      <c r="H34">
+        <f>H16-dhap4!H16</f>
+        <v>-1.1969024215395141E-2</v>
+      </c>
+      <c r="J34">
+        <f>J16-dhap4!J16</f>
+        <v>-2.2888680147220564E-4</v>
+      </c>
+      <c r="L34">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4529772496030113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.46762921981325017</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.15507718760812175</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1.3531695317610319</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.13184417685843439</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.21633234084068123</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1.0225183597932404</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.36744055241724194</v>
+      </c>
+      <c r="C3" s="15">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.0332534211359279</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.45576767493097242</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.35242521088531681</v>
+      </c>
+      <c r="I3" s="18">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.2596766861136974</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1.5287111853551032</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.64449196315906043</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.89962560433343353</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.1725477334353624</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.97251846917235241</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.0053480656287401</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.4288779966154691</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.79915311693452307</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.9660822252194482</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.93934811513080341</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.55632510435610427</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.24962262625214857</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.51847534986040478</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.22012216031867282</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.21675962268811891</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.31056794874410643</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.14990317153823232</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1.921107263358492</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1.3184813118381991</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.87114243940969038</v>
+      </c>
+      <c r="G7" s="17">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1.4184843926467146</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.66743518717518713</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.63022491766999744</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.73409738305206418</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.30421955873229006</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2.8113522142792289</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.50182440663058081</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.44246578767364425</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.32018108890811586</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.74008527908572086</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.25886684257527803</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.47886307133961775</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.26942001350631795</v>
+      </c>
+      <c r="M9" s="20">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.99089111138215757</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.27262481883085277</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.99473022479074003</v>
+      </c>
+      <c r="G10" s="17">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.18648307931970642</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1.1820504051938578</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.30735662036626643</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2.1957590732105192</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.93306426678878263</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.38867473389801388</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.18554527265367718</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.55660240254580107</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1.3520900242499672</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.30991511536110455</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.72431139869952321</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.47346994515140545</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.19815125280133275</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.29617576916422272</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.24730202451883712</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.49186507942959712</v>
+      </c>
+      <c r="C13" s="15">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.34632056872017669</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.29196274728891991</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.43419024412434842</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.29505389654542502</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.38788627559080663</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.66952270948276638</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.63213462105640117</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.57906792641075422</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.2768364016552104</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.29977196577080628</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.45437758885298524</v>
+      </c>
+      <c r="M14" s="20">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.36273449767965604</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.78138836030638492</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.1187863391244976</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.37847135728016162</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.68710592868541553</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.4399607625345649</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2.0620941583142103</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.74314059057793569</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1.0719777621248878</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1.2265392148812089</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.51022100995054709</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16" s="14">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>5.3234516016264832E-2</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>5.8995520427029574E-2</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>4.7128269179472548E-2</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>-1.4120070713761035E-2</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>5.7246636360734349E-3</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>0.17556038394166729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>0.11385028885440412</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.73288385168007841</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>-0.17850572985790997</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>3.6227150820813181E-2</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>6.6365641636571215E-2</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>0.33366275586775762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>-0.18493287794298774</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>3.1705545659158063E-2</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>7.8195409858196063E-2</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>0.20280330519354361</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>0.32788518438694314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>-8.3149331259737447E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>-0.10477252711877394</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>0.19690494383651913</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>5.3620395938452803E-2</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>5.3037280258580122E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>2.0918603617288367E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>4.4147798283251549E-2</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>1.872384287666029E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>3.0000389570598029E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>7.3521138648693363E-2</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>-2.2317854908687818E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.22900940899235511</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>0.15745332713471472</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>-0.4734529933102839</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>-2.9018490379837392E-3</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>0.10776510818929508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>1.2483618616912495E-2</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>5.0041991028447641E-2</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>7.5004436900480975E-3</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>-1.6283068979348947E-2</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>-2.2092765444606033E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>-2.100535918542723E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-6.448578855159226E-2</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>-2.9219560740625483E-2</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>5.1955774627722051E-2</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>2.9846529419494394E-2</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>1.9457264818515924E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>8.4122279612132145E-3</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-3.2995751333507461E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>2.4108665804784657E-2</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>8.2959584313573309E-3</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-3.6362455951557404E-3</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>3.7599717235844043E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>0.39941169262806664</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>5.6934095914783045E-2</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-3.2776878691143096E-4</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>1.1566725075148054E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>2.2853049323848129E-2</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>4.6401057568292714E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>8.9758506312315189E-4</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>2.575788585931249E-2</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>3.8289831491985504E-3</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>7.0331760390761611E-3</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-2.3924763589827924E-2</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>9.9812091612572207E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>8.8274179288589605E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>0.12011842702921141</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>1.1748780240201706E-2</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>-3.0299867163576744E-2</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>5.4048913291664169E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>7.3408634889564228E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>-6.4532656139516975E-2</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>8.3965177063025642E-3</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>-0.46331723711963801</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>2.3292986779678504E-2</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>1.2971891323644291E-2</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>-7.3025141904195012E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>-4.2169142177155838E-2</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>4.7474367255549765E-2</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>-1.3701340868274281</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>-0.34538608332214488</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>2.6213871659461763E-2</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>-6.4019663466440446E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>-0.24164552691104557</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>6.9682255828388384E-2</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>-0.20824211017958882</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>9.7768605107674933E-2</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>4.9363873406644554E-2</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4277504444793809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.44887506598607224</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2">
+        <v>0.11679152299985701</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2">
+        <v>1.3945777206948742</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2">
+        <v>0.11868461300132331</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2">
+        <v>0.20064915001483941</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2">
+        <v>1.1723306527532082</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.30196285537161383</v>
+      </c>
+      <c r="C3" s="15">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.81862212607462215</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.65921054312278338</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3">
+        <v>0.28924259661647339</v>
+      </c>
+      <c r="I3" s="18">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.1639984084447386</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3">
+        <v>1.3881660530428475</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.83916390979889499</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4">
+        <v>0.94028304806073892</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.4631270749168273</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.0610183419272048</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4">
+        <v>0.96160289963706613</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.5835028192295606</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5">
+        <v>1.0663353250105641</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5">
+        <v>0.75616131495641781</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5">
+        <v>0.80157797607880088</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5">
+        <v>0.52720626920002767</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5">
+        <v>0.21266082901986916</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.49281564903433728</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6">
+        <v>0.16737864137111971</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6">
+        <v>0.20856423761654189</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6">
+        <v>0.33762974306727234</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6">
+        <v>0.16882953333304904</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.8026876831827532</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7">
+        <v>1.1261922668626931</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7">
+        <v>0.97129556172451348</v>
+      </c>
+      <c r="G7" s="17">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7">
+        <v>1.4864579046462769</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7">
+        <v>0.9567932188550029</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.66559062819046</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.68661267955579808</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.31964301009164725</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.6989134515264293</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8">
+        <v>0.39130706078319127</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.44645128063676898</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9">
+        <v>0.26927936002024205</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9">
+        <v>0.78125894950035712</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9">
+        <v>0.18057609616799611</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.37631876113589918</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9">
+        <v>0.27683268229423585</v>
+      </c>
+      <c r="M9" s="20">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.98599816526241146</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10">
+        <v>0.26160550162575291</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.98024166760690967</v>
+      </c>
+      <c r="G10" s="17">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.17581423189686915</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.1726561743716</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10">
+        <v>0.29226903575767799</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1.9212686872927367</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11">
+        <v>1.1214622140564605</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11">
+        <v>0.32044304691475267</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11">
+        <v>0.14471867840895367</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11">
+        <v>0.66917577627132319</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11">
+        <v>1.3191792245378569</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.29710026100099385</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12">
+        <v>0.71027802855623701</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12">
+        <v>0.43907404197667926</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12">
+        <v>0.19977489334451826</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12">
+        <v>0.22831413345809679</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12">
+        <v>0.24702636578206885</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.50016448574116457</v>
+      </c>
+      <c r="C13" s="15">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.25630458952666907</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13">
+        <v>0.28046184004096325</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13">
+        <v>0.45892743524673629</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13">
+        <v>0.29481138423063324</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13">
+        <v>0.34600107061658364</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.64936333620945197</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14">
+        <v>0.70542166663850736</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14">
+        <v>0.54075408622459342</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.32705669450544167</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.2785495912531385</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14">
+        <v>0.38826247910729333</v>
+      </c>
+      <c r="M14" s="20">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.37451602153086466</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.74321675126597364</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.28328468256137962</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15">
+        <v>0.45098343096854082</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.68224489856649273</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15">
+        <v>0.54348737917505929</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2.2680778291341559</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.69057563378095166</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16">
+        <v>1.3192589361531024</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16">
+        <v>1.1270818363384507</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16">
+        <v>0.42858239837407969</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>3.4480362189086899E-2</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>2.0709855818764833E-2</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>8.8536458113314787E-2</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>-2.7279634570872111E-2</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>-9.9585271897683902E-3</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>0.32537267690163518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>4.8372591808776011E-2</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.51825255661877279</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>2.4937138333900988E-2</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>-2.6955463448030237E-2</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>-2.9312636032387651E-2</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>0.19311762355550188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>9.7390686968468199E-3</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>7.2362989386463461E-2</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>0.36877475133966087</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>0.291303177948396</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>0.28414001839526914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>7.1475491354354048E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>0.16240968095726704</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>-1.3015966426511261E-2</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>-8.4149743113549724E-2</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>2.3918445102503516E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>-1.6043193614991041E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>1.848809745718405E-2</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>-3.4019676070892818E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>2.1805004499021008E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>0.10058293297185927</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>-3.3914931138711024E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.34742898916809395</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>-3.4835717840791203E-2</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>-0.3732998709954608</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>6.5071662961578625E-2</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>0.39712313986911085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>4.7849329137375052E-2</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>2.5572875321815403E-3</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>2.2923895049405285E-2</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>-0.12872183173214857</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>-0.13261011129199557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>-1.7019866222302504E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-0.11538751743946607</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>1.1954109674010782E-2</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>-2.6334971779559874E-2</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>-7.2697780784224175E-2</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>2.6869933606433832E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>3.5192818414671034E-3</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-4.4015068538607316E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>9.6201086209543041E-3</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>-2.3728889914799434E-3</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-1.3030476417413617E-2</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>2.2512132627255599E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>0.12492130671028412</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>0.24533204318246093</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-6.8559455770172639E-2</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>-2.9259869169575459E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>0.13542642304937025</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>-2.8270693955281034E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>-1.1917269296987554E-2</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>1.1724515716026285E-2</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>-3.0566920025527633E-2</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>8.6568165822616672E-3</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-9.1786399295953863E-2</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>7.2246217935745261E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>9.6573585600157053E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>3.0102447835703788E-2</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>2.4787299224504622E-4</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>-5.5626760411888743E-3</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>5.3806400976872393E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>3.1523429915341239E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>-8.4692029412831382E-2</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>8.1683563288408756E-2</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>-0.50163107730579881</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>7.3513279629909778E-2</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>-8.2504831940234946E-3</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>-0.13914025164988691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>-3.0387618325947219E-2</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>9.3027582151384847E-3</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>-1.205635743390546</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>-0.27287400963376568</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>2.1352841540538958E-2</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>3.9506953174053949E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>-3.5661856091099953E-2</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>1.7117299031404354E-2</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>3.9039063848625766E-2</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>-1.688773435083224E-3</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>-3.2274738169822847E-2</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.46461161120783445</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2">
+        <v>0.12589539619988108</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2">
+        <v>1.4294503711637578</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2">
+        <v>0.15014357142951618</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2">
+        <v>0.20405016522018923</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2">
+        <v>1.0510521426545893</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.33625857440104723</v>
+      </c>
+      <c r="C3" s="15">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.0340418772590381</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.55826676143926512</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3">
+        <v>0.26694239592955177</v>
+      </c>
+      <c r="I3" s="18">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.052832444343329</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3">
+        <v>1.2097516667624466</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.74164798592279757</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4">
+        <v>0.9439204162491498</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.3158774311919885</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.76833487718117677</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4">
+        <v>0.560352874315866</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.53617565437504178</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5">
+        <v>0.59293562298947899</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5">
+        <v>0.78374588810153722</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5">
+        <v>0.81119214546738772</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5">
+        <v>0.45508672699838965</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5">
+        <v>0.24931281477137146</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.47846521113725926</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6">
+        <v>0.17403899818941052</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6">
+        <v>0.2003139564168781</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6">
+        <v>0.2196058116211731</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6">
+        <v>0.20038805804358659</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.8300406543649845</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7">
+        <v>1.3213303018673093</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7">
+        <v>2.3916826128815072</v>
+      </c>
+      <c r="G7" s="17">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7">
+        <v>1.7014939711627577</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7">
+        <v>0.9575282659762413</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.62452215831341951</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.78501768479755751</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.30787191640954631</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.84891055150359</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8">
+        <v>0.47787328809671026</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.49304151285401093</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9">
+        <v>0.35294605313617122</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9">
+        <v>0.76216163988746388</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9">
+        <v>0.32535500399853673</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.40353896057106758</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9">
+        <v>0.23685661072957565</v>
+      </c>
+      <c r="M9" s="20">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.98939182046101404</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10">
+        <v>0.26604175533966384</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.95894372964591124</v>
+      </c>
+      <c r="G10" s="17">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.13631895420257475</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.1563609352936137</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10">
+        <v>0.32827540305385222</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2.0126870049846484</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11">
+        <v>0.87304718381783575</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11">
+        <v>0.28375488138087501</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11">
+        <v>0.14470026848728643</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11">
+        <v>0.58299659350313338</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11">
+        <v>1.3068718559678623</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.28167774766315445</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12">
+        <v>0.75382527741157768</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12">
+        <v>0.4371350335295518</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12">
+        <v>0.19275040449712419</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12">
+        <v>0.2286973554841969</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12">
+        <v>0.24666519615064067</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.44579270392103781</v>
+      </c>
+      <c r="C13" s="15">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.2939862575314679</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13">
+        <v>0.2712575279775486</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13">
+        <v>0.4765260710811931</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13">
+        <v>0.26018844102660454</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13">
+        <v>0.30657028177955947</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.91614239056852798</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14">
+        <v>0.66453999813909426</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14">
+        <v>1.211107396015906</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.74334378019907377</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.54841791979338794</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14">
+        <v>0.95247747128597104</v>
+      </c>
+      <c r="M14" s="20">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.62121752738130964</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.93602561817212537</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.86163538593380296</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15">
+        <v>0.4081847905712897</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.70242209358025365</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15">
+        <v>0.48056171042129331</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>1.8253737795469531</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.68487394122549816</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16">
+        <v>1.5431639616190607</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16">
+        <v>0.89169877617241478</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16">
+        <v>0.35049266317162459</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>5.021690741084911E-2</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>2.9813729018788898E-2</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>0.12340910858219845</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>4.1793238573207547E-3</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>-6.5575119844185625E-3</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>0.20409416680301629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>8.2668310838209413E-2</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.73367230780318859</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>-7.6006643349617264E-2</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>-4.925566413495186E-2</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>-0.1404786001337972</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>1.4703237275101033E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>-8.7776855179250601E-2</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>7.6000357574874333E-2</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>0.22152510761482214</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>-1.3802867976320243E-3</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>-0.11711000692593099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>2.4148326499835226E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>-0.31099002106381801</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>1.4568606718608157E-2</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>-7.4535573724962889E-2</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>-4.8201097099134504E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>2.0608792136511261E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>4.1376595601060329E-3</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>-2.7359319252602016E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>1.3554723299357224E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>-1.7440998474239966E-2</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>2.8167031596666448E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.3200760179858626</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>0.16030231716382493</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>1.0470871801615329</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>0.2801077294780594</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>0.39785818699034925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>6.7808592603345597E-3</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>0.10096229277394098</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>1.1152801367304344E-2</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>2.1275268245012136E-2</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>-4.6043883978476585E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>2.9570365994939452E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-3.17208243235369E-2</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>-7.1431999388824607E-3</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>0.11844393605098075</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>-4.5477581349055773E-2</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>-1.3106137958226377E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>6.9129370400696777E-3</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-3.9578814824696384E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>-1.1677829340044132E-2</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>-4.1868166685774338E-2</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-2.9325715495399862E-2</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>5.8518499923429834E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>0.21633962440219578</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>-3.0829870561638328E-3</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-0.1052476213040503</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>-2.9278279091242698E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>4.9247240281180438E-2</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>-4.0578062525275627E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>-2.7339782634826948E-2</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>5.5271764571366955E-2</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>-3.2505928472655099E-2</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>1.6323277348676002E-3</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-9.1403177269853753E-2</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>3.6129254792927057E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>4.22018037800303E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>6.7784115840502618E-2</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>-8.9564390711696085E-3</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>1.2035959793267936E-2</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>1.9183457772843693E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>-7.9073589216829276E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>0.18208702494624462</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>4.0801894788995652E-2</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>0.16872223248551377</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>0.48980036532354188</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>0.26161784534622595</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>0.4250747405287908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>0.21631388752449776</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>0.20211162512129022</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>-0.6272850400181228</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>-0.3156726500310168</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>4.1530036554299876E-2</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>-2.3418715579712035E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>-0.47836590567830273</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>1.1415606475950857E-2</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>0.26294408931458402</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>-0.23707183360111916</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>-0.11036447337227795</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4932686836654068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3877,7 +8392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3918,7 +8433,7 @@
         <v>8.9506884214993296E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +8474,7 @@
         <v>4.5710095337786E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4000,7 +8515,7 @@
         <v>2.5966862137770701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4041,7 +8556,7 @@
         <v>3.7601247708696897E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4082,7 +8597,7 @@
         <v>0.52071115419199898</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4123,7 +8638,7 @@
         <v>0.34787221257796602</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4164,7 +8679,7 @@
         <v>0.117144834533319</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4205,7 +8720,7 @@
         <v>1.5741522728162101E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4246,7 +8761,7 @@
         <v>1.1238296525258799E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -4287,7 +8802,7 @@
         <v>1.58741443458029E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4328,7 +8843,7 @@
         <v>0.94148592414781596</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4369,7 +8884,7 @@
         <v>0.51129685475720899</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4410,7 +8925,7 @@
         <v>8.3557084326203193E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4451,7 +8966,7 @@
         <v>2.1611821115451102E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4492,7 +9007,7 @@
         <v>0.77989454444137896</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>

--- a/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
+++ b/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11130" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="11140" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wt" sheetId="1" r:id="rId1"/>
@@ -22,20 +17,20 @@
     <sheet name="rand4" sheetId="10" r:id="rId8"/>
     <sheet name="dzap1" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="111">
   <si>
     <t>Gene</t>
   </si>
@@ -287,6 +282,87 @@
   </si>
   <si>
     <t>Difference between random 4 and db network 5 individual gene MSE values</t>
+  </si>
+  <si>
+    <t>Indeterminant due to one line shown as dynamics of ABF1; not modeled well for other strains, but yes to dZap1</t>
+  </si>
+  <si>
+    <t>dCin5 T15 deeper, but afterward fine; spread dynamics for strain data, but model fits dHap4 and dZap1 well</t>
+  </si>
+  <si>
+    <t>dZap1 modeled well for its data points; all other points = indistinguishable; dHap4 upreg as well as dGln3</t>
+  </si>
+  <si>
+    <t>Dynamics good for dZap1 &amp; dHap4; dHmo1 dip down at T15 should increase; dynamics should decrease a bit then increase</t>
+  </si>
+  <si>
+    <t>Spread data points; dZap1 modeled well; dGln3 not modeled well/dynamics not seen clearly; dHmo1 &amp; dCin5 not the best</t>
+  </si>
+  <si>
+    <t>Tighter data points; poor dynamics for dGln3 and dCin5; no distinguishable differences for dHmo1 &amp; dCin5 &amp; dGln3 &amp; wt</t>
+  </si>
+  <si>
+    <t>wt not modeled well (all down reg); dHmo1 increase then decrease (don't see that); dHap4 &amp; dCin5 better, but should dip at T30; dGln3 peaks at T30 and falls again</t>
+  </si>
+  <si>
+    <t>Poorly modeled: dGln3 and dCin5 (up reg T30); fits well = dZap1 &amp; dHmo1</t>
+  </si>
+  <si>
+    <t>Good fit: dCin5 &amp; dHmo1 and dZap1; dHap4 = more variable data points like wt; dGln3 similar dynamics to dZap1</t>
+  </si>
+  <si>
+    <t>Spread data points; dHmo1 appears to be modeled well, but all other models are unclear; wt data = significant but not modeled</t>
+  </si>
+  <si>
+    <t>dZap1 modeled excellently; dHmo1 looks good as well as dHap4; dGln3 not modeled well w/ other dynamics; wt not great</t>
+  </si>
+  <si>
+    <t>Dynamics good for dHmo1 &amp; dZap1; appears that dHap4 &amp; wt modeled with dZap1; dGln3 needs to fall at T60</t>
+  </si>
+  <si>
+    <t>dZap1 fits its data well; all others not b/c of spread data points (dHap4 increases then falls)</t>
+  </si>
+  <si>
+    <t>wt not modeled well (should dip @T15); other dynamics look good</t>
+  </si>
+  <si>
+    <t>dZap1 good at T30&amp;T60 not T15; others (dCin5 &amp; dHmo1) are modeled well, but wt needs more down-regulation</t>
+  </si>
+  <si>
+    <t>spread data points; dZap1 modeled well; dynamics for dHap4 indistinguishable pattern</t>
+  </si>
+  <si>
+    <t>Data points spread; not modeled well</t>
+  </si>
+  <si>
+    <t>Modeled well: dZap1 &amp; dGln3; dHap4 should dip @T60; wt should increase @T60</t>
+  </si>
+  <si>
+    <t>No separate dHap4 dynamics (appears w/ dZap1); dZap1 modeled well as well as dHmo1; wt &amp; dGln3 data points spread</t>
+  </si>
+  <si>
+    <t>dHmo1 spread; dynamics for dZap1 &amp; dCin5 modeled well; dGln3 up-regulated until T60</t>
+  </si>
+  <si>
+    <t>dGln3 not good fit (dip @T60) nor dHap4, down reg @T30; wt = down reg too; others look fine; dCin5 &amp; dZap1 = good fit</t>
+  </si>
+  <si>
+    <t>wt modeled poorly (down reg); dHap decrease @T30, but doesn’t; dCin5 &amp; dHmo1 appear fine (dHmo1 peak T15); dZap1 modeled well</t>
+  </si>
+  <si>
+    <t>dZap1 fits well; dHmo1 is ok; wt not modeled well (down-reg)</t>
+  </si>
+  <si>
+    <t>dHmo1 modeled well; same with dZap1; dCin5 modeled well, too; dHap4 not modeled well but dGln3 is with dZap1 model</t>
+  </si>
+  <si>
+    <t>dGln3 poor (dips, peaks @T30, dips again); dHapp4 not modeled well (dips lower @T15 and then increases); all others, except wt, modeled fine</t>
+  </si>
+  <si>
+    <t>wt (modeled w/ dHmo1… good); dHap4 modeled decently by dHmo1&amp;dZap1; dGln3 increases, but not modeled well; others = fine</t>
+  </si>
+  <si>
+    <t>Poorly fit for dCin5 (peak @T30), dGln3 (peak @T30 then decreases), &amp; wt (increases until T60); dHmo1 should drop but it doesn't</t>
   </si>
 </sst>
 </file>
@@ -454,9 +530,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -464,6 +537,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -796,7 +872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,9 +886,9 @@
       <selection activeCell="P6" sqref="P6:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -856,7 +932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="29" customHeight="1">
       <c r="A2">
         <v>3</v>
       </c>
@@ -899,16 +975,16 @@
       <c r="N2" s="6">
         <v>8.9506884214993337E-2</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -951,16 +1027,16 @@
       <c r="N3" s="7">
         <v>4.5710095337785986E-2</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1003,16 +1079,16 @@
       <c r="N4" s="7">
         <v>1.5870960591145199E-2</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="1:21" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" ht="44" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1055,16 +1131,16 @@
       <c r="N5" s="6">
         <v>0.1668526823465297</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" ht="28" customHeight="1">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1107,16 +1183,16 @@
       <c r="N6" s="6">
         <v>0.45347930983877699</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" ht="28" customHeight="1">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1159,16 +1235,16 @@
       <c r="N7" s="7">
         <v>2.5966862137770674E-2</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-    </row>
-    <row r="8" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21" ht="28" customHeight="1">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1211,16 +1287,16 @@
       <c r="N8" s="6">
         <v>0.52071115419199887</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" ht="28" customHeight="1">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1263,16 +1339,16 @@
       <c r="N9" s="6">
         <v>0.11714483453331906</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1315,16 +1391,16 @@
       <c r="N10" s="7">
         <v>1.5741522728162143E-2</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-    </row>
-    <row r="11" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" ht="42" customHeight="1">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1367,16 +1443,16 @@
       <c r="N11" s="7">
         <v>1.1238296525258832E-3</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-    </row>
-    <row r="12" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" ht="27" customHeight="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1419,16 +1495,16 @@
       <c r="N12" s="6">
         <v>8.3557084326203165E-2</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-    </row>
-    <row r="13" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21" ht="28" customHeight="1">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1471,16 +1547,16 @@
       <c r="N13" s="7">
         <v>2.0751052693414916E-3</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-    </row>
-    <row r="14" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" ht="27" customHeight="1">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1523,16 +1599,16 @@
       <c r="N14" s="6">
         <v>0.77989454444137885</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-    </row>
-    <row r="15" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" ht="28" customHeight="1">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1575,16 +1651,16 @@
       <c r="N15" s="6">
         <v>6.5292475138674921E-2</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" ht="28" customHeight="1">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1627,16 +1703,16 @@
       <c r="N16" s="6">
         <v>0.26584607245743569</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-    </row>
-    <row r="17" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" spans="1:21" ht="28" customHeight="1">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1679,38 +1755,32 @@
       <c r="N17" s="6">
         <v>0.45617091532496512</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="B20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="B22" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
     <mergeCell ref="P14:U14"/>
     <mergeCell ref="P15:U15"/>
     <mergeCell ref="P16:U16"/>
@@ -1721,6 +1791,12 @@
     <mergeCell ref="P11:U11"/>
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -1734,15 +1810,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1823,8 +1899,16 @@
       <c r="M2" s="7">
         <v>4.5710094999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1864,8 +1948,16 @@
       <c r="M3" s="7">
         <v>2.5966862E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1905,8 +1997,16 @@
       <c r="M4" s="6">
         <v>0.34787221299999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1946,8 +2046,16 @@
       <c r="M5" s="6">
         <v>0.117144835</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1987,8 +2095,16 @@
       <c r="M6" s="7">
         <v>1.5741523E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2028,8 +2144,16 @@
       <c r="M7" s="7">
         <v>1.1238299999999999E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2069,8 +2193,16 @@
       <c r="M8" s="6">
         <v>0.94148592399999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2110,8 +2242,16 @@
       <c r="M9" s="6">
         <v>0.51129685499999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2151,8 +2291,16 @@
       <c r="M10" s="6">
         <v>8.3557084000000004E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2340,16 @@
       <c r="M11" s="6">
         <v>0.80272494000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2233,8 +2389,16 @@
       <c r="M12" s="7">
         <v>2.0751049999999998E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2274,8 +2438,16 @@
       <c r="M13" s="6">
         <v>0.329647735</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2315,8 +2487,16 @@
       <c r="M14" s="6">
         <v>0.77989454400000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2356,8 +2536,16 @@
       <c r="M15" s="6">
         <v>0.29747801699999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2397,8 +2585,16 @@
       <c r="M16" s="6">
         <v>6.5292475000000003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2438,8 +2634,16 @@
       <c r="M17" s="6">
         <v>0.26584607199999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2479,8 +2683,35 @@
       <c r="M18" s="6">
         <v>0.45617091500000001</v>
       </c>
+      <c r="N18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N7:S7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2499,9 +2730,9 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2768,7 @@
       </c>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2573,7 +2804,7 @@
       </c>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2609,7 +2840,7 @@
       </c>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2645,7 +2876,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2681,7 +2912,7 @@
       </c>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2717,7 +2948,7 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2984,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +3020,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2825,7 +3056,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +3092,7 @@
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2897,7 +3128,7 @@
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2933,7 +3164,7 @@
       </c>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2969,7 +3200,7 @@
       </c>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3005,7 +3236,7 @@
       </c>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3054,15 +3285,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="N16" sqref="N16:S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3103,7 +3334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="29" customHeight="1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3143,16 +3374,16 @@
       <c r="M2" s="7">
         <v>4.5710095337786E-2</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" ht="29" customHeight="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3192,14 +3423,16 @@
       <c r="M3" s="6">
         <v>0.45347930983877699</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-    </row>
-    <row r="4" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" ht="29" customHeight="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3239,16 +3472,16 @@
       <c r="M4" s="7">
         <v>2.5966862137770701E-2</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="N4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-    </row>
-    <row r="5" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" ht="29" customHeight="1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3288,14 +3521,16 @@
       <c r="M5" s="6">
         <v>0.34787221257796602</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="29" customHeight="1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3335,14 +3570,16 @@
       <c r="M6" s="6">
         <v>0.117144834533319</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" ht="29" customHeight="1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3382,14 +3619,16 @@
       <c r="M7" s="7">
         <v>1.5741522728162101E-2</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" ht="29" customHeight="1">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3429,16 +3668,16 @@
       <c r="M8" s="7">
         <v>1.1238296525258799E-3</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="N8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" ht="29" customHeight="1">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3478,14 +3717,16 @@
       <c r="M9" s="6">
         <v>8.3557084326203193E-2</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" ht="29" customHeight="1">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3525,16 +3766,16 @@
       <c r="M10" s="7">
         <v>2.0751052693414899E-3</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="N10" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" ht="29" customHeight="1">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3574,14 +3815,16 @@
       <c r="M11" s="6">
         <v>0.32964773522541801</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" ht="29" customHeight="1">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3621,14 +3864,16 @@
       <c r="M12" s="6">
         <v>0.77989454444137896</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" ht="29" customHeight="1">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3668,14 +3913,16 @@
       <c r="M13" s="6">
         <v>0.297478016852251</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" ht="29" customHeight="1">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3715,16 +3962,16 @@
       <c r="M14" s="6">
         <v>6.5292475138674894E-2</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="N14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" ht="29" customHeight="1">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3764,16 +4011,16 @@
       <c r="M15" s="6">
         <v>0.26584607245743602</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="N15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" ht="29" customHeight="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3813,50 +4060,52 @@
       <c r="M16" s="6">
         <v>0.45617091532496501</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>1.4262899447569053</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3875,81 +4124,81 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0.49943241461318028</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.762384490029694</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0.14709344988578046</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.44624975588118598</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>1.2335582605122648</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.78551996118716705</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0.10823838037097554</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>0.29160072506103601</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>0.22104047968456661</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>0.82577386681059695</v>
       </c>
       <c r="L2" s="8">
@@ -3959,14 +4208,14 @@
         <v>4.5710095337786E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>0.40341617371518923</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>8.2901279432195593E-2</v>
       </c>
       <c r="D3" s="8">
@@ -3975,45 +4224,45 @@
       <c r="E3" s="9">
         <v>9.0782211164155292E-3</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0.55956054129737831</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.52024738694317496</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>0.21112327504066367</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>7.2269282640789106E-2</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>1.1691003657336887</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>0.76388269721491497</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>1.3262840268471077</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>0.45347930983877699</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0.74280103769314521</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>6.6225124959576706E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.14496421249999999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.61881514010194805</v>
       </c>
       <c r="F4" s="8">
@@ -4028,10 +4277,10 @@
       <c r="I4" s="11">
         <v>1.1178235493982801E-2</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>0.83451764044709975</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.41128551861353002</v>
       </c>
       <c r="L4" s="8">
@@ -4041,120 +4290,120 @@
         <v>2.5966862137770701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0.46099081975152839</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.33061324554751997</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.79550157196615101</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.58761063110676703</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>0.75670862537802408</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>0.876273721691745</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>1.0376358043249361</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>0.12610118972802201</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>0.46859501534613868</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>0.84451617033304205</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>0.27205031503127047</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>0.34787221257796602</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.6069986642521934</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.41886387925431101</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.25451466336976786</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.54683519144140802</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>0.35326105333333335</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0.60936795919082498</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0.21996545204598314</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>0.51888455220311103</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>0.34884443209181915</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>0.92811381976317897</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>0.15394508393757547</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>0.117144834533319</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1.8650932620982499</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.73074475229926095</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>1.391770342556409</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.482119508817688</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>2.3061993715426712</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>7.7299330333445299E-2</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>0.4916199175</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0.41648763304756098</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>1.6695016289902809</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>0.92618166088133702</v>
       </c>
       <c r="L7" s="8">
@@ -4164,8 +4413,8 @@
         <v>1.5741522728162101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="8">
@@ -4186,16 +4435,16 @@
       <c r="G8" s="10">
         <v>2.4759724199063201E-3</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2.9180452019698855</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>0.42442038054964198</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>0.5935956166666666</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>0.57583799773840905</v>
       </c>
       <c r="L8" s="8">
@@ -4205,26 +4454,26 @@
         <v>1.1238296525258799E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0.52134007093022605</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.30555896896170998</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.29328423518852464</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.220796800536256</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>0.89707527262568088</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>0.34273266373509897</v>
       </c>
       <c r="H9" s="8">
@@ -4233,27 +4482,27 @@
       <c r="I9" s="11">
         <v>1.6849469393969401E-2</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>0.58259174262920965</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <v>0.80207673397527102</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>0.27271577399171348</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>8.3557084326203193E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.99090883155290055</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0.40967747091093998</v>
       </c>
       <c r="D10" s="8">
@@ -4262,22 +4511,22 @@
       <c r="E10" s="9">
         <v>4.93615335741312E-2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0.96581777972073402</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>7.5060611423136706E-2</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0.18129154102987943</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>5.3349459021998002E-2</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>1.1693623687518766</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <v>0.83537027035042999</v>
       </c>
       <c r="L10" s="8">
@@ -4287,143 +4536,143 @@
         <v>2.0751052693414899E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>2.2139682915607048</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.312866167848105</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>1.0401974377326451</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.36919882166698498</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0.13368709963734471</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>0.32044779172975002</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0.15728062870586967</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>1.01926877470356</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>0.64906213735894502</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <v>0.41730594570108798</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>1.2349381185198764</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>0.32964773522541801</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.31068417464250242</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.673063017606508</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.72103653309031068</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.48391674975244903</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0.47450432749665211</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.37967438937929698</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.1972765913564434</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.61551986182630103</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>0.29490216368070316</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>0.96518223885221099</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>0.24774444007494334</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>0.77989454444137896</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>0.48011938996145598</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>9.5712795892028399E-2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.22145719140967934</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.44634237725270698</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>0.28926143766487428</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>0.31255665386579601</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>0.58008382961119043</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>0.98678976939878205</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>0.26555386940877401</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <v>0.517815470814041</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>0.27180895872603333</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>0.297478016852251</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>0.71081826338996668</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.174295602147962</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>0.59140979026148577</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.86844583111990603</v>
       </c>
       <c r="F14" s="8">
@@ -4438,21 +4687,21 @@
       <c r="I14" s="11">
         <v>8.3521584494051695E-3</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>0.34016385436924179</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <v>0.81524617305381997</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>0.52967263494909966</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>6.5292475138674894E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="8">
@@ -4461,16 +4710,16 @@
       <c r="C15" s="12">
         <v>4.0424970068182499E-3</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0.81979168589071361</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>5.7965913592618802E-2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>0.12698463221801584</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>0.218104991549528</v>
       </c>
       <c r="H15" s="8">
@@ -4479,21 +4728,21 @@
       <c r="I15" s="11">
         <v>1.17388410353965E-2</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>0.66388453354589305</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <v>0.21974386864794401</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>0.45414515741133887</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>0.26584607245743602</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8">
@@ -4502,44 +4751,44 @@
       <c r="C16" s="12">
         <v>8.8957362296602296E-3</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>0.66877915856657066</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.31603437363464698</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>1.2649401663214157</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>0.250267714639267</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>1.1168015855581388</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>1.01343777505961</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>0.46062824974243033</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>0.88243598341370999</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>3.1590337508333337</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>0.45617091532496501</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B20">
@@ -4567,8 +4816,8 @@
         <v>0.16907041510175169</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B21">
@@ -4596,8 +4845,8 @@
         <v>0.13123559735976209</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B22">
@@ -4625,8 +4874,8 @@
         <v>-0.12926667395981828</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B23">
@@ -4654,8 +4903,8 @@
         <v>4.3346292396410274E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B24">
@@ -4683,8 +4932,8 @@
         <v>-1.8275942509344667E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B25">
@@ -4712,8 +4961,8 @@
         <v>0.36170067962382402</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B26">
@@ -4741,8 +4990,8 @@
         <v>-2.1311537257296842E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B27">
@@ -4770,8 +5019,8 @@
         <v>2.2753025303911462E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B28">
@@ -4799,8 +5048,8 @@
         <v>3.3770360912312392E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B29">
@@ -4828,8 +5077,8 @@
         <v>-0.11251179997326144</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B30">
@@ -4857,8 +5106,8 @@
         <v>1.4405364722319403E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B31">
@@ -4886,8 +5135,8 @@
         <v>-4.2668681975209066E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B32">
@@ -4915,8 +5164,8 @@
         <v>2.2699041919194141E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B33">
@@ -4944,8 +5193,8 @@
         <v>-4.983526858966647E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B34">
@@ -4973,18 +5222,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1.4529772496030113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4996,81 +5250,81 @@
       <selection activeCell="M1" sqref="M1:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0.46762921981325017</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.762384490029694</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0.15507718760812175</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.44624975588118598</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>1.3531695317610319</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.78551996118716705</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0.13184417685843439</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>0.29160072506103601</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>0.21633234084068123</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>0.82577386681059695</v>
       </c>
       <c r="L2" s="8">
@@ -5080,14 +5334,14 @@
         <v>4.5710095337786E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>0.36744055241724194</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>8.2901279432195593E-2</v>
       </c>
       <c r="D3" s="8">
@@ -5096,45 +5350,45 @@
       <c r="E3" s="9">
         <v>9.0782211164155292E-3</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0.45576767493097242</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.52024738694317496</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>0.35242521088531681</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>7.2269282640789106E-2</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>1.2596766861136974</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>0.76388269721491497</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>1.5287111853551032</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>0.45347930983877699</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0.64449196315906043</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>6.6225124959576706E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.14496421249999999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.61881514010194805</v>
       </c>
       <c r="F4" s="8">
@@ -5149,10 +5403,10 @@
       <c r="I4" s="11">
         <v>1.1178235493982801E-2</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>0.97251846917235241</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.41128551861353002</v>
       </c>
       <c r="L4" s="8">
@@ -5162,120 +5416,120 @@
         <v>2.5966862137770701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0.4288779966154691</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.33061324554751997</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.79915311693452307</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.58761063110676703</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>0.9660822252194482</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>0.876273721691745</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>0.93934811513080341</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>0.12610118972802201</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>0.55632510435610427</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>0.84451617033304205</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>0.24962262625214857</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>0.34787221257796602</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.51847534986040478</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.41886387925431101</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.22012216031867282</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.54683519144140802</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>0.35326105333333335</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0.60936795919082498</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0.21675962268811891</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>0.51888455220311103</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>0.31056794874410643</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>0.92811381976317897</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>0.14990317153823232</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>0.117144834533319</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1.921107263358492</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.73074475229926095</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>1.3184813118381991</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.482119508817688</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>0.87114243940969038</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>7.7299330333445299E-2</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>0.4916199175</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0.41648763304756098</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>1.4184843926467146</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>0.92618166088133702</v>
       </c>
       <c r="L7" s="8">
@@ -5285,8 +5539,8 @@
         <v>1.5741522728162101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="8">
@@ -5307,16 +5561,16 @@
       <c r="G8" s="10">
         <v>2.4759724199063201E-3</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2.8113522142792289</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>0.42442038054964198</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>0.5935956166666666</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>0.57583799773840905</v>
       </c>
       <c r="L8" s="8">
@@ -5326,26 +5580,26 @@
         <v>1.1238296525258799E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0.44246578767364425</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.30555896896170998</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.32018108890811586</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.220796800536256</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>0.74008527908572086</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>0.34273266373509897</v>
       </c>
       <c r="H9" s="8">
@@ -5354,27 +5608,27 @@
       <c r="I9" s="11">
         <v>1.6849469393969401E-2</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>0.47886307133961775</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <v>0.80207673397527102</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>0.26942001350631795</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>8.3557084326203193E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.99089111138215757</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0.40967747091093998</v>
       </c>
       <c r="D10" s="8">
@@ -5383,22 +5637,22 @@
       <c r="E10" s="9">
         <v>4.93615335741312E-2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0.99473022479074003</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>7.5060611423136706E-2</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0.18648307931970642</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>5.3349459021998002E-2</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>1.1820504051938578</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <v>0.83537027035042999</v>
       </c>
       <c r="L10" s="8">
@@ -5408,143 +5662,143 @@
         <v>2.0751052693414899E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>2.1957590732105192</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.312866167848105</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.93306426678878263</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.36919882166698498</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0.38867473389801388</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>0.32044779172975002</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0.18554527265367718</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>1.01926877470356</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>0.55660240254580107</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <v>0.41730594570108798</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>1.3520900242499672</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>0.32964773522541801</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.30991511536110455</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.673063017606508</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.72431139869952321</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.48391674975244903</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0.47346994515140545</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.37967438937929698</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.19815125280133275</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.61551986182630103</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>0.29617576916422272</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>0.96518223885221099</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>0.24730202451883712</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>0.77989454444137896</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>0.49186507942959712</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>9.5712795892028399E-2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.34632056872017669</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.44634237725270698</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>0.29196274728891991</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>0.31255665386579601</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>0.43419024412434842</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>0.98678976939878205</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>0.29505389654542502</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <v>0.517815470814041</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>0.38788627559080663</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>0.297478016852251</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>0.66952270948276638</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.174295602147962</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>0.63213462105640117</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.86844583111990603</v>
       </c>
       <c r="F14" s="8">
@@ -5559,21 +5813,21 @@
       <c r="I14" s="11">
         <v>8.3521584494051695E-3</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>0.29977196577080628</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <v>0.81524617305381997</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>0.45437758885298524</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>6.5292475138674894E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="8">
@@ -5582,16 +5836,16 @@
       <c r="C15" s="12">
         <v>4.0424970068182499E-3</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0.78138836030638492</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>5.7965913592618802E-2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>0.1187863391244976</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>0.218104991549528</v>
       </c>
       <c r="H15" s="8">
@@ -5600,21 +5854,21 @@
       <c r="I15" s="11">
         <v>1.17388410353965E-2</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>0.68710592868541553</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <v>0.21974386864794401</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>0.4399607625345649</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>0.26584607245743602</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8">
@@ -5623,44 +5877,44 @@
       <c r="C16" s="12">
         <v>8.8957362296602296E-3</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>0.74314059057793569</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.31603437363464698</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>1.0719777621248878</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>0.250267714639267</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>1.2265392148812089</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>1.01343777505961</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>0.51022100995054709</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>0.88243598341370999</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>3.1590337508333337</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>0.45617091532496501</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B21">
@@ -5688,8 +5942,8 @@
         <v>0.17556038394166729</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B22">
@@ -5717,8 +5971,8 @@
         <v>0.33366275586775762</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B23">
@@ -5746,8 +6000,8 @@
         <v>0.32788518438694314</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B24">
@@ -5775,8 +6029,8 @@
         <v>2.0918603617288367E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B25">
@@ -5804,8 +6058,8 @@
         <v>-2.2317854908687818E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B26">
@@ -5833,8 +6087,8 @@
         <v>0.10776510818929508</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B27">
@@ -5862,8 +6116,8 @@
         <v>-2.2092765444606033E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B28">
@@ -5891,8 +6145,8 @@
         <v>1.9457264818515924E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B29">
@@ -5920,8 +6174,8 @@
         <v>3.7599717235844043E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B30">
@@ -5949,8 +6203,8 @@
         <v>4.6401057568292714E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B31">
@@ -5978,8 +6232,8 @@
         <v>9.9812091612572207E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B32">
@@ -6007,8 +6261,8 @@
         <v>7.3408634889564228E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B33">
@@ -6036,8 +6290,8 @@
         <v>-7.3025141904195012E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B34">
@@ -6065,8 +6319,8 @@
         <v>-6.4019663466440446E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B35">
@@ -6094,18 +6348,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1.4277504444793809</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6117,81 +6376,81 @@
       <selection activeCell="M1" sqref="M1:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>0.44887506598607224</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.762384490029694</v>
       </c>
       <c r="D2">
         <v>0.11679152299985701</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.44624975588118598</v>
       </c>
       <c r="F2">
         <v>1.3945777206948742</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.78551996118716705</v>
       </c>
       <c r="H2">
         <v>0.11868461300132331</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>0.29160072506103601</v>
       </c>
       <c r="J2">
         <v>0.20064915001483941</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>0.82577386681059695</v>
       </c>
       <c r="L2">
@@ -6201,14 +6460,14 @@
         <v>4.5710095337786E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>0.30196285537161383</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>8.2901279432195593E-2</v>
       </c>
       <c r="D3">
@@ -6220,42 +6479,42 @@
       <c r="F3">
         <v>0.65921054312278338</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.52024738694317496</v>
       </c>
       <c r="H3">
         <v>0.28924259661647339</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>7.2269282640789106E-2</v>
       </c>
       <c r="J3">
         <v>1.1639984084447386</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>0.76388269721491497</v>
       </c>
       <c r="L3">
         <v>1.3881660530428475</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>0.45347930983877699</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>0.83916390979889499</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>6.6225124959576706E-2</v>
       </c>
       <c r="D4">
         <v>0.14496421249999999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.61881514010194805</v>
       </c>
       <c r="F4">
@@ -6273,7 +6532,7 @@
       <c r="J4">
         <v>1.0610183419272048</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.41128551861353002</v>
       </c>
       <c r="L4">
@@ -6283,120 +6542,120 @@
         <v>2.5966862137770701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>0.5835028192295606</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.33061324554751997</v>
       </c>
       <c r="D5">
         <v>1.0663353250105641</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.58761063110676703</v>
       </c>
       <c r="F5">
         <v>0.75616131495641781</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>0.876273721691745</v>
       </c>
       <c r="H5">
         <v>0.80157797607880088</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>0.12610118972802201</v>
       </c>
       <c r="J5">
         <v>0.52720626920002767</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>0.84451617033304205</v>
       </c>
       <c r="L5">
         <v>0.21266082901986916</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>0.34787221257796602</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>0.49281564903433728</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.41886387925431101</v>
       </c>
       <c r="D6">
         <v>0.16737864137111971</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.54683519144140802</v>
       </c>
       <c r="F6">
         <v>0.35326105333333335</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0.60936795919082498</v>
       </c>
       <c r="H6">
         <v>0.20856423761654189</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>0.51888455220311103</v>
       </c>
       <c r="J6">
         <v>0.33762974306727234</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>0.92811381976317897</v>
       </c>
       <c r="L6">
         <v>0.16882953333304904</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>0.117144834533319</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
         <v>1.8026876831827532</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.73074475229926095</v>
       </c>
       <c r="D7">
         <v>1.1261922668626931</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.482119508817688</v>
       </c>
       <c r="F7">
         <v>0.97129556172451348</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>7.7299330333445299E-2</v>
       </c>
       <c r="H7">
         <v>0.4916199175</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0.41648763304756098</v>
       </c>
       <c r="J7">
         <v>1.4864579046462769</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>0.92618166088133702</v>
       </c>
       <c r="L7">
@@ -6406,7 +6665,7 @@
         <v>1.5741522728162101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6431,13 +6690,13 @@
       <c r="H8">
         <v>2.6989134515264293</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>0.42442038054964198</v>
       </c>
       <c r="J8">
         <v>0.5935956166666666</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>0.57583799773840905</v>
       </c>
       <c r="L8">
@@ -6447,26 +6706,26 @@
         <v>1.1238296525258799E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>0.44645128063676898</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.30555896896170998</v>
       </c>
       <c r="D9">
         <v>0.26927936002024205</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.220796800536256</v>
       </c>
       <c r="F9">
         <v>0.78125894950035712</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>0.34273266373509897</v>
       </c>
       <c r="H9">
@@ -6478,24 +6737,24 @@
       <c r="J9">
         <v>0.37631876113589918</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <v>0.80207673397527102</v>
       </c>
       <c r="L9">
         <v>0.27683268229423585</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>8.3557084326203193E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
         <v>0.98599816526241146</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0.40967747091093998</v>
       </c>
       <c r="D10">
@@ -6507,19 +6766,19 @@
       <c r="F10">
         <v>0.98024166760690967</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>7.5060611423136706E-2</v>
       </c>
       <c r="H10">
         <v>0.17581423189686915</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>5.3349459021998002E-2</v>
       </c>
       <c r="J10">
         <v>1.1726561743716</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <v>0.83537027035042999</v>
       </c>
       <c r="L10">
@@ -6529,143 +6788,143 @@
         <v>2.0751052693414899E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
         <v>1.9212686872927367</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.312866167848105</v>
       </c>
       <c r="D11">
         <v>1.1214622140564605</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.36919882166698498</v>
       </c>
       <c r="F11">
         <v>0.32044304691475267</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>0.32044779172975002</v>
       </c>
       <c r="H11">
         <v>0.14471867840895367</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>1.01926877470356</v>
       </c>
       <c r="J11">
         <v>0.66917577627132319</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <v>0.41730594570108798</v>
       </c>
       <c r="L11">
         <v>1.3191792245378569</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>0.32964773522541801</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
         <v>0.29710026100099385</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.673063017606508</v>
       </c>
       <c r="D12">
         <v>0.71027802855623701</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.48391674975244903</v>
       </c>
       <c r="F12">
         <v>0.43907404197667926</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.37967438937929698</v>
       </c>
       <c r="H12">
         <v>0.19977489334451826</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.61551986182630103</v>
       </c>
       <c r="J12">
         <v>0.22831413345809679</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>0.96518223885221099</v>
       </c>
       <c r="L12">
         <v>0.24702636578206885</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>0.77989454444137896</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
         <v>0.50016448574116457</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>9.5712795892028399E-2</v>
       </c>
       <c r="D13">
         <v>0.25630458952666907</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.44634237725270698</v>
       </c>
       <c r="F13">
         <v>0.28046184004096325</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>0.31255665386579601</v>
       </c>
       <c r="H13">
         <v>0.45892743524673629</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>0.98678976939878205</v>
       </c>
       <c r="J13">
         <v>0.29481138423063324</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <v>0.517815470814041</v>
       </c>
       <c r="L13">
         <v>0.34600107061658364</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>0.297478016852251</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
         <v>0.64936333620945197</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.174295602147962</v>
       </c>
       <c r="D14">
         <v>0.70542166663850736</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.86844583111990603</v>
       </c>
       <c r="F14">
@@ -6683,17 +6942,17 @@
       <c r="J14">
         <v>0.2785495912531385</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <v>0.81524617305381997</v>
       </c>
       <c r="L14">
         <v>0.38826247910729333</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>6.5292475138674894E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -6706,13 +6965,13 @@
       <c r="D15">
         <v>0.74321675126597364</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>5.7965913592618802E-2</v>
       </c>
       <c r="F15">
         <v>0.28328468256137962</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>0.218104991549528</v>
       </c>
       <c r="H15">
@@ -6724,17 +6983,17 @@
       <c r="J15">
         <v>0.68224489856649273</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <v>0.21974386864794401</v>
       </c>
       <c r="L15">
         <v>0.54348737917505929</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>0.26584607245743602</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -6747,40 +7006,40 @@
       <c r="D16">
         <v>0.69057563378095166</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.31603437363464698</v>
       </c>
       <c r="F16">
         <v>1.3192589361531024</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>0.250267714639267</v>
       </c>
       <c r="H16">
         <v>1.1270818363384507</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>1.01343777505961</v>
       </c>
       <c r="J16">
         <v>0.42858239837407969</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>0.88243598341370999</v>
       </c>
       <c r="L16">
         <v>3.1590337508333337</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>0.45617091532496501</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6809,7 +7068,7 @@
         <v>0.32537267690163518</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6838,7 +7097,7 @@
         <v>0.19311762355550188</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -6867,7 +7126,7 @@
         <v>0.28414001839526914</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -6896,7 +7155,7 @@
         <v>-1.6043193614991041E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -6925,7 +7184,7 @@
         <v>-3.3914931138711024E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -6954,7 +7213,7 @@
         <v>0.39712313986911085</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6983,7 +7242,7 @@
         <v>-0.13261011129199557</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -7012,7 +7271,7 @@
         <v>2.6869933606433832E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -7041,7 +7300,7 @@
         <v>2.2512132627255599E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -7070,7 +7329,7 @@
         <v>-2.8270693955281034E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7099,7 +7358,7 @@
         <v>7.2246217935745261E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -7128,7 +7387,7 @@
         <v>3.1523429915341239E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -7157,7 +7416,7 @@
         <v>-0.13914025164988691</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -7186,7 +7445,7 @@
         <v>3.9506953174053949E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -7217,6 +7476,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7224,85 +7488,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>0.46461161120783445</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.762384490029694</v>
       </c>
       <c r="D2">
         <v>0.12589539619988108</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.44624975588118598</v>
       </c>
       <c r="F2">
         <v>1.4294503711637578</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.78551996118716705</v>
       </c>
       <c r="H2">
         <v>0.15014357142951618</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>0.29160072506103601</v>
       </c>
       <c r="J2">
         <v>0.20405016522018923</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>0.82577386681059695</v>
       </c>
       <c r="L2">
@@ -7312,14 +7576,14 @@
         <v>4.5710095337786E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>0.33625857440104723</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>8.2901279432195593E-2</v>
       </c>
       <c r="D3">
@@ -7331,42 +7595,42 @@
       <c r="F3">
         <v>0.55826676143926512</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.52024738694317496</v>
       </c>
       <c r="H3">
         <v>0.26694239592955177</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>7.2269282640789106E-2</v>
       </c>
       <c r="J3">
         <v>1.052832444343329</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>0.76388269721491497</v>
       </c>
       <c r="L3">
         <v>1.2097516667624466</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>0.45347930983877699</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>0.74164798592279757</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>6.6225124959576706E-2</v>
       </c>
       <c r="D4">
         <v>0.14496421249999999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.61881514010194805</v>
       </c>
       <c r="F4">
@@ -7384,7 +7648,7 @@
       <c r="J4">
         <v>0.76833487718117677</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.41128551861353002</v>
       </c>
       <c r="L4">
@@ -7394,120 +7658,120 @@
         <v>2.5966862137770701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>0.53617565437504178</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.33061324554751997</v>
       </c>
       <c r="D5">
         <v>0.59293562298947899</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.58761063110676703</v>
       </c>
       <c r="F5">
         <v>0.78374588810153722</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>0.876273721691745</v>
       </c>
       <c r="H5">
         <v>0.81119214546738772</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>0.12610118972802201</v>
       </c>
       <c r="J5">
         <v>0.45508672699838965</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>0.84451617033304205</v>
       </c>
       <c r="L5">
         <v>0.24931281477137146</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>0.34787221257796602</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>0.47846521113725926</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.41886387925431101</v>
       </c>
       <c r="D6">
         <v>0.17403899818941052</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.54683519144140802</v>
       </c>
       <c r="F6">
         <v>0.35326105333333335</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0.60936795919082498</v>
       </c>
       <c r="H6">
         <v>0.2003139564168781</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>0.51888455220311103</v>
       </c>
       <c r="J6">
         <v>0.2196058116211731</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>0.92811381976317897</v>
       </c>
       <c r="L6">
         <v>0.20038805804358659</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>0.117144834533319</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
         <v>1.8300406543649845</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.73074475229926095</v>
       </c>
       <c r="D7">
         <v>1.3213303018673093</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.482119508817688</v>
       </c>
       <c r="F7">
         <v>2.3916826128815072</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>7.7299330333445299E-2</v>
       </c>
       <c r="H7">
         <v>0.4916199175</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0.41648763304756098</v>
       </c>
       <c r="J7">
         <v>1.7014939711627577</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>0.92618166088133702</v>
       </c>
       <c r="L7">
@@ -7517,7 +7781,7 @@
         <v>1.5741522728162101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7542,13 +7806,13 @@
       <c r="H8">
         <v>2.84891055150359</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>0.42442038054964198</v>
       </c>
       <c r="J8">
         <v>0.5935956166666666</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>0.57583799773840905</v>
       </c>
       <c r="L8">
@@ -7558,26 +7822,26 @@
         <v>1.1238296525258799E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>0.49304151285401093</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.30555896896170998</v>
       </c>
       <c r="D9">
         <v>0.35294605313617122</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.220796800536256</v>
       </c>
       <c r="F9">
         <v>0.76216163988746388</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>0.34273266373509897</v>
       </c>
       <c r="H9">
@@ -7589,24 +7853,24 @@
       <c r="J9">
         <v>0.40353896057106758</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <v>0.80207673397527102</v>
       </c>
       <c r="L9">
         <v>0.23685661072957565</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>8.3557084326203193E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
         <v>0.98939182046101404</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0.40967747091093998</v>
       </c>
       <c r="D10">
@@ -7618,19 +7882,19 @@
       <c r="F10">
         <v>0.95894372964591124</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>7.5060611423136706E-2</v>
       </c>
       <c r="H10">
         <v>0.13631895420257475</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>5.3349459021998002E-2</v>
       </c>
       <c r="J10">
         <v>1.1563609352936137</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <v>0.83537027035042999</v>
       </c>
       <c r="L10">
@@ -7640,143 +7904,143 @@
         <v>2.0751052693414899E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
         <v>2.0126870049846484</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.312866167848105</v>
       </c>
       <c r="D11">
         <v>0.87304718381783575</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.36919882166698498</v>
       </c>
       <c r="F11">
         <v>0.28375488138087501</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>0.32044779172975002</v>
       </c>
       <c r="H11">
         <v>0.14470026848728643</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>1.01926877470356</v>
       </c>
       <c r="J11">
         <v>0.58299659350313338</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <v>0.41730594570108798</v>
       </c>
       <c r="L11">
         <v>1.3068718559678623</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>0.32964773522541801</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
         <v>0.28167774766315445</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.673063017606508</v>
       </c>
       <c r="D12">
         <v>0.75382527741157768</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.48391674975244903</v>
       </c>
       <c r="F12">
         <v>0.4371350335295518</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.37967438937929698</v>
       </c>
       <c r="H12">
         <v>0.19275040449712419</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.61551986182630103</v>
       </c>
       <c r="J12">
         <v>0.2286973554841969</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>0.96518223885221099</v>
       </c>
       <c r="L12">
         <v>0.24666519615064067</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>0.77989454444137896</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
         <v>0.44579270392103781</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>9.5712795892028399E-2</v>
       </c>
       <c r="D13">
         <v>0.2939862575314679</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.44634237725270698</v>
       </c>
       <c r="F13">
         <v>0.2712575279775486</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>0.31255665386579601</v>
       </c>
       <c r="H13">
         <v>0.4765260710811931</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>0.98678976939878205</v>
       </c>
       <c r="J13">
         <v>0.26018844102660454</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <v>0.517815470814041</v>
       </c>
       <c r="L13">
         <v>0.30657028177955947</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>0.297478016852251</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
         <v>0.91614239056852798</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.174295602147962</v>
       </c>
       <c r="D14">
         <v>0.66453999813909426</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.86844583111990603</v>
       </c>
       <c r="F14">
@@ -7794,17 +8058,17 @@
       <c r="J14">
         <v>0.54841791979338794</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <v>0.81524617305381997</v>
       </c>
       <c r="L14">
         <v>0.95247747128597104</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>6.5292475138674894E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -7817,13 +8081,13 @@
       <c r="D15">
         <v>0.93602561817212537</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>5.7965913592618802E-2</v>
       </c>
       <c r="F15">
         <v>0.86163538593380296</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>0.218104991549528</v>
       </c>
       <c r="H15">
@@ -7835,17 +8099,17 @@
       <c r="J15">
         <v>0.70242209358025365</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <v>0.21974386864794401</v>
       </c>
       <c r="L15">
         <v>0.48056171042129331</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>0.26584607245743602</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7858,40 +8122,40 @@
       <c r="D16">
         <v>0.68487394122549816</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.31603437363464698</v>
       </c>
       <c r="F16">
         <v>1.5431639616190607</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>0.250267714639267</v>
       </c>
       <c r="H16">
         <v>0.89169877617241478</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>1.01343777505961</v>
       </c>
       <c r="J16">
         <v>0.35049266317162459</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>0.88243598341370999</v>
       </c>
       <c r="L16">
         <v>3.1590337508333337</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>0.45617091532496501</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -7920,7 +8184,7 @@
         <v>0.20409416680301629</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -7949,7 +8213,7 @@
         <v>1.4703237275101033E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -7978,7 +8242,7 @@
         <v>-0.11711000692593099</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -8007,7 +8271,7 @@
         <v>2.0608792136511261E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -8036,7 +8300,7 @@
         <v>2.8167031596666448E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -8065,7 +8329,7 @@
         <v>0.39785818699034925</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -8094,7 +8358,7 @@
         <v>-4.6043883978476585E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -8123,7 +8387,7 @@
         <v>-1.3106137958226377E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -8152,7 +8416,7 @@
         <v>5.8518499923429834E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -8181,7 +8445,7 @@
         <v>-4.0578062525275627E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -8210,7 +8474,7 @@
         <v>3.6129254792927057E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -8239,7 +8503,7 @@
         <v>-7.9073589216829276E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -8268,7 +8532,7 @@
         <v>0.4250747405287908</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -8297,7 +8561,7 @@
         <v>-2.3418715579712035E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -8326,18 +8590,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1.4932686836654068</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8349,9 +8618,9 @@
       <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8392,7 +8661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -8433,7 +8702,7 @@
         <v>8.9506884214993296E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8474,7 +8743,7 @@
         <v>4.5710095337786E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -8515,7 +8784,7 @@
         <v>2.5966862137770701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -8556,7 +8825,7 @@
         <v>3.7601247708696897E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -8597,7 +8866,7 @@
         <v>0.52071115419199898</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8638,7 +8907,7 @@
         <v>0.34787221257796602</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -8679,7 +8948,7 @@
         <v>0.117144834533319</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8720,7 +8989,7 @@
         <v>1.5741522728162101E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -8761,7 +9030,7 @@
         <v>1.1238296525258799E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -8802,7 +9071,7 @@
         <v>1.58741443458029E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -8843,7 +9112,7 @@
         <v>0.94148592414781596</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -8884,7 +9153,7 @@
         <v>0.51129685475720899</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -8925,7 +9194,7 @@
         <v>8.3557084326203193E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -8966,7 +9235,7 @@
         <v>2.1611821115451102E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -9007,7 +9276,7 @@
         <v>0.77989454444137896</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>21</v>
       </c>

--- a/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
+++ b/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="717" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="717" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="wt" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,12 @@
     <sheet name="rand23" sheetId="30" r:id="rId28"/>
     <sheet name="rand24" sheetId="31" r:id="rId29"/>
     <sheet name="rand25" sheetId="32" r:id="rId30"/>
-    <sheet name="Sheet8" sheetId="34" r:id="rId31"/>
+    <sheet name="rand26" sheetId="34" r:id="rId31"/>
+    <sheet name="rand27" sheetId="35" r:id="rId32"/>
+    <sheet name="rand28" sheetId="36" r:id="rId33"/>
+    <sheet name="rand29" sheetId="37" r:id="rId34"/>
+    <sheet name="rand30" sheetId="38" r:id="rId35"/>
+    <sheet name="rand31" sheetId="39" r:id="rId36"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="174">
   <si>
     <t>Gene</t>
   </si>
@@ -568,6 +573,18 @@
   <si>
     <t>Greater than 0</t>
   </si>
+  <si>
+    <t>Difference between random network 27 and db network 5 individual MSE values</t>
+  </si>
+  <si>
+    <t>Difference between random network 29 and db network 5 individual MSE values</t>
+  </si>
+  <si>
+    <t>Difference between random network 28 and db network 5 individual MSE values</t>
+  </si>
+  <si>
+    <t>rand31</t>
+  </si>
 </sst>
 </file>
 
@@ -753,11 +770,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -882,9 +899,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$28</c:f>
+              <c:f>dhap4!$U$2:$U$31</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -966,15 +983,24 @@
                 <c:pt idx="26">
                   <c:v>rand26</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>rand27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>rand28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rand29</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>dhap4!$V$2:$V$28</c:f>
+              <c:f>dhap4!$V$2:$V$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1.4262899447569053</c:v>
                 </c:pt>
@@ -1056,6 +1082,15 @@
                 <c:pt idx="26">
                   <c:v>1.4205617992424076</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4519850220020576</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4318485216486623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4434426448330233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1083,9 +1118,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$28</c:f>
+              <c:f>dhap4!$U$2:$U$31</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -1167,6 +1202,15 @@
                 <c:pt idx="26">
                   <c:v>rand26</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>rand27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>rand28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rand29</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1203,9 +1247,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$28</c:f>
+              <c:f>dhap4!$U$2:$U$31</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -1287,6 +1331,15 @@
                 <c:pt idx="26">
                   <c:v>rand26</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>rand27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>rand28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rand29</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1309,8 +1362,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="169766512"/>
-        <c:axId val="169767072"/>
+        <c:axId val="159840480"/>
+        <c:axId val="159841040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1332,9 +1385,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$28</c:f>
+              <c:f>dhap4!$U$2:$U$31</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -1416,15 +1469,24 @@
                 <c:pt idx="26">
                   <c:v>rand26</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>rand27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>rand28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rand29</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>dhap4!$W$2:$W$28</c:f>
+              <c:f>dhap4!$W$2:$W$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1.4262899447569053</c:v>
                 </c:pt>
@@ -1506,6 +1568,15 @@
                 <c:pt idx="26">
                   <c:v>1.42628994475691</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.42628994475691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.42628994475691</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.42628994475691</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1521,11 +1592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169766512"/>
-        <c:axId val="169767072"/>
+        <c:axId val="159840480"/>
+        <c:axId val="159841040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169766512"/>
+        <c:axId val="159840480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169767072"/>
+        <c:crossAx val="159841040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1576,7 +1647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169767072"/>
+        <c:axId val="159841040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5249999999999999"/>
@@ -1629,7 +1700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169766512"/>
+        <c:crossAx val="159840480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,14 +2685,14 @@
       <c r="N2" s="6">
         <v>8.9506884214993337E-2</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2666,14 +2737,14 @@
       <c r="N3" s="7">
         <v>4.5710095337785986E-2</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2718,14 +2789,14 @@
       <c r="N4" s="7">
         <v>1.5870960591145199E-2</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2770,14 +2841,14 @@
       <c r="N5" s="6">
         <v>0.1668526823465297</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2822,14 +2893,14 @@
       <c r="N6" s="6">
         <v>0.45347930983877699</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2874,14 +2945,14 @@
       <c r="N7" s="7">
         <v>2.5966862137770674E-2</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
     </row>
     <row r="8" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2926,14 +2997,14 @@
       <c r="N8" s="6">
         <v>0.52071115419199887</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2978,14 +3049,14 @@
       <c r="N9" s="6">
         <v>0.11714483453331906</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3030,14 +3101,14 @@
       <c r="N10" s="7">
         <v>1.5741522728162143E-2</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
     </row>
     <row r="11" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3082,14 +3153,14 @@
       <c r="N11" s="7">
         <v>1.1238296525258832E-3</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3134,14 +3205,14 @@
       <c r="N12" s="6">
         <v>8.3557084326203165E-2</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3186,14 +3257,14 @@
       <c r="N13" s="7">
         <v>2.0751052693414916E-3</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3238,14 +3309,14 @@
       <c r="N14" s="6">
         <v>0.77989454444137885</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
     </row>
     <row r="15" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3290,14 +3361,14 @@
       <c r="N15" s="6">
         <v>6.5292475138674921E-2</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
     </row>
     <row r="16" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3342,14 +3413,14 @@
       <c r="N16" s="6">
         <v>0.26584607245743569</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
     </row>
     <row r="17" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3394,14 +3465,14 @@
       <c r="N17" s="6">
         <v>0.45617091532496512</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -3420,12 +3491,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
     <mergeCell ref="P14:U14"/>
     <mergeCell ref="P15:U15"/>
     <mergeCell ref="P16:U16"/>
@@ -3436,6 +3501,12 @@
     <mergeCell ref="P11:U11"/>
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -14752,14 +14823,14 @@
       <c r="M2" s="7">
         <v>4.5710094999999999E-2</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -14801,14 +14872,14 @@
       <c r="M3" s="7">
         <v>2.5966862E-2</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -14850,14 +14921,14 @@
       <c r="M4" s="6">
         <v>0.34787221299999999</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -14899,14 +14970,14 @@
       <c r="M5" s="6">
         <v>0.117144835</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -14948,14 +15019,14 @@
       <c r="M6" s="7">
         <v>1.5741523E-2</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -14997,14 +15068,14 @@
       <c r="M7" s="7">
         <v>1.1238299999999999E-3</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -15046,14 +15117,14 @@
       <c r="M8" s="6">
         <v>0.94148592399999997</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -15095,14 +15166,14 @@
       <c r="M9" s="6">
         <v>0.51129685499999999</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -15144,14 +15215,14 @@
       <c r="M10" s="6">
         <v>8.3557084000000004E-2</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -15193,14 +15264,14 @@
       <c r="M11" s="6">
         <v>0.80272494000000005</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -15242,14 +15313,14 @@
       <c r="M12" s="7">
         <v>2.0751049999999998E-3</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -15291,14 +15362,14 @@
       <c r="M13" s="6">
         <v>0.329647735</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -15340,14 +15411,14 @@
       <c r="M14" s="6">
         <v>0.77989454400000002</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -15389,14 +15460,14 @@
       <c r="M15" s="6">
         <v>0.29747801699999998</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -15438,14 +15509,14 @@
       <c r="M16" s="6">
         <v>6.5292475000000003E-2</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -15487,14 +15558,14 @@
       <c r="M17" s="6">
         <v>0.26584607199999999</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -15536,17 +15607,22 @@
       <c r="M18" s="6">
         <v>0.45617091500000001</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N18:S18"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="N3:S3"/>
@@ -15559,11 +15635,6 @@
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28541,6 +28612,1127 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.46899360108700211</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2">
+        <v>0.10334912244026839</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2">
+        <v>1.2884953814354394</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2">
+        <v>0.12488926791099435</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2">
+        <v>0.22070226460526088</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2">
+        <v>0.77739679389732208</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.43572000891542484</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.63854898726174814</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.66057798542653634</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3">
+        <v>0.37189524891100523</v>
+      </c>
+      <c r="I3" s="17">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.2075916930115469</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3">
+        <v>1.8090890027394668</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.86234330896195044</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4">
+        <v>1.0553027389727532</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.3628804830553476</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.0451666888940074</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4">
+        <v>0.81465206491800968</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.47137423171088538</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5">
+        <v>0.84058551929178993</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5">
+        <v>0.78209167392517676</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5">
+        <v>0.93940916754394976</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5">
+        <v>0.48713137015116342</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5">
+        <v>0.24235193837945321</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.502030645849325</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6">
+        <v>0.18108938251704174</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6">
+        <v>0.20072125225748286</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6">
+        <v>0.27915423825034386</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6">
+        <v>0.13238094100442846</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.9428855467434063</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7">
+        <v>1.3111971740668629</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7">
+        <v>0.89002155200600053</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7">
+        <v>1.354547718255219</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7">
+        <v>0.48519001365916048</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.65240222455653707</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.74111414914172846</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.33626202180068243</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.7703669151919819</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8">
+        <v>0.43042609755189737</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.44365914492480363</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9">
+        <v>0.37038997666110229</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9">
+        <v>0.77918437921129724</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9">
+        <v>0.23149580987116491</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.53696743991819218</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9">
+        <v>0.25750984828420714</v>
+      </c>
+      <c r="M9" s="19">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.99096754420706834</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10">
+        <v>0.26969120564785581</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.96392510046497559</v>
+      </c>
+      <c r="G10" s="16">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.18244939017334935</v>
+      </c>
+      <c r="I10" s="17">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.1710377071815612</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10">
+        <v>0.30423237286290356</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1.2258134451288063</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11">
+        <v>0.81363965803639404</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11">
+        <v>0.2283663020694473</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11">
+        <v>0.1540379094657725</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11">
+        <v>0.41529600554431317</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11">
+        <v>1.3340078925389145</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.33828956412912148</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12">
+        <v>0.80595623511271375</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12">
+        <v>0.47159991640743565</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12">
+        <v>0.21191173687536546</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12">
+        <v>0.31126610331268395</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12">
+        <v>0.25500316826184494</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.50299523242568189</v>
+      </c>
+      <c r="C13" s="14">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.34601075471121073</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13">
+        <v>0.29193775600961652</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13">
+        <v>0.4548290768462479</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13">
+        <v>0.29708339218072233</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13">
+        <v>0.35014861488361942</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.6724149671295796</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14">
+        <v>0.71770239001549763</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14">
+        <v>0.82328965325360415</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.32600401216996194</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.46217007431239088</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14">
+        <v>0.40383601452519774</v>
+      </c>
+      <c r="M14" s="19">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.40396061426746582</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.89075829288669917</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.13713267194666875</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15">
+        <v>0.472501303646295</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.8923394682862279</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15">
+        <v>0.54488985548064173</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2.3037937884252284</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.67347133994188224</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16">
+        <v>1.2801951193247185</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16">
+        <v>1.1287440740512968</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16">
+        <v>0.4608365277570679</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>5.4598897290016768E-2</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>7.2674552591762143E-3</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>-1.754588114611999E-2</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>-2.1074979661201074E-2</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>1.0094587400653082E-2</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>-6.9561181954250983E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>0.18212974535258702</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.33817941780589872</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>2.6304580637653951E-2</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>5.56971888465016E-2</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>1.4280648534420681E-2</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>0.61404057325212125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>3.2918467859902267E-2</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>0.18738268029847771</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>0.26852815947818121</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>0.27545152491519864</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>0.13718918367621269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>-4.0653096164321167E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>-6.3340124761507077E-2</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>1.2914392542247688E-2</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>5.3681448351599159E-2</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>-1.6156453946360727E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>1.3647915744593009E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>2.7703094272171769E-2</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>-2.0308934924970795E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>1.3962019139961979E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>4.2107428154930793E-2</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>-3.9840085442491679E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.20723112560744084</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>0.15016918936337853</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>-0.45457388071397375</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>-6.6838523429479269E-2</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>-7.448006532673157E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>3.4660925503452122E-2</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>5.7058757118111925E-2</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>3.9542906758440466E-2</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>-5.7268368066595965E-2</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>-9.3491074523289475E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>-1.9812001934267853E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-1.4276900798605829E-2</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>9.8795393849508972E-3</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>2.4584741923608933E-2</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>8.7950897998068822E-2</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>7.5470995964051213E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>8.4886607861239805E-3</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-3.5929364516504414E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>-6.6964585209797756E-3</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>4.2622692850002586E-3</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-1.4648943607452392E-2</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>3.4475469732481168E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>-0.57053393545364628</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>-6.2490512837605539E-2</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-0.16063620061547801</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>-1.994063811275662E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>-0.11845334767763976</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>-1.3442025954223391E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>2.9272033831140076E-2</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>0.10740272227250303</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>1.9589544052287522E-3</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>2.0793660113108875E-2</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-8.8344294413666979E-3</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>8.6992646591335376E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>9.9404332284674379E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>0.11980861302024545</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>1.1723788960898318E-2</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>-9.6610344416772631E-3</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>5.6078408926961476E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>3.5670974182377024E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>-6.1640398492703752E-2</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>9.3964286665399022E-2</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>-0.21909551027678809</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>7.2460597294430051E-2</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>0.17536999986522889</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>-0.12356671623198251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>-9.4302558934605818E-4</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>0.15684429983586401</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>-1.351787754005257</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>-0.2513561369560115</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>0.23144741126027413</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>4.0909429479636383E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>5.4103199972566074E-5</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>1.3005192334936133E-5</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>-2.4752979758124738E-5</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>-2.6535722237097659E-5</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>-2.0608786834630521E-5</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4205617992424076</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -28592,37 +29784,37 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.46899360108700211</v>
+        <v>0.41270383260991622</v>
       </c>
       <c r="C2" s="14">
         <v>0.762384490029694</v>
       </c>
       <c r="D2">
-        <v>0.10334912244026839</v>
+        <v>9.8285426735361267E-2</v>
       </c>
       <c r="E2" s="15">
         <v>0.44624975588118598</v>
       </c>
       <c r="F2">
-        <v>1.2884953814354394</v>
+        <v>1.3711996873180523</v>
       </c>
       <c r="G2" s="16">
         <v>0.78551996118716705</v>
       </c>
       <c r="H2">
-        <v>0.12488926791099435</v>
+        <v>0.11655795989751488</v>
       </c>
       <c r="I2" s="17">
         <v>0.29160072506103601</v>
       </c>
       <c r="J2">
-        <v>0.22070226460526088</v>
+        <v>0.20442009617097803</v>
       </c>
       <c r="K2" s="18">
         <v>0.82577386681059695</v>
       </c>
       <c r="L2">
-        <v>0.77739679389732208</v>
+        <v>0.82817517438208299</v>
       </c>
       <c r="M2" s="7">
         <v>4.5710095337786E-2</v>
@@ -28633,37 +29825,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.43572000891542484</v>
+        <v>0.31166254455904052</v>
       </c>
       <c r="C3" s="14">
         <v>8.2901279432195593E-2</v>
       </c>
       <c r="D3">
-        <v>0.63854898726174814</v>
+        <v>0.93680980361262078</v>
       </c>
       <c r="E3" s="9">
         <v>9.0782211164155292E-3</v>
       </c>
       <c r="F3">
-        <v>0.66057798542653634</v>
+        <v>0.48909160001214252</v>
       </c>
       <c r="G3" s="16">
         <v>0.52024738694317496</v>
       </c>
       <c r="H3">
-        <v>0.37189524891100523</v>
+        <v>0.2839741913987322</v>
       </c>
       <c r="I3" s="17">
         <v>7.2269282640789106E-2</v>
       </c>
       <c r="J3">
-        <v>1.2075916930115469</v>
+        <v>1.1248102632300447</v>
       </c>
       <c r="K3" s="18">
         <v>0.76388269721491497</v>
       </c>
       <c r="L3">
-        <v>1.8090890027394668</v>
+        <v>1.2139080212237927</v>
       </c>
       <c r="M3" s="19">
         <v>0.45347930983877699</v>
@@ -28674,7 +29866,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.86234330896195044</v>
+        <v>0.75398920742439701</v>
       </c>
       <c r="C4" s="14">
         <v>6.6225124959576706E-2</v>
@@ -28686,25 +29878,25 @@
         <v>0.61881514010194805</v>
       </c>
       <c r="F4">
-        <v>1.0553027389727532</v>
+        <v>0.8017769857946323</v>
       </c>
       <c r="G4" s="10">
         <v>1.6347989883004101E-2</v>
       </c>
       <c r="H4">
-        <v>1.3628804830553476</v>
+        <v>1.0044469711252013</v>
       </c>
       <c r="I4" s="11">
         <v>1.1178235493982801E-2</v>
       </c>
       <c r="J4">
-        <v>1.0451666888940074</v>
+        <v>0.72995945528217421</v>
       </c>
       <c r="K4" s="18">
         <v>0.41128551861353002</v>
       </c>
       <c r="L4">
-        <v>0.81465206491800968</v>
+        <v>0.51103595414189884</v>
       </c>
       <c r="M4" s="7">
         <v>2.5966862137770701E-2</v>
@@ -28715,37 +29907,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.47137423171088538</v>
+        <v>0.30585152826060596</v>
       </c>
       <c r="C5" s="14">
         <v>0.33061324554751997</v>
       </c>
       <c r="D5">
-        <v>0.84058551929178993</v>
+        <v>0.5323629623709073</v>
       </c>
       <c r="E5" s="15">
         <v>0.58761063110676703</v>
       </c>
       <c r="F5">
-        <v>0.78209167392517676</v>
+        <v>0.7512339385946295</v>
       </c>
       <c r="G5" s="16">
         <v>0.876273721691745</v>
       </c>
       <c r="H5">
-        <v>0.93940916754394976</v>
+        <v>0.72902596440669409</v>
       </c>
       <c r="I5" s="17">
         <v>0.12610118972802201</v>
       </c>
       <c r="J5">
-        <v>0.48713137015116342</v>
+        <v>0.53142790535574258</v>
       </c>
       <c r="K5" s="18">
         <v>0.84451617033304205</v>
       </c>
       <c r="L5">
-        <v>0.24235193837945321</v>
+        <v>0.21122246575912393</v>
       </c>
       <c r="M5" s="19">
         <v>0.34787221257796602</v>
@@ -28756,13 +29948,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.502030645849325</v>
+        <v>0.53942958330223845</v>
       </c>
       <c r="C6" s="14">
         <v>0.41886387925431101</v>
       </c>
       <c r="D6">
-        <v>0.18108938251704174</v>
+        <v>0.22755158377805221</v>
       </c>
       <c r="E6" s="15">
         <v>0.54683519144140802</v>
@@ -28774,19 +29966,19 @@
         <v>0.60936795919082498</v>
       </c>
       <c r="H6">
-        <v>0.20072125225748286</v>
+        <v>0.21102605783050435</v>
       </c>
       <c r="I6" s="17">
         <v>0.51888455220311103</v>
       </c>
       <c r="J6">
-        <v>0.27915423825034386</v>
+        <v>0.31934040348168619</v>
       </c>
       <c r="K6" s="18">
         <v>0.92811381976317897</v>
       </c>
       <c r="L6">
-        <v>0.13238094100442846</v>
+        <v>0.14428553104889238</v>
       </c>
       <c r="M6" s="19">
         <v>0.117144834533319</v>
@@ -28797,19 +29989,19 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1.9428855467434063</v>
+        <v>1.8171285474759578</v>
       </c>
       <c r="C7" s="14">
         <v>0.73074475229926095</v>
       </c>
       <c r="D7">
-        <v>1.3111971740668629</v>
+        <v>1.1464290946945146</v>
       </c>
       <c r="E7" s="15">
         <v>0.482119508817688</v>
       </c>
       <c r="F7">
-        <v>0.89002155200600053</v>
+        <v>1.9000831937205029</v>
       </c>
       <c r="G7" s="16">
         <v>7.7299330333445299E-2</v>
@@ -28821,13 +30013,13 @@
         <v>0.41648763304756098</v>
       </c>
       <c r="J7">
-        <v>1.354547718255219</v>
+        <v>1.8277550001283214</v>
       </c>
       <c r="K7" s="18">
         <v>0.92618166088133702</v>
       </c>
       <c r="L7">
-        <v>0.48519001365916048</v>
+        <v>0.96908116884842299</v>
       </c>
       <c r="M7" s="7">
         <v>1.5741522728162101E-2</v>
@@ -28838,25 +30030,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.65240222455653707</v>
+        <v>0.60303433150460217</v>
       </c>
       <c r="C8" s="12">
         <v>3.9736164584284001E-2</v>
       </c>
       <c r="D8">
-        <v>0.74111414914172846</v>
+        <v>0.65124338290750516</v>
       </c>
       <c r="E8" s="9">
         <v>2.23753114222145E-3</v>
       </c>
       <c r="F8">
-        <v>0.33626202180068243</v>
+        <v>0.35245866100441403</v>
       </c>
       <c r="G8" s="10">
         <v>2.4759724199063201E-3</v>
       </c>
       <c r="H8">
-        <v>2.7703669151919819</v>
+        <v>2.683376494802145</v>
       </c>
       <c r="I8" s="17">
         <v>0.42442038054964198</v>
@@ -28868,7 +30060,7 @@
         <v>0.57583799773840905</v>
       </c>
       <c r="L8">
-        <v>0.43042609755189737</v>
+        <v>0.36701550490032747</v>
       </c>
       <c r="M8" s="7">
         <v>1.1238296525258799E-3</v>
@@ -28879,37 +30071,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.44365914492480363</v>
+        <v>0.46183756236936474</v>
       </c>
       <c r="C9" s="14">
         <v>0.30555896896170998</v>
       </c>
       <c r="D9">
-        <v>0.37038997666110229</v>
+        <v>0.36340500206329723</v>
       </c>
       <c r="E9" s="15">
         <v>0.220796800536256</v>
       </c>
       <c r="F9">
-        <v>0.77918437921129724</v>
+        <v>0.92860481350537516</v>
       </c>
       <c r="G9" s="16">
         <v>0.34273266373509897</v>
       </c>
       <c r="H9">
-        <v>0.23149580987116491</v>
+        <v>0.19454695575862888</v>
       </c>
       <c r="I9" s="11">
         <v>1.6849469393969401E-2</v>
       </c>
       <c r="J9">
-        <v>0.53696743991819218</v>
+        <v>0.46839589236645668</v>
       </c>
       <c r="K9" s="18">
         <v>0.80207673397527102</v>
       </c>
       <c r="L9">
-        <v>0.25750984828420714</v>
+        <v>0.28309199811093039</v>
       </c>
       <c r="M9" s="19">
         <v>8.3557084326203193E-2</v>
@@ -28920,37 +30112,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.99096754420706834</v>
+        <v>0.99088611042847874</v>
       </c>
       <c r="C10" s="14">
         <v>0.40967747091093998</v>
       </c>
       <c r="D10">
-        <v>0.26969120564785581</v>
+        <v>0.26967600706293821</v>
       </c>
       <c r="E10" s="9">
         <v>4.93615335741312E-2</v>
       </c>
       <c r="F10">
-        <v>0.96392510046497559</v>
+        <v>0.96296859103923671</v>
       </c>
       <c r="G10" s="16">
         <v>7.5060611423136706E-2</v>
       </c>
       <c r="H10">
-        <v>0.18244939017334935</v>
+        <v>0.18295188001554899</v>
       </c>
       <c r="I10" s="17">
         <v>5.3349459021998002E-2</v>
       </c>
       <c r="J10">
-        <v>1.1710377071815612</v>
+        <v>1.171544462813791</v>
       </c>
       <c r="K10" s="18">
         <v>0.83537027035042999</v>
       </c>
       <c r="L10">
-        <v>0.30423237286290356</v>
+        <v>0.30432438928080224</v>
       </c>
       <c r="M10" s="7">
         <v>2.0751052693414899E-3</v>
@@ -28961,37 +30153,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1.2258134451288063</v>
+        <v>2.1633252070032643</v>
       </c>
       <c r="C11" s="14">
         <v>0.312866167848105</v>
       </c>
       <c r="D11">
-        <v>0.81363965803639404</v>
+        <v>0.98228968964525976</v>
       </c>
       <c r="E11" s="15">
         <v>0.36919882166698498</v>
       </c>
       <c r="F11">
-        <v>0.2283663020694473</v>
+        <v>0.24011484634929467</v>
       </c>
       <c r="G11" s="16">
         <v>0.32044779172975002</v>
       </c>
       <c r="H11">
-        <v>0.1540379094657725</v>
+        <v>0.13319928268231016</v>
       </c>
       <c r="I11" s="17">
         <v>1.01926877470356</v>
       </c>
       <c r="J11">
-        <v>0.41529600554431317</v>
+        <v>0.5969609826027763</v>
       </c>
       <c r="K11" s="18">
         <v>0.41730594570108798</v>
       </c>
       <c r="L11">
-        <v>1.3340078925389145</v>
+        <v>1.2838416663700543</v>
       </c>
       <c r="M11" s="19">
         <v>0.32964773522541801</v>
@@ -29002,37 +30194,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.33828956412912148</v>
+        <v>0.28029692025277692</v>
       </c>
       <c r="C12" s="14">
         <v>0.673063017606508</v>
       </c>
       <c r="D12">
-        <v>0.80595623511271375</v>
+        <v>0.77471574787480979</v>
       </c>
       <c r="E12" s="15">
         <v>0.48391674975244903</v>
       </c>
       <c r="F12">
-        <v>0.47159991640743565</v>
+        <v>0.59549328082487263</v>
       </c>
       <c r="G12" s="16">
         <v>0.37967438937929698</v>
       </c>
       <c r="H12">
-        <v>0.21191173687536546</v>
+        <v>0.17897766779646315</v>
       </c>
       <c r="I12" s="17">
         <v>0.61551986182630103</v>
       </c>
       <c r="J12">
-        <v>0.31126610331268395</v>
+        <v>0.24505936928074259</v>
       </c>
       <c r="K12" s="18">
         <v>0.96518223885221099</v>
       </c>
       <c r="L12">
-        <v>0.25500316826184494</v>
+        <v>0.29321707057911633</v>
       </c>
       <c r="M12" s="19">
         <v>0.77989454444137896</v>
@@ -29043,37 +30235,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.50299523242568189</v>
+        <v>0.40635756289570613</v>
       </c>
       <c r="C13" s="14">
         <v>9.5712795892028399E-2</v>
       </c>
       <c r="D13">
-        <v>0.34601075471121073</v>
+        <v>0.30338759303322849</v>
       </c>
       <c r="E13" s="15">
         <v>0.44634237725270698</v>
       </c>
       <c r="F13">
-        <v>0.29193775600961652</v>
+        <v>0.28520676170557352</v>
       </c>
       <c r="G13" s="16">
         <v>0.31255665386579601</v>
       </c>
       <c r="H13">
-        <v>0.4548290768462479</v>
+        <v>0.51040645669078377</v>
       </c>
       <c r="I13" s="17">
         <v>0.98678976939878205</v>
       </c>
       <c r="J13">
-        <v>0.29708339218072233</v>
+        <v>0.25530097451863704</v>
       </c>
       <c r="K13" s="18">
         <v>0.517815470814041</v>
       </c>
       <c r="L13">
-        <v>0.35014861488361942</v>
+        <v>0.27042348164453428</v>
       </c>
       <c r="M13" s="19">
         <v>0.297478016852251</v>
@@ -29084,37 +30276,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6724149671295796</v>
+        <v>0.86406705036487952</v>
       </c>
       <c r="C14" s="14">
         <v>0.174295602147962</v>
       </c>
       <c r="D14">
-        <v>0.71770239001549763</v>
+        <v>0.64143445183685621</v>
       </c>
       <c r="E14" s="15">
         <v>0.86844583111990603</v>
       </c>
       <c r="F14">
-        <v>0.82328965325360415</v>
+        <v>1.1774367991362258</v>
       </c>
       <c r="G14" s="10">
         <v>4.3268390080787603E-2</v>
       </c>
       <c r="H14">
-        <v>0.32600401216996194</v>
+        <v>0.8027185567267261</v>
       </c>
       <c r="I14" s="11">
         <v>8.3521584494051695E-3</v>
       </c>
       <c r="J14">
-        <v>0.46217007431239088</v>
+        <v>0.43428023947856187</v>
       </c>
       <c r="K14" s="18">
         <v>0.81524617305381997</v>
       </c>
       <c r="L14">
-        <v>0.40383601452519774</v>
+        <v>0.844718648473051</v>
       </c>
       <c r="M14" s="19">
         <v>6.5292475138674894E-2</v>
@@ -29125,37 +30317,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.40396061426746582</v>
+        <v>0.4826443799862703</v>
       </c>
       <c r="C15" s="12">
         <v>4.0424970068182499E-3</v>
       </c>
       <c r="D15">
-        <v>0.89075829288669917</v>
+        <v>0.94122097823079931</v>
       </c>
       <c r="E15" s="15">
         <v>5.7965913592618802E-2</v>
       </c>
       <c r="F15">
-        <v>0.13713267194666875</v>
+        <v>1.3877291528486915</v>
       </c>
       <c r="G15" s="16">
         <v>0.218104991549528</v>
       </c>
       <c r="H15">
-        <v>0.472501303646295</v>
+        <v>0.58457312882699841</v>
       </c>
       <c r="I15" s="11">
         <v>1.17388410353965E-2</v>
       </c>
       <c r="J15">
-        <v>0.8923394682862279</v>
+        <v>0.86880898781610616</v>
       </c>
       <c r="K15" s="18">
         <v>0.21974386864794401</v>
       </c>
       <c r="L15">
-        <v>0.54488985548064173</v>
+        <v>0.71959956818996906</v>
       </c>
       <c r="M15" s="19">
         <v>0.26584607245743602</v>
@@ -29166,31 +30358,31 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>2.3037937884252284</v>
+        <v>1.2392160736024591</v>
       </c>
       <c r="C16" s="12">
         <v>8.8957362296602296E-3</v>
       </c>
       <c r="D16">
-        <v>0.67347133994188224</v>
+        <v>0.82456982344676</v>
       </c>
       <c r="E16" s="15">
         <v>0.31603437363464698</v>
       </c>
       <c r="F16">
-        <v>1.2801951193247185</v>
+        <v>1.1274796771958202</v>
       </c>
       <c r="G16" s="16">
         <v>0.250267714639267</v>
       </c>
       <c r="H16">
-        <v>1.1287440740512968</v>
+        <v>0.87055085800963738</v>
       </c>
       <c r="I16" s="17">
         <v>1.01343777505961</v>
       </c>
       <c r="J16">
-        <v>0.4608365277570679</v>
+        <v>0.35883867577653122</v>
       </c>
       <c r="K16" s="18">
         <v>0.88243598341370999</v>
@@ -29204,7 +30396,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -29213,27 +30405,27 @@
       </c>
       <c r="B21">
         <f>B2-dhap4!B2</f>
-        <v>5.4598897290016768E-2</v>
+        <v>-1.6908711870691207E-3</v>
       </c>
       <c r="D21">
         <f>D2-dhap4!D2</f>
-        <v>7.2674552591762143E-3</v>
+        <v>2.2037595542690885E-3</v>
       </c>
       <c r="F21">
         <f>F2-dhap4!F2</f>
-        <v>-1.754588114611999E-2</v>
+        <v>6.5158424736492915E-2</v>
       </c>
       <c r="H21">
         <f>H2-dhap4!H2</f>
-        <v>-2.1074979661201074E-2</v>
+        <v>-2.9406287674680537E-2</v>
       </c>
       <c r="J21">
         <f>J2-dhap4!J2</f>
-        <v>1.0094587400653082E-2</v>
+        <v>-6.1875810336297632E-3</v>
       </c>
       <c r="L21">
         <f>L2-dhap4!L2</f>
-        <v>-6.9561181954250983E-2</v>
+        <v>-1.8782801469490074E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -29242,27 +30434,27 @@
       </c>
       <c r="B22">
         <f>B3-dhap4!B3</f>
-        <v>0.18212974535258702</v>
+        <v>5.8072280996202708E-2</v>
       </c>
       <c r="D22">
         <f>D3-dhap4!D3</f>
-        <v>0.33817941780589872</v>
+        <v>0.63644023415677142</v>
       </c>
       <c r="F22">
         <f>F3-dhap4!F3</f>
-        <v>2.6304580637653951E-2</v>
+        <v>-0.14518180477673986</v>
       </c>
       <c r="H22">
         <f>H3-dhap4!H3</f>
-        <v>5.56971888465016E-2</v>
+        <v>-3.2223868665771427E-2</v>
       </c>
       <c r="J22">
         <f>J3-dhap4!J3</f>
-        <v>1.4280648534420681E-2</v>
+        <v>-6.8500781247081477E-2</v>
       </c>
       <c r="L22">
         <f>L3-dhap4!L3</f>
-        <v>0.61404057325212125</v>
+        <v>1.8859591736447134E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -29271,7 +30463,7 @@
       </c>
       <c r="B23">
         <f>B4-dhap4!B4</f>
-        <v>3.2918467859902267E-2</v>
+        <v>-7.5435633677651159E-2</v>
       </c>
       <c r="D23">
         <f>D4-dhap4!D4</f>
@@ -29279,19 +30471,19 @@
       </c>
       <c r="F23">
         <f>F4-dhap4!F4</f>
-        <v>0.18738268029847771</v>
+        <v>-6.6143072879643161E-2</v>
       </c>
       <c r="H23">
         <f>H4-dhap4!H4</f>
-        <v>0.26852815947818121</v>
+        <v>-8.990535245196507E-2</v>
       </c>
       <c r="J23">
         <f>J4-dhap4!J4</f>
-        <v>0.27545152491519864</v>
+        <v>-3.9755708696634584E-2</v>
       </c>
       <c r="L23">
         <f>L4-dhap4!L4</f>
-        <v>0.13718918367621269</v>
+        <v>-0.16642692709989815</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -29300,27 +30492,27 @@
       </c>
       <c r="B24">
         <f>B5-dhap4!B5</f>
-        <v>-4.0653096164321167E-2</v>
+        <v>-0.20617579961460059</v>
       </c>
       <c r="D24">
         <f>D5-dhap4!D5</f>
-        <v>-6.3340124761507077E-2</v>
+        <v>-0.37156268168238971</v>
       </c>
       <c r="F24">
         <f>F5-dhap4!F5</f>
-        <v>1.2914392542247688E-2</v>
+        <v>-1.7943342788299566E-2</v>
       </c>
       <c r="H24">
         <f>H5-dhap4!H5</f>
-        <v>5.3681448351599159E-2</v>
+        <v>-0.15670175478565651</v>
       </c>
       <c r="J24">
         <f>J5-dhap4!J5</f>
-        <v>-1.6156453946360727E-2</v>
+        <v>2.814008125821843E-2</v>
       </c>
       <c r="L24">
         <f>L5-dhap4!L5</f>
-        <v>1.3647915744593009E-2</v>
+        <v>-1.748155687573627E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -29329,11 +30521,11 @@
       </c>
       <c r="B25">
         <f>B6-dhap4!B6</f>
-        <v>2.7703094272171769E-2</v>
+        <v>6.5102031725085219E-2</v>
       </c>
       <c r="D25">
         <f>D6-dhap4!D6</f>
-        <v>-2.0308934924970795E-2</v>
+        <v>2.6153266336039677E-2</v>
       </c>
       <c r="F25">
         <f>F6-dhap4!F6</f>
@@ -29341,15 +30533,15 @@
       </c>
       <c r="H25">
         <f>H6-dhap4!H6</f>
-        <v>1.3962019139961979E-2</v>
+        <v>2.426682471298347E-2</v>
       </c>
       <c r="J25">
         <f>J6-dhap4!J6</f>
-        <v>4.2107428154930793E-2</v>
+        <v>8.2293593386273123E-2</v>
       </c>
       <c r="L25">
         <f>L6-dhap4!L6</f>
-        <v>-3.9840085442491679E-2</v>
+        <v>-2.7935495398027754E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -29358,15 +30550,15 @@
       </c>
       <c r="B26">
         <f>B7-dhap4!B7</f>
-        <v>-0.20723112560744084</v>
+        <v>-0.33298812487488938</v>
       </c>
       <c r="D26">
         <f>D7-dhap4!D7</f>
-        <v>0.15016918936337853</v>
+        <v>-1.4598890008969745E-2</v>
       </c>
       <c r="F26">
         <f>F7-dhap4!F7</f>
-        <v>-0.45457388071397375</v>
+        <v>0.55548776100052866</v>
       </c>
       <c r="H26">
         <f>H7-dhap4!H7</f>
@@ -29374,11 +30566,11 @@
       </c>
       <c r="J26">
         <f>J7-dhap4!J7</f>
-        <v>-6.6838523429479269E-2</v>
+        <v>0.40636875844362308</v>
       </c>
       <c r="L26">
         <f>L7-dhap4!L7</f>
-        <v>-7.448006532673157E-2</v>
+        <v>0.40941108986253094</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -29387,19 +30579,19 @@
       </c>
       <c r="B27">
         <f>B8-dhap4!B8</f>
-        <v>3.4660925503452122E-2</v>
+        <v>-1.4706967548482774E-2</v>
       </c>
       <c r="D27">
         <f>D8-dhap4!D8</f>
-        <v>5.7058757118111925E-2</v>
+        <v>-3.2812009116111374E-2</v>
       </c>
       <c r="F27">
         <f>F8-dhap4!F8</f>
-        <v>3.9542906758440466E-2</v>
+        <v>5.5739545962172066E-2</v>
       </c>
       <c r="H27">
         <f>H8-dhap4!H8</f>
-        <v>-5.7268368066595965E-2</v>
+        <v>-0.14425878845643281</v>
       </c>
       <c r="J27">
         <f>J8-dhap4!J8</f>
@@ -29407,7 +30599,7 @@
       </c>
       <c r="L27">
         <f>L8-dhap4!L8</f>
-        <v>-9.3491074523289475E-2</v>
+        <v>-0.15690166717485937</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -29416,27 +30608,27 @@
       </c>
       <c r="B28">
         <f>B9-dhap4!B9</f>
-        <v>-1.9812001934267853E-2</v>
+        <v>-1.6335844897067409E-3</v>
       </c>
       <c r="D28">
         <f>D9-dhap4!D9</f>
-        <v>-1.4276900798605829E-2</v>
+        <v>-2.126187539641089E-2</v>
       </c>
       <c r="F28">
         <f>F9-dhap4!F9</f>
-        <v>9.8795393849508972E-3</v>
+        <v>0.15929997367902882</v>
       </c>
       <c r="H28">
         <f>H9-dhap4!H9</f>
-        <v>2.4584741923608933E-2</v>
+        <v>-1.2364112188927107E-2</v>
       </c>
       <c r="J28">
         <f>J9-dhap4!J9</f>
-        <v>8.7950897998068822E-2</v>
+        <v>1.9379350446333321E-2</v>
       </c>
       <c r="L28">
         <f>L9-dhap4!L9</f>
-        <v>7.5470995964051213E-3</v>
+        <v>3.3129249423128365E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -29445,27 +30637,27 @@
       </c>
       <c r="B29">
         <f>B10-dhap4!B10</f>
-        <v>8.4886607861239805E-3</v>
+        <v>8.4072270075343791E-3</v>
       </c>
       <c r="D29">
         <f>D10-dhap4!D10</f>
-        <v>-3.5929364516504414E-2</v>
+        <v>-3.5944563101422022E-2</v>
       </c>
       <c r="F29">
         <f>F10-dhap4!F10</f>
-        <v>-6.6964585209797756E-3</v>
+        <v>-7.6529679467186584E-3</v>
       </c>
       <c r="H29">
         <f>H10-dhap4!H10</f>
-        <v>4.2622692850002586E-3</v>
+        <v>4.7647591271998968E-3</v>
       </c>
       <c r="J29">
         <f>J10-dhap4!J10</f>
-        <v>-1.4648943607452392E-2</v>
+        <v>-1.4142187975222598E-2</v>
       </c>
       <c r="L29">
         <f>L10-dhap4!L10</f>
-        <v>3.4475469732481168E-2</v>
+        <v>3.4567486150379856E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -29474,27 +30666,27 @@
       </c>
       <c r="B30">
         <f>B11-dhap4!B11</f>
-        <v>-0.57053393545364628</v>
+        <v>0.36697782642081167</v>
       </c>
       <c r="D30">
         <f>D11-dhap4!D11</f>
-        <v>-6.2490512837605539E-2</v>
+        <v>0.10615951877126018</v>
       </c>
       <c r="F30">
         <f>F11-dhap4!F11</f>
-        <v>-0.16063620061547801</v>
+        <v>-0.14888765633563064</v>
       </c>
       <c r="H30">
         <f>H11-dhap4!H11</f>
-        <v>-1.994063811275662E-2</v>
+        <v>-4.077926489621897E-2</v>
       </c>
       <c r="J30">
         <f>J11-dhap4!J11</f>
-        <v>-0.11845334767763976</v>
+        <v>6.3211629380823364E-2</v>
       </c>
       <c r="L30">
         <f>L11-dhap4!L11</f>
-        <v>-1.3442025954223391E-2</v>
+        <v>-6.3608252123083631E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -29503,27 +30695,27 @@
       </c>
       <c r="B31">
         <f>B12-dhap4!B12</f>
-        <v>2.9272033831140076E-2</v>
+        <v>-2.8720610045204487E-2</v>
       </c>
       <c r="D31">
         <f>D12-dhap4!D12</f>
-        <v>0.10740272227250303</v>
+        <v>7.6162235034599068E-2</v>
       </c>
       <c r="F31">
         <f>F12-dhap4!F12</f>
-        <v>1.9589544052287522E-3</v>
+        <v>0.12585231882266573</v>
       </c>
       <c r="H31">
         <f>H12-dhap4!H12</f>
-        <v>2.0793660113108875E-2</v>
+        <v>-1.2140408965793437E-2</v>
       </c>
       <c r="J31">
         <f>J12-dhap4!J12</f>
-        <v>-8.8344294413666979E-3</v>
+        <v>-7.5041163473308053E-2</v>
       </c>
       <c r="L31">
         <f>L12-dhap4!L12</f>
-        <v>8.6992646591335376E-3</v>
+        <v>4.6913166976404935E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -29532,27 +30724,27 @@
       </c>
       <c r="B32">
         <f>B13-dhap4!B13</f>
-        <v>9.9404332284674379E-2</v>
+        <v>2.7666627546986122E-3</v>
       </c>
       <c r="D32">
         <f>D13-dhap4!D13</f>
-        <v>0.11980861302024545</v>
+        <v>7.7185451342263206E-2</v>
       </c>
       <c r="F32">
         <f>F13-dhap4!F13</f>
-        <v>1.1723788960898318E-2</v>
+        <v>4.992794656855315E-3</v>
       </c>
       <c r="H32">
         <f>H13-dhap4!H13</f>
-        <v>-9.6610344416772631E-3</v>
+        <v>4.5916345402858605E-2</v>
       </c>
       <c r="J32">
         <f>J13-dhap4!J13</f>
-        <v>5.6078408926961476E-2</v>
+        <v>1.4295991264876184E-2</v>
       </c>
       <c r="L32">
         <f>L13-dhap4!L13</f>
-        <v>3.5670974182377024E-2</v>
+        <v>-4.405415905670812E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -29561,27 +30753,27 @@
       </c>
       <c r="B33">
         <f>B14-dhap4!B14</f>
-        <v>-6.1640398492703752E-2</v>
+        <v>0.13001168474259617</v>
       </c>
       <c r="D33">
         <f>D14-dhap4!D14</f>
-        <v>9.3964286665399022E-2</v>
+        <v>1.7696348486757607E-2</v>
       </c>
       <c r="F33">
         <f>F14-dhap4!F14</f>
-        <v>-0.21909551027678809</v>
+        <v>0.13505163560583355</v>
       </c>
       <c r="H33">
         <f>H14-dhap4!H14</f>
-        <v>7.2460597294430051E-2</v>
+        <v>0.5491751418511942</v>
       </c>
       <c r="J33">
         <f>J14-dhap4!J14</f>
-        <v>0.17536999986522889</v>
+        <v>0.14748016503139988</v>
       </c>
       <c r="L33">
         <f>L14-dhap4!L14</f>
-        <v>-0.12356671623198251</v>
+        <v>0.31731591771587075</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -29590,27 +30782,27 @@
       </c>
       <c r="B34">
         <f>B15-dhap4!B15</f>
-        <v>-9.4302558934605818E-4</v>
+        <v>7.7740740129458419E-2</v>
       </c>
       <c r="D34">
         <f>D15-dhap4!D15</f>
-        <v>0.15684429983586401</v>
+        <v>0.20730698517996415</v>
       </c>
       <c r="F34">
         <f>F15-dhap4!F15</f>
-        <v>-1.351787754005257</v>
+        <v>-0.10119127310323428</v>
       </c>
       <c r="H34">
         <f>H15-dhap4!H15</f>
-        <v>-0.2513561369560115</v>
+        <v>-0.13928431177530809</v>
       </c>
       <c r="J34">
         <f>J15-dhap4!J15</f>
-        <v>0.23144741126027413</v>
+        <v>0.20791693079015239</v>
       </c>
       <c r="L34">
         <f>L15-dhap4!L15</f>
-        <v>4.0909429479636383E-2</v>
+        <v>0.21561914218896372</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -29619,23 +30811,23 @@
       </c>
       <c r="B35">
         <f>B16-dhap4!B16</f>
-        <v>5.4103199972566074E-5</v>
+        <v>-1.0645236116227967</v>
       </c>
       <c r="D35">
         <f>D16-dhap4!D16</f>
-        <v>1.3005192334936133E-5</v>
+        <v>0.15111148869721269</v>
       </c>
       <c r="F35">
         <f>F16-dhap4!F16</f>
-        <v>-2.4752979758124738E-5</v>
+        <v>-0.15274019510865644</v>
       </c>
       <c r="H35">
         <f>H16-dhap4!H16</f>
-        <v>-2.6535722237097659E-5</v>
+        <v>-0.25821975176389655</v>
       </c>
       <c r="J35">
         <f>J16-dhap4!J16</f>
-        <v>-2.0608786834630521E-5</v>
+        <v>-0.10201846076737131</v>
       </c>
       <c r="L35">
         <f>L16-dhap4!L16</f>
@@ -29649,7 +30841,2919 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.4205617992424076</v>
+        <v>1.4519850220020576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.43989941106314095</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2">
+        <v>0.10957405613493555</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2">
+        <v>1.373394304659717</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2">
+        <v>0.1212250745700376</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2">
+        <v>0.20238012713999484</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2">
+        <v>1.1999220580824124</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.51142228275259294</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.50760465324843118</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.47733197432342528</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3">
+        <v>0.6253417547313348</v>
+      </c>
+      <c r="I3" s="17">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.3525644849023639</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3">
+        <v>1.7976551895094099</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.80526289057917311</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4">
+        <v>0.8327695310374289</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.2197895562854266</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.76630585726851896</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4">
+        <v>0.76198301711102889</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.46462217868602235</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5">
+        <v>0.81428626691929085</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5">
+        <v>0.85743287935992996</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5">
+        <v>0.84565889417296358</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5">
+        <v>0.55950304877275803</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5">
+        <v>0.23656227620201756</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.53838607169773955</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6">
+        <v>0.23204756733436382</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6">
+        <v>0.21087116397821293</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6">
+        <v>0.31193046274567876</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6">
+        <v>0.14978748336434333</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.8856449560948383</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7">
+        <v>1.1752031781588503</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7">
+        <v>0.77520223100975449</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7">
+        <v>1.3708516181186934</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7">
+        <v>0.59896232110215808</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.63254118395054892</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.79429012123704645</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.31434459544367177</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.8007432284614118</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8">
+        <v>0.52958273109581255</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.51243481616260567</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9">
+        <v>0.35522221078820054</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9">
+        <v>0.93292005668196865</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9">
+        <v>0.26715134040772376</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.58042871454428824</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9">
+        <v>0.26986050229739328</v>
+      </c>
+      <c r="M9" s="19">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1.0006458431870642</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10">
+        <v>0.28742301353849697</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.7647785150887052</v>
+      </c>
+      <c r="G10" s="16">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.16734802497465509</v>
+      </c>
+      <c r="I10" s="17">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.1401522271521736</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10">
+        <v>0.31176970804825993</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1.6454842648979819</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11">
+        <v>0.96560699091992763</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11">
+        <v>0.23918718475939638</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11">
+        <v>0.23763628720414465</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11">
+        <v>0.41517657226428373</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11">
+        <v>1.2264559097022156</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.31976404464681818</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12">
+        <v>0.62237660195958988</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12">
+        <v>0.38678850444453322</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12">
+        <v>0.1780631715462995</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12">
+        <v>0.25060415247123352</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12">
+        <v>0.26168055209891417</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.47259502005257964</v>
+      </c>
+      <c r="C13" s="14">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.27556223484783687</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13">
+        <v>0.29363765739760855</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13">
+        <v>0.50195840700248151</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13">
+        <v>0.25716880980305062</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13">
+        <v>0.32235332325520644</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.77302739426574096</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14">
+        <v>0.64069561322424173</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14">
+        <v>0.52365462954807385</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.65248947642064403</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.33448838633591182</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14">
+        <v>0.67440106918751963</v>
+      </c>
+      <c r="M14" s="19">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.41970107252320749</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.82529674736926051</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.45341696340223608</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15">
+        <v>0.46308121361633475</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.69532279006406805</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15">
+        <v>0.61364809196460179</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2.311797527980417</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.67539954905061439</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16">
+        <v>1.276545695102461</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16">
+        <v>1.1248446296071775</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16">
+        <v>0.45781434277729777</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>2.5504707266155613E-2</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>1.3492388953843373E-2</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>6.7353042078157621E-2</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>-2.4739173002157819E-2</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>-8.227550064612954E-3</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>0.3529640822308393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>0.25783201918975512</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.20723508379258176</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>-0.15694143046545711</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>0.30914369466683117</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>0.1592534404252377</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>0.60260676002206437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>-2.4161950522875064E-2</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>-3.5150527636846562E-2</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>0.12543723270826024</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>-3.4093067102898278E-3</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>8.4520135869231905E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>-4.7405149189184204E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>-8.963937713400616E-2</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>8.8255597977000888E-2</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>-4.0068825019387022E-2</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>5.6215224675233877E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>7.8582535671573583E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>6.4058520120586326E-2</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>3.0649249892351293E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>2.4111930860692049E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>7.4883652650265697E-2</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>-2.2433543082576807E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.26447171625600885</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>1.4175193455365998E-2</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>-0.56939320171021979</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>-5.053462356600491E-2</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>3.929224211626603E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>1.4799884897463977E-2</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>0.11023472921342992</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>1.7625480401429805E-2</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>-2.6892054797166054E-2</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>5.66555902062571E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>4.8963669303534185E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-2.944466667150758E-2</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>0.1636152168556223</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>6.0240272460167776E-2</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>0.13141217262416488</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>1.9897753609591257E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>1.8166959766119817E-2</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-1.8197556625863254E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>-0.20584304389725017</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>-1.0839095913694002E-2</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-4.5534423636840016E-2</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>4.2012804917837543E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>-0.15086311568447064</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>8.9476820045928052E-2</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-0.14981531792552893</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>6.3657739625615523E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>-0.11857278095766921</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>-0.12099400879092226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>1.0746514348836778E-2</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>-7.6176910880620841E-2</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>-8.2852457557673675E-2</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>-1.3054905215957091E-2</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-6.9496380282817127E-2</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>1.5376648496202766E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>6.9004119911572126E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>4.9360093156871593E-2</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>1.3423690348890349E-2</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>3.7468295714556343E-2</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>1.6163826549289773E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>7.8756825539640363E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>3.8972028643457612E-2</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>1.6957509874143128E-2</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>-0.51873053398231839</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>0.39894606154511214</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>4.7688311888749835E-2</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>0.14699833843033938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>1.4797432666395605E-2</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>9.1382754318425352E-2</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>-1.0355034625496897</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>-0.26077622698597175</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>3.4430733038114281E-2</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>0.10966766596359645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>8.0578427551611931E-3</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>1.9412143010670846E-3</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>-3.6741772020156827E-3</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>-3.9259801663564797E-3</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>-3.0427937666047677E-3</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4318485216486623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.51820630315546445</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2">
+        <v>0.15342967430076551</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2">
+        <v>1.3375201575909201</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2">
+        <v>0.10769502062634854</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2">
+        <v>0.21526229159377588</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2">
+        <v>1.0159260346188708</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.30180799437297201</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.78961568801773474</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.54591947676929864</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3">
+        <v>0.38238981323261939</v>
+      </c>
+      <c r="I3" s="17">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.1943672882960155</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3">
+        <v>1.2454099030617656</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.60003795339805421</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4">
+        <v>1.1803841392068706</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.93850425171750873</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.786218976090863</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4">
+        <v>0.63043427845966371</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.42848816316868665</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5">
+        <v>0.63735802226420291</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5">
+        <v>0.81423603775312137</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5">
+        <v>0.99054241636648455</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5">
+        <v>0.45888690006942806</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5">
+        <v>0.27201991208227633</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.5397219177628636</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6">
+        <v>0.22659727426303131</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6">
+        <v>0.21111798635813728</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6">
+        <v>0.32106559279268015</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6">
+        <v>0.14310423164613478</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.9945728263828013</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7">
+        <v>1.3141644952874632</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7">
+        <v>0.8973491941452002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7">
+        <v>1.6020374454172757</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7">
+        <v>0.5003549260121124</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.66765532210763945</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.80072097966743516</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.30214396953074507</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.782313449582448</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8">
+        <v>0.40010634388183525</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.51505925890076298</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9">
+        <v>0.2965590387969203</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9">
+        <v>0.85109626104804514</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9">
+        <v>0.25892374851038946</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.57355728341907597</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9">
+        <v>0.27683637751411033</v>
+      </c>
+      <c r="M9" s="19">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.99071083478405697</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10">
+        <v>0.26963339746562909</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.96053451505978282</v>
+      </c>
+      <c r="G10" s="16">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.18425456771333773</v>
+      </c>
+      <c r="I10" s="17">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.1729183777973196</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10">
+        <v>0.30456166505688059</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2.1657954209185526</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11">
+        <v>0.96916677304566357</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11">
+        <v>0.23571057258955097</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11">
+        <v>0.15808487198778842</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11">
+        <v>0.59558829079820264</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11">
+        <v>1.2991085393720161</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.34789114897759943</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12">
+        <v>0.64306593567178694</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12">
+        <v>0.38970517067689969</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12">
+        <v>0.18012664779265772</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12">
+        <v>0.26117035152119517</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12">
+        <v>0.24606557567042739</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.48245556329333711</v>
+      </c>
+      <c r="C13" s="14">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.39365678412248828</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13">
+        <v>0.32392781216172728</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13">
+        <v>0.46696040278322037</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13">
+        <v>0.27201469396309813</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13">
+        <v>0.32138354256143414</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.83836676724317216</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14">
+        <v>0.82400461486764209</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14">
+        <v>0.67360449560931046</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.3378379172501691</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.36708928742273922</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14">
+        <v>0.74608708067586971</v>
+      </c>
+      <c r="M14" s="19">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.40046452384198683</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.94612224295791403</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.85074359466406813</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15">
+        <v>0.90546523531716228</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.69744931893840034</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15">
+        <v>0.65960686937972579</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2.1737019881306301</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.67445586136967028</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16">
+        <v>0.75654832053716115</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16">
+        <v>1.0283791644274656</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16">
+        <v>0.54053680825347772</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>0.10381159935847911</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>5.7348007119673333E-2</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>3.1478895009360741E-2</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>-3.8269226945846876E-2</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>4.654614389168088E-3</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>0.1689680587672977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>4.8217730810134196E-2</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.48924611856188532</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>-8.835392801958375E-2</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>6.6191753168115763E-2</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>1.0562438188892465E-3</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>5.0361473574420001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>-0.22938688770399396</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>0.31246408053259511</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>-0.15584807185965766</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>1.6503812112054206E-2</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>-4.7028602782133277E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>-8.3539164706519897E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>-0.2665676217890941</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>4.5058756370192299E-2</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>0.10481469717413394</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>-4.4400924028096089E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>4.3315889447416128E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>6.5394366185710373E-2</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>2.5198956821018775E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>2.4358753240616399E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>8.4018782697267091E-2</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>-2.9116794800785356E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.15554384596804582</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>0.15313651058397881</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>-0.44724623857477408</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>0.18065120373257737</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>-5.931515297377965E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>4.9914023054554502E-2</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>0.11666558764381862</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>5.4248544885031058E-3</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>-4.5321833676129852E-2</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>-0.1238108281933516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>5.1588112041691503E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-8.8107838662787819E-2</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>8.1791421221698801E-2</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>5.201268056283348E-2</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>0.12454074149895261</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>2.687362882630831E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>8.2319513631126107E-3</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-3.598717269873114E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>-1.0087043926172545E-2</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>6.0674468249886371E-3</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-1.276827299169403E-2</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>3.4804761926458205E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>0.36944804033610001</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>9.3036602171663985E-2</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-0.15329193009537434</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>-1.5893675590740702E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>6.1838937576249697E-2</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>-4.8341379121121797E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>3.8873618679618027E-2</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>-5.5487577168423785E-2</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>-7.9935791325307204E-2</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>-1.0991428969598871E-2</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-5.8930181232855483E-2</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>-2.3832793228401039E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>7.8864663152329595E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>0.167454642431523</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>4.3713845113009075E-2</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>2.4702914952952071E-3</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>3.1009710709337279E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>6.9059018601917432E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>0.10431140162088881</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>0.20026651151754349</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>-0.36878066792108177</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>8.4294502374637204E-2</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>8.0289212975577229E-2</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>0.21868434991868946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>-4.4391160148250508E-3</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>0.21220824990707887</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>-0.63817683128785763</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>0.18160779471485577</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>3.655726191244657E-2</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>0.15562644337872045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>-0.13003769709462576</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>9.9752662012297932E-4</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>-0.5236715517673155</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>-0.10039144534606836</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>7.9679671709575184E-2</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4434426448330233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N2" s="14">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="S2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N3" s="14">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="O3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N4" s="14">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N5" s="14">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N6" s="14">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N7" s="14">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="P7" s="16">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="R8" s="18">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N9" s="14">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="S9" s="19">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N10" s="14">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="O10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="P10" s="16">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="S10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N11" s="14">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N12" s="14">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N13" s="14">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="14">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="P14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="S14" s="19">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="O15" s="15">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N2" s="14">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="S2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N3" s="14">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="O3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N4" s="14">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N5" s="14">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N6" s="14">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N7" s="14">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="P7" s="16">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="R8" s="18">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N9" s="14">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="S9" s="19">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N10" s="14">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="O10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="P10" s="16">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="S10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N11" s="14">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N12" s="14">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N13" s="14">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="14">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="P14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="S14" s="19">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="O15" s="15">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0.45617091532496501</v>
       </c>
     </row>
   </sheetData>
@@ -30377,10 +34481,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30472,14 +34576,14 @@
       <c r="M2" s="7">
         <v>4.5710095337786E-2</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
       <c r="U2" t="s">
         <v>129</v>
       </c>
@@ -30530,14 +34634,14 @@
       <c r="M3" s="6">
         <v>0.45347930983877699</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
       <c r="U3" t="s">
         <v>130</v>
       </c>
@@ -30588,14 +34692,14 @@
       <c r="M4" s="7">
         <v>2.5966862137770701E-2</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
       <c r="U4" t="s">
         <v>131</v>
       </c>
@@ -30646,14 +34750,14 @@
       <c r="M5" s="6">
         <v>0.34787221257796602</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
       <c r="U5" t="s">
         <v>132</v>
       </c>
@@ -30704,14 +34808,14 @@
       <c r="M6" s="6">
         <v>0.117144834533319</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
       <c r="U6" t="s">
         <v>133</v>
       </c>
@@ -30762,21 +34866,21 @@
       <c r="M7" s="7">
         <v>1.5741522728162101E-2</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="U7" s="22" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="U7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="21">
         <v>1.4932686836654068</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="21">
         <v>1.4262899447569053</v>
       </c>
     </row>
@@ -30820,14 +34924,14 @@
       <c r="M8" s="7">
         <v>1.1238296525258799E-3</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
       <c r="U8" t="s">
         <v>135</v>
       </c>
@@ -30878,21 +34982,21 @@
       <c r="M9" s="6">
         <v>8.3557084326203193E-2</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="U9" s="22" t="s">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="U9" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="21">
         <v>1.5202127530724623</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="21">
         <v>1.4262899447569053</v>
       </c>
     </row>
@@ -30936,14 +35040,14 @@
       <c r="M10" s="7">
         <v>2.0751052693414899E-3</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
       <c r="U10" t="s">
         <v>137</v>
       </c>
@@ -30994,14 +35098,14 @@
       <c r="M11" s="6">
         <v>0.32964773522541801</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
       <c r="U11" t="s">
         <v>138</v>
       </c>
@@ -31052,14 +35156,14 @@
       <c r="M12" s="6">
         <v>0.77989454444137896</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
       <c r="U12" t="s">
         <v>139</v>
       </c>
@@ -31110,14 +35214,14 @@
       <c r="M13" s="6">
         <v>0.297478016852251</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
       <c r="U13" t="s">
         <v>140</v>
       </c>
@@ -31168,21 +35272,21 @@
       <c r="M14" s="6">
         <v>6.5292475138674894E-2</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="U14" s="22" t="s">
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="U14" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="21">
         <v>1.5080249002354402</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="21">
         <v>1.4262899447569053</v>
       </c>
     </row>
@@ -31226,14 +35330,14 @@
       <c r="M15" s="6">
         <v>0.26584607245743602</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
       <c r="U15" t="s">
         <v>142</v>
       </c>
@@ -31284,14 +35388,14 @@
       <c r="M16" s="6">
         <v>0.45617091532496501</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
       <c r="U16" t="s">
         <v>143</v>
       </c>
@@ -31303,24 +35407,24 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U17" s="21" t="s">
+      <c r="U17" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="20">
         <v>1.406274906534285</v>
       </c>
-      <c r="W17" s="21">
+      <c r="W17" s="20">
         <v>1.4262899447569053</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U18" s="21" t="s">
+      <c r="U18" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="V18" s="21">
+      <c r="V18" s="20">
         <v>1.4164661667032181</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="20">
         <v>1.4262899447569053</v>
       </c>
     </row>
@@ -31414,13 +35518,13 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U26" s="21" t="s">
+      <c r="U26" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="V26" s="21">
+      <c r="V26" s="20">
         <v>1.3880085624760619</v>
       </c>
-      <c r="W26" s="21">
+      <c r="W26" s="20">
         <v>1.4262899447569053</v>
       </c>
     </row>
@@ -31450,30 +35554,53 @@
       <c r="U29" t="s">
         <v>163</v>
       </c>
+      <c r="V29">
+        <v>1.4519850220020576</v>
+      </c>
+      <c r="W29">
+        <v>1.42628994475691</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U30" t="s">
         <v>164</v>
       </c>
+      <c r="V30">
+        <v>1.4318485216486623</v>
+      </c>
+      <c r="W30">
+        <v>1.42628994475691</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U31" t="s">
         <v>165</v>
       </c>
+      <c r="V31">
+        <v>1.4434426448330233</v>
+      </c>
+      <c r="W31">
+        <v>1.42628994475691</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
         <v>166</v>
       </c>
+      <c r="W32">
+        <v>1.42628994475691</v>
+      </c>
+    </row>
+    <row r="33" spans="21:23" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>173</v>
+      </c>
+      <c r="W33">
+        <v>1.42628994475691</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N6:S6"/>
     <mergeCell ref="N14:S14"/>
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
@@ -31483,6 +35610,12 @@
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
+++ b/data/15-gene_networks_analysis/pvalue_MSE_comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="717" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="717" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="wt" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="176">
   <si>
     <t>Gene</t>
   </si>
@@ -585,6 +585,12 @@
   <si>
     <t>rand31</t>
   </si>
+  <si>
+    <t>Difference between random network 30 and db network 5 individual MSE values</t>
+  </si>
+  <si>
+    <t>Difference between random network 31 and db network 5 individual MSE values</t>
+  </si>
 </sst>
 </file>
 
@@ -899,9 +905,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$31</c:f>
+              <c:f>dhap4!$U$2:$U$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -992,15 +998,21 @@
                 <c:pt idx="29">
                   <c:v>rand29</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>rand30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>rand31</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>dhap4!$V$2:$V$31</c:f>
+              <c:f>dhap4!$V$2:$V$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.4262899447569053</c:v>
                 </c:pt>
@@ -1091,6 +1103,12 @@
                 <c:pt idx="29">
                   <c:v>1.4434426448330233</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4760844231147061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5009483703776725</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1118,9 +1136,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$31</c:f>
+              <c:f>dhap4!$U$2:$U$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -1211,6 +1229,12 @@
                 <c:pt idx="29">
                   <c:v>rand29</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>rand30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>rand31</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1247,9 +1271,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$31</c:f>
+              <c:f>dhap4!$U$2:$U$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -1340,6 +1364,12 @@
                 <c:pt idx="29">
                   <c:v>rand29</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>rand30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>rand31</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1362,8 +1392,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="159840480"/>
-        <c:axId val="159841040"/>
+        <c:axId val="89194320"/>
+        <c:axId val="277034832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1385,9 +1415,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>dhap4!$U$2:$U$31</c:f>
+              <c:f>dhap4!$U$2:$U$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>db5</c:v>
                 </c:pt>
@@ -1478,15 +1508,21 @@
                 <c:pt idx="29">
                   <c:v>rand29</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>rand30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>rand31</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>dhap4!$W$2:$W$31</c:f>
+              <c:f>dhap4!$W$2:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.4262899447569053</c:v>
                 </c:pt>
@@ -1577,6 +1613,12 @@
                 <c:pt idx="29">
                   <c:v>1.42628994475691</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.42628994475691</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.42628994475691</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1592,11 +1634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159840480"/>
-        <c:axId val="159841040"/>
+        <c:axId val="89194320"/>
+        <c:axId val="277034832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159840480"/>
+        <c:axId val="89194320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159841040"/>
+        <c:crossAx val="277034832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1647,7 +1689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159841040"/>
+        <c:axId val="277034832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5249999999999999"/>
@@ -1700,7 +1742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159840480"/>
+        <c:crossAx val="89194320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2296,16 +2338,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3491,6 +3533,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
     <mergeCell ref="P14:U14"/>
     <mergeCell ref="P15:U15"/>
     <mergeCell ref="P16:U16"/>
@@ -3501,12 +3549,6 @@
     <mergeCell ref="P11:U11"/>
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -15618,11 +15660,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N18:S18"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="N3:S3"/>
@@ -15635,6 +15672,11 @@
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -31975,6 +32017,1127 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.51820630315546445</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D2">
+        <v>0.15342967430076551</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="F2">
+        <v>1.3375201575909201</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="H2">
+        <v>0.10769502062634854</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="J2">
+        <v>0.21526229159377588</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="L2">
+        <v>1.0159260346188708</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.30180799437297201</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.78961568801773474</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.54591947676929864</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="H3">
+        <v>0.38238981323261939</v>
+      </c>
+      <c r="I3" s="17">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.1943672882960155</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="L3">
+        <v>1.2454099030617656</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.60003795339805421</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="F4">
+        <v>1.1803841392068706</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.93850425171750873</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.786218976090863</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="L4">
+        <v>0.63043427845966371</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.42848816316868665</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D5">
+        <v>0.63735802226420291</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="F5">
+        <v>0.81423603775312137</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="H5">
+        <v>0.99054241636648455</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="J5">
+        <v>0.45888690006942806</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="L5">
+        <v>0.27201991208227633</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.5397219177628636</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D6">
+        <v>0.22659727426303131</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="F6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="H6">
+        <v>0.21111798635813728</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="J6">
+        <v>0.32106559279268015</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="L6">
+        <v>0.14310423164613478</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.9945728263828013</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D7">
+        <v>1.3141644952874632</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="F7">
+        <v>0.8973491941452002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="J7">
+        <v>1.6020374454172757</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="L7">
+        <v>0.5003549260121124</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.66765532210763945</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.80072097966743516</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.30214396953074507</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.782313449582448</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="J8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="L8">
+        <v>0.40010634388183525</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.51505925890076298</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D9">
+        <v>0.2965590387969203</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="F9">
+        <v>0.85109626104804514</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="H9">
+        <v>0.25892374851038946</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.57355728341907597</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="L9">
+        <v>0.27683637751411033</v>
+      </c>
+      <c r="M9" s="19">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.99071083478405697</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D10">
+        <v>0.26963339746562909</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.96053451505978282</v>
+      </c>
+      <c r="G10" s="16">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.18425456771333773</v>
+      </c>
+      <c r="I10" s="17">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.1729183777973196</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="L10">
+        <v>0.30456166505688059</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2.1657954209185526</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D11">
+        <v>0.96916677304566357</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="F11">
+        <v>0.23571057258955097</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="H11">
+        <v>0.15808487198778842</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="J11">
+        <v>0.59558829079820264</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="L11">
+        <v>1.2991085393720161</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.34789114897759943</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D12">
+        <v>0.64306593567178694</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="F12">
+        <v>0.38970517067689969</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="H12">
+        <v>0.18012664779265772</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="J12">
+        <v>0.26117035152119517</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="L12">
+        <v>0.24606557567042739</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.48245556329333711</v>
+      </c>
+      <c r="C13" s="14">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.39365678412248828</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="F13">
+        <v>0.32392781216172728</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="H13">
+        <v>0.46696040278322037</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="J13">
+        <v>0.27201469396309813</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="L13">
+        <v>0.32138354256143414</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.83836676724317216</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D14">
+        <v>0.82400461486764209</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="F14">
+        <v>0.67360449560931046</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.3378379172501691</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.36708928742273922</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="L14">
+        <v>0.74608708067586971</v>
+      </c>
+      <c r="M14" s="19">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.40046452384198683</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.94612224295791403</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.85074359466406813</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="H15">
+        <v>0.90546523531716228</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.69744931893840034</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="L15">
+        <v>0.65960686937972579</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2.1737019881306301</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.67445586136967028</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="F16">
+        <v>0.75654832053716115</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="H16">
+        <v>1.0283791644274656</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="J16">
+        <v>0.54053680825347772</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="L16">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>0.10381159935847911</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>5.7348007119673333E-2</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>3.1478895009360741E-2</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>-3.8269226945846876E-2</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>4.654614389168088E-3</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>0.1689680587672977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>4.8217730810134196E-2</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.48924611856188532</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>-8.835392801958375E-2</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>6.6191753168115763E-2</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>1.0562438188892465E-3</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>5.0361473574420001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>-0.22938688770399396</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>0.31246408053259511</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>-0.15584807185965766</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>1.6503812112054206E-2</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>-4.7028602782133277E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>-8.3539164706519897E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>-0.2665676217890941</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>4.5058756370192299E-2</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>0.10481469717413394</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>-4.4400924028096089E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>4.3315889447416128E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>6.5394366185710373E-2</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>2.5198956821018775E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>2.4358753240616399E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>8.4018782697267091E-2</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>-2.9116794800785356E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.15554384596804582</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>0.15313651058397881</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>-0.44724623857477408</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>0.18065120373257737</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>-5.931515297377965E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>4.9914023054554502E-2</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>0.11666558764381862</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>5.4248544885031058E-3</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>-4.5321833676129852E-2</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>-0.1238108281933516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>5.1588112041691503E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-8.8107838662787819E-2</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>8.1791421221698801E-2</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>5.201268056283348E-2</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>0.12454074149895261</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>2.687362882630831E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>8.2319513631126107E-3</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-3.598717269873114E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>-1.0087043926172545E-2</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>6.0674468249886371E-3</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-1.276827299169403E-2</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>3.4804761926458205E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>0.36944804033610001</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>9.3036602171663985E-2</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-0.15329193009537434</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>-1.5893675590740702E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>6.1838937576249697E-2</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>-4.8341379121121797E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>3.8873618679618027E-2</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>-5.5487577168423785E-2</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>-7.9935791325307204E-2</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>-1.0991428969598871E-2</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-5.8930181232855483E-2</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>-2.3832793228401039E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>7.8864663152329595E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>0.167454642431523</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>4.3713845113009075E-2</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>2.4702914952952071E-3</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>3.1009710709337279E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>6.9059018601917432E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>0.10431140162088881</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>0.20026651151754349</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>-0.36878066792108177</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>8.4294502374637204E-2</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>8.0289212975577229E-2</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>0.21868434991868946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>-4.4391160148250508E-3</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>0.21220824990707887</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>-0.63817683128785763</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>0.18160779471485577</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>3.655726191244657E-2</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>0.15562644337872045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>-0.13003769709462576</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>9.9752662012297932E-4</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>-0.5236715517673155</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>-0.10039144534606836</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>7.9679671709575184E-2</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4434426448330233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -32026,37 +33189,37 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.51820630315546445</v>
+        <v>0.46112215208604906</v>
       </c>
       <c r="C2" s="14">
         <v>0.762384490029694</v>
       </c>
       <c r="D2">
-        <v>0.15342967430076551</v>
+        <v>0.11409691296463131</v>
       </c>
       <c r="E2" s="15">
         <v>0.44624975588118598</v>
       </c>
       <c r="F2">
-        <v>1.3375201575909201</v>
+        <v>1.4547938266046232</v>
       </c>
       <c r="G2" s="16">
         <v>0.78551996118716705</v>
       </c>
       <c r="H2">
-        <v>0.10769502062634854</v>
+        <v>0.11492191751975989</v>
       </c>
       <c r="I2" s="17">
         <v>0.29160072506103601</v>
       </c>
       <c r="J2">
-        <v>0.21526229159377588</v>
+        <v>0.2035385812881898</v>
       </c>
       <c r="K2" s="18">
         <v>0.82577386681059695</v>
       </c>
       <c r="L2">
-        <v>1.0159260346188708</v>
+        <v>1.1227971509356298</v>
       </c>
       <c r="M2" s="7">
         <v>4.5710095337786E-2</v>
@@ -32067,37 +33230,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.30180799437297201</v>
+        <v>0.48974533391701808</v>
       </c>
       <c r="C3" s="14">
         <v>8.2901279432195593E-2</v>
       </c>
       <c r="D3">
-        <v>0.78961568801773474</v>
+        <v>0.29644863888675604</v>
       </c>
       <c r="E3" s="9">
         <v>9.0782211164155292E-3</v>
       </c>
       <c r="F3">
-        <v>0.54591947676929864</v>
+        <v>0.45852618353622643</v>
       </c>
       <c r="G3" s="16">
         <v>0.52024738694317496</v>
       </c>
       <c r="H3">
-        <v>0.38238981323261939</v>
+        <v>0.67278972350758515</v>
       </c>
       <c r="I3" s="17">
         <v>7.2269282640789106E-2</v>
       </c>
       <c r="J3">
-        <v>1.1943672882960155</v>
+        <v>1.3052211266823768</v>
       </c>
       <c r="K3" s="18">
         <v>0.76388269721491497</v>
       </c>
       <c r="L3">
-        <v>1.2454099030617656</v>
+        <v>1.7147736783064085</v>
       </c>
       <c r="M3" s="19">
         <v>0.45347930983877699</v>
@@ -32108,7 +33271,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.60003795339805421</v>
+        <v>0.82136656767930671</v>
       </c>
       <c r="C4" s="14">
         <v>6.6225124959576706E-2</v>
@@ -32120,25 +33283,25 @@
         <v>0.61881514010194805</v>
       </c>
       <c r="F4">
-        <v>1.1803841392068706</v>
+        <v>0.87911802750831702</v>
       </c>
       <c r="G4" s="10">
         <v>1.6347989883004101E-2</v>
       </c>
       <c r="H4">
-        <v>0.93850425171750873</v>
+        <v>1.2424380752332995</v>
       </c>
       <c r="I4" s="11">
         <v>1.1178235493982801E-2</v>
       </c>
       <c r="J4">
-        <v>0.786218976090863</v>
+        <v>0.76544302081760351</v>
       </c>
       <c r="K4" s="18">
         <v>0.41128551861353002</v>
       </c>
       <c r="L4">
-        <v>0.63043427845966371</v>
+        <v>0.57120805224265481</v>
       </c>
       <c r="M4" s="7">
         <v>2.5966862137770701E-2</v>
@@ -32149,37 +33312,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.42848816316868665</v>
+        <v>0.52688788457775138</v>
       </c>
       <c r="C5" s="14">
         <v>0.33061324554751997</v>
       </c>
       <c r="D5">
-        <v>0.63735802226420291</v>
+        <v>0.64669699544140891</v>
       </c>
       <c r="E5" s="15">
         <v>0.58761063110676703</v>
       </c>
       <c r="F5">
-        <v>0.81423603775312137</v>
+        <v>0.7924598779437847</v>
       </c>
       <c r="G5" s="16">
         <v>0.876273721691745</v>
       </c>
       <c r="H5">
-        <v>0.99054241636648455</v>
+        <v>0.96389246062592626</v>
       </c>
       <c r="I5" s="17">
         <v>0.12610118972802201</v>
       </c>
       <c r="J5">
-        <v>0.45888690006942806</v>
+        <v>0.45662803886995179</v>
       </c>
       <c r="K5" s="18">
         <v>0.84451617033304205</v>
       </c>
       <c r="L5">
-        <v>0.27201991208227633</v>
+        <v>0.24064452764194477</v>
       </c>
       <c r="M5" s="19">
         <v>0.34787221257796602</v>
@@ -32190,13 +33353,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5397219177628636</v>
+        <v>0.53963272401171725</v>
       </c>
       <c r="C6" s="14">
         <v>0.41886387925431101</v>
       </c>
       <c r="D6">
-        <v>0.22659727426303131</v>
+        <v>0.22687610353691937</v>
       </c>
       <c r="E6" s="15">
         <v>0.54683519144140802</v>
@@ -32208,19 +33371,19 @@
         <v>0.60936795919082498</v>
       </c>
       <c r="H6">
-        <v>0.21111798635813728</v>
+        <v>0.21108892083843003</v>
       </c>
       <c r="I6" s="17">
         <v>0.51888455220311103</v>
       </c>
       <c r="J6">
-        <v>0.32106559279268015</v>
+        <v>0.32055488791186487</v>
       </c>
       <c r="K6" s="18">
         <v>0.92811381976317897</v>
       </c>
       <c r="L6">
-        <v>0.14310423164613478</v>
+        <v>0.14344976181795074</v>
       </c>
       <c r="M6" s="19">
         <v>0.117144834533319</v>
@@ -32231,19 +33394,19 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1.9945728263828013</v>
+        <v>1.8577549561755891</v>
       </c>
       <c r="C7" s="14">
         <v>0.73074475229926095</v>
       </c>
       <c r="D7">
-        <v>1.3141644952874632</v>
+        <v>1.2085765355786768</v>
       </c>
       <c r="E7" s="15">
         <v>0.482119508817688</v>
       </c>
       <c r="F7">
-        <v>0.8973491941452002</v>
+        <v>0.76855165632996802</v>
       </c>
       <c r="G7" s="16">
         <v>7.7299330333445299E-2</v>
@@ -32255,13 +33418,13 @@
         <v>0.41648763304756098</v>
       </c>
       <c r="J7">
-        <v>1.6020374454172757</v>
+        <v>1.3783372471540114</v>
       </c>
       <c r="K7" s="18">
         <v>0.92618166088133702</v>
       </c>
       <c r="L7">
-        <v>0.5003549260121124</v>
+        <v>0.6610084249152951</v>
       </c>
       <c r="M7" s="7">
         <v>1.5741522728162101E-2</v>
@@ -32272,25 +33435,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.66765532210763945</v>
+        <v>0.65821465139042301</v>
       </c>
       <c r="C8" s="12">
         <v>3.9736164584284001E-2</v>
       </c>
       <c r="D8">
-        <v>0.80072097966743516</v>
+        <v>0.71702453227371521</v>
       </c>
       <c r="E8" s="9">
         <v>2.23753114222145E-3</v>
       </c>
       <c r="F8">
-        <v>0.30214396953074507</v>
+        <v>0.3087062566091146</v>
       </c>
       <c r="G8" s="10">
         <v>2.4759724199063201E-3</v>
       </c>
       <c r="H8">
-        <v>2.782313449582448</v>
+        <v>2.7472229191422368</v>
       </c>
       <c r="I8" s="17">
         <v>0.42442038054964198</v>
@@ -32302,7 +33465,7 @@
         <v>0.57583799773840905</v>
       </c>
       <c r="L8">
-        <v>0.40010634388183525</v>
+        <v>0.39758210802947591</v>
       </c>
       <c r="M8" s="7">
         <v>1.1238296525258799E-3</v>
@@ -32313,37 +33476,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.51505925890076298</v>
+        <v>0.4839265757631081</v>
       </c>
       <c r="C9" s="14">
         <v>0.30555896896170998</v>
       </c>
       <c r="D9">
-        <v>0.2965590387969203</v>
+        <v>0.24300740668104748</v>
       </c>
       <c r="E9" s="15">
         <v>0.220796800536256</v>
       </c>
       <c r="F9">
-        <v>0.85109626104804514</v>
+        <v>0.76385348049111823</v>
       </c>
       <c r="G9" s="16">
         <v>0.34273266373509897</v>
       </c>
       <c r="H9">
-        <v>0.25892374851038946</v>
+        <v>0.19594449143337758</v>
       </c>
       <c r="I9" s="11">
         <v>1.6849469393969401E-2</v>
       </c>
       <c r="J9">
-        <v>0.57355728341907597</v>
+        <v>0.38521858272591453</v>
       </c>
       <c r="K9" s="18">
         <v>0.80207673397527102</v>
       </c>
       <c r="L9">
-        <v>0.27683637751411033</v>
+        <v>0.278061831236255</v>
       </c>
       <c r="M9" s="19">
         <v>8.3557084326203193E-2</v>
@@ -32354,37 +33517,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.99071083478405697</v>
+        <v>0.99028608491458492</v>
       </c>
       <c r="C10" s="14">
         <v>0.40967747091093998</v>
       </c>
       <c r="D10">
-        <v>0.26963339746562909</v>
+        <v>0.27225886781414432</v>
       </c>
       <c r="E10" s="9">
         <v>4.93615335741312E-2</v>
       </c>
       <c r="F10">
-        <v>0.96053451505978282</v>
+        <v>0.96456717952740434</v>
       </c>
       <c r="G10" s="16">
         <v>7.5060611423136706E-2</v>
       </c>
       <c r="H10">
-        <v>0.18425456771333773</v>
+        <v>0.18153217623684234</v>
       </c>
       <c r="I10" s="17">
         <v>5.3349459021998002E-2</v>
       </c>
       <c r="J10">
-        <v>1.1729183777973196</v>
+        <v>1.1806343885973651</v>
       </c>
       <c r="K10" s="18">
         <v>0.83537027035042999</v>
       </c>
       <c r="L10">
-        <v>0.30456166505688059</v>
+        <v>0.3024961994296394</v>
       </c>
       <c r="M10" s="7">
         <v>2.0751052693414899E-3</v>
@@ -32395,37 +33558,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>2.1657954209185526</v>
+        <v>1.7113981939566447</v>
       </c>
       <c r="C11" s="14">
         <v>0.312866167848105</v>
       </c>
       <c r="D11">
-        <v>0.96916677304566357</v>
+        <v>0.89104278322303887</v>
       </c>
       <c r="E11" s="15">
         <v>0.36919882166698498</v>
       </c>
       <c r="F11">
-        <v>0.23571057258955097</v>
+        <v>0.44385243511702721</v>
       </c>
       <c r="G11" s="16">
         <v>0.32044779172975002</v>
       </c>
       <c r="H11">
-        <v>0.15808487198778842</v>
+        <v>0.14343727145828514</v>
       </c>
       <c r="I11" s="17">
         <v>1.01926877470356</v>
       </c>
       <c r="J11">
-        <v>0.59558829079820264</v>
+        <v>0.47454350082757868</v>
       </c>
       <c r="K11" s="18">
         <v>0.41730594570108798</v>
       </c>
       <c r="L11">
-        <v>1.2991085393720161</v>
+        <v>1.297413474292761</v>
       </c>
       <c r="M11" s="19">
         <v>0.32964773522541801</v>
@@ -32436,37 +33599,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.34789114897759943</v>
+        <v>0.29688838031233133</v>
       </c>
       <c r="C12" s="14">
         <v>0.673063017606508</v>
       </c>
       <c r="D12">
-        <v>0.64306593567178694</v>
+        <v>0.73874052389088429</v>
       </c>
       <c r="E12" s="15">
         <v>0.48391674975244903</v>
       </c>
       <c r="F12">
-        <v>0.38970517067689969</v>
+        <v>0.46209498663920695</v>
       </c>
       <c r="G12" s="16">
         <v>0.37967438937929698</v>
       </c>
       <c r="H12">
-        <v>0.18012664779265772</v>
+        <v>0.27735704068119521</v>
       </c>
       <c r="I12" s="17">
         <v>0.61551986182630103</v>
       </c>
       <c r="J12">
-        <v>0.26117035152119517</v>
+        <v>0.23854582656251241</v>
       </c>
       <c r="K12" s="18">
         <v>0.96518223885221099</v>
       </c>
       <c r="L12">
-        <v>0.24606557567042739</v>
+        <v>0.30686641808190623</v>
       </c>
       <c r="M12" s="19">
         <v>0.77989454444137896</v>
@@ -32477,37 +33640,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.48245556329333711</v>
+        <v>0.42738449183520977</v>
       </c>
       <c r="C13" s="14">
         <v>9.5712795892028399E-2</v>
       </c>
       <c r="D13">
-        <v>0.39365678412248828</v>
+        <v>0.21362780326051678</v>
       </c>
       <c r="E13" s="15">
         <v>0.44634237725270698</v>
       </c>
       <c r="F13">
-        <v>0.32392781216172728</v>
+        <v>0.26820748544976547</v>
       </c>
       <c r="G13" s="16">
         <v>0.31255665386579601</v>
       </c>
       <c r="H13">
-        <v>0.46696040278322037</v>
+        <v>0.49638463267009647</v>
       </c>
       <c r="I13" s="17">
         <v>0.98678976939878205</v>
       </c>
       <c r="J13">
-        <v>0.27201469396309813</v>
+        <v>0.26816112269166736</v>
       </c>
       <c r="K13" s="18">
         <v>0.517815470814041</v>
       </c>
       <c r="L13">
-        <v>0.32138354256143414</v>
+        <v>0.26500577435882161</v>
       </c>
       <c r="M13" s="19">
         <v>0.297478016852251</v>
@@ -32518,37 +33681,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.83836676724317216</v>
+        <v>0.90774300734455626</v>
       </c>
       <c r="C14" s="14">
         <v>0.174295602147962</v>
       </c>
       <c r="D14">
-        <v>0.82400461486764209</v>
+        <v>0.66641262877798357</v>
       </c>
       <c r="E14" s="15">
         <v>0.86844583111990603</v>
       </c>
       <c r="F14">
-        <v>0.67360449560931046</v>
+        <v>1.1724805056106791</v>
       </c>
       <c r="G14" s="10">
         <v>4.3268390080787603E-2</v>
       </c>
       <c r="H14">
-        <v>0.3378379172501691</v>
+        <v>0.75208338269645891</v>
       </c>
       <c r="I14" s="11">
         <v>8.3521584494051695E-3</v>
       </c>
       <c r="J14">
-        <v>0.36708928742273922</v>
+        <v>0.43925242938827952</v>
       </c>
       <c r="K14" s="18">
         <v>0.81524617305381997</v>
       </c>
       <c r="L14">
-        <v>0.74608708067586971</v>
+        <v>0.91687737258891866</v>
       </c>
       <c r="M14" s="19">
         <v>6.5292475138674894E-2</v>
@@ -32559,37 +33722,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.40046452384198683</v>
+        <v>0.44478698122309529</v>
       </c>
       <c r="C15" s="12">
         <v>4.0424970068182499E-3</v>
       </c>
       <c r="D15">
-        <v>0.94612224295791403</v>
+        <v>0.93149676145323135</v>
       </c>
       <c r="E15" s="15">
         <v>5.7965913592618802E-2</v>
       </c>
       <c r="F15">
-        <v>0.85074359466406813</v>
+        <v>1.426580488634615</v>
       </c>
       <c r="G15" s="16">
         <v>0.218104991549528</v>
       </c>
       <c r="H15">
-        <v>0.90546523531716228</v>
+        <v>0.88069436055912442</v>
       </c>
       <c r="I15" s="11">
         <v>1.17388410353965E-2</v>
       </c>
       <c r="J15">
-        <v>0.69744931893840034</v>
+        <v>0.73363145607850022</v>
       </c>
       <c r="K15" s="18">
         <v>0.21974386864794401</v>
       </c>
       <c r="L15">
-        <v>0.65960686937972579</v>
+        <v>0.64989997196925531</v>
       </c>
       <c r="M15" s="19">
         <v>0.26584607245743602</v>
@@ -32600,31 +33763,31 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>2.1737019881306301</v>
+        <v>2.1646445435857284</v>
       </c>
       <c r="C16" s="12">
         <v>8.8957362296602296E-3</v>
       </c>
       <c r="D16">
-        <v>0.67445586136967028</v>
+        <v>0.64806122058364135</v>
       </c>
       <c r="E16" s="15">
         <v>0.31603437363464698</v>
       </c>
       <c r="F16">
-        <v>0.75654832053716115</v>
+        <v>1.3733968034493114</v>
       </c>
       <c r="G16" s="16">
         <v>0.250267714639267</v>
       </c>
       <c r="H16">
-        <v>1.0283791644274656</v>
+        <v>1.165314911580607</v>
       </c>
       <c r="I16" s="17">
         <v>1.01343777505961</v>
       </c>
       <c r="J16">
-        <v>0.54053680825347772</v>
+        <v>0.33866935597811709</v>
       </c>
       <c r="K16" s="18">
         <v>0.88243598341370999</v>
@@ -32636,442 +33799,442 @@
         <v>0.45617091532496501</v>
       </c>
     </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f>B2-dhap4!B2</f>
+        <v>4.6727448289063722E-2</v>
+      </c>
+      <c r="D20">
+        <f>D2-dhap4!D2</f>
+        <v>1.8015245783539136E-2</v>
+      </c>
+      <c r="F20">
+        <f>F2-dhap4!F2</f>
+        <v>0.1487525640230638</v>
+      </c>
+      <c r="H20">
+        <f>H2-dhap4!H2</f>
+        <v>-3.1042330052435535E-2</v>
+      </c>
+      <c r="J20">
+        <f>J2-dhap4!J2</f>
+        <v>-7.0690959164179945E-3</v>
+      </c>
+      <c r="L20">
+        <f>L2-dhap4!L2</f>
+        <v>0.27583917508405675</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <f>B2-dhap4!B2</f>
-        <v>0.10381159935847911</v>
+        <f>B3-dhap4!B3</f>
+        <v>0.23615507035418026</v>
       </c>
       <c r="D21">
-        <f>D2-dhap4!D2</f>
-        <v>5.7348007119673333E-2</v>
+        <f>D3-dhap4!D3</f>
+        <v>-3.9209305690933727E-3</v>
       </c>
       <c r="F21">
-        <f>F2-dhap4!F2</f>
-        <v>3.1478895009360741E-2</v>
+        <f>F3-dhap4!F3</f>
+        <v>-0.17574722125265596</v>
       </c>
       <c r="H21">
-        <f>H2-dhap4!H2</f>
-        <v>-3.8269226945846876E-2</v>
+        <f>H3-dhap4!H3</f>
+        <v>0.35659166344308152</v>
       </c>
       <c r="J21">
-        <f>J2-dhap4!J2</f>
-        <v>4.654614389168088E-3</v>
+        <f>J3-dhap4!J3</f>
+        <v>0.11191008220525056</v>
       </c>
       <c r="L21">
-        <f>L2-dhap4!L2</f>
-        <v>0.1689680587672977</v>
+        <f>L3-dhap4!L3</f>
+        <v>0.5197252488190629</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <f>B3-dhap4!B3</f>
-        <v>4.8217730810134196E-2</v>
+        <f>B4-dhap4!B4</f>
+        <v>-8.0582734227414576E-3</v>
       </c>
       <c r="D22">
-        <f>D3-dhap4!D3</f>
-        <v>0.48924611856188532</v>
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
       </c>
       <c r="F22">
-        <f>F3-dhap4!F3</f>
-        <v>-8.835392801958375E-2</v>
+        <f>F4-dhap4!F4</f>
+        <v>1.1197968834041561E-2</v>
       </c>
       <c r="H22">
-        <f>H3-dhap4!H3</f>
-        <v>6.6191753168115763E-2</v>
+        <f>H4-dhap4!H4</f>
+        <v>0.14808575165613314</v>
       </c>
       <c r="J22">
-        <f>J3-dhap4!J3</f>
-        <v>1.0562438188892465E-3</v>
+        <f>J4-dhap4!J4</f>
+        <v>-4.2721431612052774E-3</v>
       </c>
       <c r="L22">
-        <f>L3-dhap4!L3</f>
-        <v>5.0361473574420001E-2</v>
+        <f>L4-dhap4!L4</f>
+        <v>-0.10625482899914218</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <f>B4-dhap4!B4</f>
-        <v>-0.22938688770399396</v>
+        <f>B5-dhap4!B5</f>
+        <v>1.4860556702544825E-2</v>
       </c>
       <c r="D23">
-        <f>D4-dhap4!D4</f>
-        <v>0</v>
+        <f>D5-dhap4!D5</f>
+        <v>-0.2572286486118881</v>
       </c>
       <c r="F23">
-        <f>F4-dhap4!F4</f>
-        <v>0.31246408053259511</v>
+        <f>F5-dhap4!F5</f>
+        <v>2.3282596560855628E-2</v>
       </c>
       <c r="H23">
-        <f>H4-dhap4!H4</f>
-        <v>-0.15584807185965766</v>
+        <f>H5-dhap4!H5</f>
+        <v>7.8164741433575657E-2</v>
       </c>
       <c r="J23">
-        <f>J4-dhap4!J4</f>
-        <v>1.6503812112054206E-2</v>
+        <f>J5-dhap4!J5</f>
+        <v>-4.6659785227572359E-2</v>
       </c>
       <c r="L23">
-        <f>L4-dhap4!L4</f>
-        <v>-4.7028602782133277E-2</v>
+        <f>L5-dhap4!L5</f>
+        <v>1.1940505007084573E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <f>B5-dhap4!B5</f>
-        <v>-8.3539164706519897E-2</v>
+        <f>B6-dhap4!B6</f>
+        <v>6.5305172434564018E-2</v>
       </c>
       <c r="D24">
-        <f>D5-dhap4!D5</f>
-        <v>-0.2665676217890941</v>
+        <f>D6-dhap4!D6</f>
+        <v>2.5477786094906835E-2</v>
       </c>
       <c r="F24">
-        <f>F5-dhap4!F5</f>
-        <v>4.5058756370192299E-2</v>
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
       </c>
       <c r="H24">
-        <f>H5-dhap4!H5</f>
-        <v>0.10481469717413394</v>
+        <f>H6-dhap4!H6</f>
+        <v>2.4329687720909154E-2</v>
       </c>
       <c r="J24">
-        <f>J5-dhap4!J5</f>
-        <v>-4.4400924028096089E-2</v>
+        <f>J6-dhap4!J6</f>
+        <v>8.3508077816451809E-2</v>
       </c>
       <c r="L24">
-        <f>L5-dhap4!L5</f>
-        <v>4.3315889447416128E-2</v>
+        <f>L6-dhap4!L6</f>
+        <v>-2.8771264628969395E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <f>B6-dhap4!B6</f>
-        <v>6.5394366185710373E-2</v>
+        <f>B7-dhap4!B7</f>
+        <v>-0.29236171617525808</v>
       </c>
       <c r="D25">
-        <f>D6-dhap4!D6</f>
-        <v>2.5198956821018775E-2</v>
+        <f>D7-dhap4!D7</f>
+        <v>4.7548550875192497E-2</v>
       </c>
       <c r="F25">
-        <f>F6-dhap4!F6</f>
+        <f>F7-dhap4!F7</f>
+        <v>-0.57604377639000626</v>
+      </c>
+      <c r="H25">
+        <f>H7-dhap4!H7</f>
         <v>0</v>
       </c>
-      <c r="H25">
-        <f>H6-dhap4!H6</f>
-        <v>2.4358753240616399E-2</v>
-      </c>
       <c r="J25">
-        <f>J6-dhap4!J6</f>
-        <v>8.4018782697267091E-2</v>
+        <f>J7-dhap4!J7</f>
+        <v>-4.304899453068689E-2</v>
       </c>
       <c r="L25">
-        <f>L6-dhap4!L6</f>
-        <v>-2.9116794800785356E-2</v>
+        <f>L7-dhap4!L7</f>
+        <v>0.10133834592940305</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <f>B7-dhap4!B7</f>
-        <v>-0.15554384596804582</v>
+        <f>B8-dhap4!B8</f>
+        <v>4.0473352337338064E-2</v>
       </c>
       <c r="D26">
-        <f>D7-dhap4!D7</f>
-        <v>0.15313651058397881</v>
+        <f>D8-dhap4!D8</f>
+        <v>3.2969140250098672E-2</v>
       </c>
       <c r="F26">
-        <f>F7-dhap4!F7</f>
-        <v>-0.44724623857477408</v>
+        <f>F8-dhap4!F8</f>
+        <v>1.1987141566872639E-2</v>
       </c>
       <c r="H26">
-        <f>H7-dhap4!H7</f>
+        <f>H8-dhap4!H8</f>
+        <v>-8.0412364116341006E-2</v>
+      </c>
+      <c r="J26">
+        <f>J8-dhap4!J8</f>
         <v>0</v>
       </c>
-      <c r="J26">
-        <f>J7-dhap4!J7</f>
-        <v>0.18065120373257737</v>
-      </c>
       <c r="L26">
-        <f>L7-dhap4!L7</f>
-        <v>-5.931515297377965E-2</v>
+        <f>L8-dhap4!L8</f>
+        <v>-0.12633506404571093</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <f>B8-dhap4!B8</f>
-        <v>4.9914023054554502E-2</v>
+        <f>B9-dhap4!B9</f>
+        <v>2.0455428904036621E-2</v>
       </c>
       <c r="D27">
-        <f>D8-dhap4!D8</f>
-        <v>0.11666558764381862</v>
+        <f>D9-dhap4!D9</f>
+        <v>-0.14165947077866065</v>
       </c>
       <c r="F27">
-        <f>F8-dhap4!F8</f>
-        <v>5.4248544885031058E-3</v>
+        <f>F9-dhap4!F9</f>
+        <v>-5.451359335228112E-3</v>
       </c>
       <c r="H27">
-        <f>H8-dhap4!H8</f>
-        <v>-4.5321833676129852E-2</v>
+        <f>H9-dhap4!H9</f>
+        <v>-1.09665765141784E-2</v>
       </c>
       <c r="J27">
-        <f>J8-dhap4!J8</f>
-        <v>0</v>
+        <f>J9-dhap4!J9</f>
+        <v>-6.3797959194208831E-2</v>
       </c>
       <c r="L27">
-        <f>L8-dhap4!L8</f>
-        <v>-0.1238108281933516</v>
+        <f>L9-dhap4!L9</f>
+        <v>2.8099082548452975E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <f>B9-dhap4!B9</f>
-        <v>5.1588112041691503E-2</v>
+        <f>B10-dhap4!B10</f>
+        <v>7.8072014936405587E-3</v>
       </c>
       <c r="D28">
-        <f>D9-dhap4!D9</f>
-        <v>-8.8107838662787819E-2</v>
+        <f>D10-dhap4!D10</f>
+        <v>-3.3361702350215905E-2</v>
       </c>
       <c r="F28">
-        <f>F9-dhap4!F9</f>
-        <v>8.1791421221698801E-2</v>
+        <f>F10-dhap4!F10</f>
+        <v>-6.0543794585510291E-3</v>
       </c>
       <c r="H28">
-        <f>H9-dhap4!H9</f>
-        <v>5.201268056283348E-2</v>
+        <f>H10-dhap4!H10</f>
+        <v>3.3450553484932477E-3</v>
       </c>
       <c r="J28">
-        <f>J9-dhap4!J9</f>
-        <v>0.12454074149895261</v>
+        <f>J10-dhap4!J10</f>
+        <v>-5.0522621916484489E-3</v>
       </c>
       <c r="L28">
-        <f>L9-dhap4!L9</f>
-        <v>2.687362882630831E-2</v>
+        <f>L10-dhap4!L10</f>
+        <v>3.2739296299217013E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <f>B10-dhap4!B10</f>
-        <v>8.2319513631126107E-3</v>
+        <f>B11-dhap4!B11</f>
+        <v>-8.494918662580786E-2</v>
       </c>
       <c r="D29">
-        <f>D10-dhap4!D10</f>
-        <v>-3.598717269873114E-2</v>
+        <f>D11-dhap4!D11</f>
+        <v>1.4912612349039289E-2</v>
       </c>
       <c r="F29">
-        <f>F10-dhap4!F10</f>
-        <v>-1.0087043926172545E-2</v>
+        <f>F11-dhap4!F11</f>
+        <v>5.48499324321019E-2</v>
       </c>
       <c r="H29">
-        <f>H10-dhap4!H10</f>
-        <v>6.0674468249886371E-3</v>
+        <f>H11-dhap4!H11</f>
+        <v>-3.0541276120243988E-2</v>
       </c>
       <c r="J29">
-        <f>J10-dhap4!J10</f>
-        <v>-1.276827299169403E-2</v>
+        <f>J11-dhap4!J11</f>
+        <v>-5.9205852394374259E-2</v>
       </c>
       <c r="L29">
-        <f>L10-dhap4!L10</f>
-        <v>3.4804761926458205E-2</v>
+        <f>L11-dhap4!L11</f>
+        <v>-5.0036444200376895E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <f>B11-dhap4!B11</f>
-        <v>0.36944804033610001</v>
+        <f>B12-dhap4!B12</f>
+        <v>-1.2129149985650067E-2</v>
       </c>
       <c r="D30">
-        <f>D11-dhap4!D11</f>
-        <v>9.3036602171663985E-2</v>
+        <f>D12-dhap4!D12</f>
+        <v>4.0187011050673571E-2</v>
       </c>
       <c r="F30">
-        <f>F11-dhap4!F11</f>
-        <v>-0.15329193009537434</v>
+        <f>F12-dhap4!F12</f>
+        <v>-7.545975362999946E-3</v>
       </c>
       <c r="H30">
-        <f>H11-dhap4!H11</f>
-        <v>-1.5893675590740702E-2</v>
+        <f>H12-dhap4!H12</f>
+        <v>8.6238963918938621E-2</v>
       </c>
       <c r="J30">
-        <f>J11-dhap4!J11</f>
-        <v>6.1838937576249697E-2</v>
+        <f>J12-dhap4!J12</f>
+        <v>-8.1554706191538234E-2</v>
       </c>
       <c r="L30">
-        <f>L11-dhap4!L11</f>
-        <v>-4.8341379121121797E-2</v>
+        <f>L12-dhap4!L12</f>
+        <v>6.0562514479194834E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <f>B12-dhap4!B12</f>
-        <v>3.8873618679618027E-2</v>
+        <f>B13-dhap4!B13</f>
+        <v>2.3793591694202254E-2</v>
       </c>
       <c r="D31">
-        <f>D12-dhap4!D12</f>
-        <v>-5.5487577168423785E-2</v>
+        <f>D13-dhap4!D13</f>
+        <v>-1.2574338430448501E-2</v>
       </c>
       <c r="F31">
-        <f>F12-dhap4!F12</f>
-        <v>-7.9935791325307204E-2</v>
+        <f>F13-dhap4!F13</f>
+        <v>-1.2006481598952734E-2</v>
       </c>
       <c r="H31">
-        <f>H12-dhap4!H12</f>
-        <v>-1.0991428969598871E-2</v>
+        <f>H13-dhap4!H13</f>
+        <v>3.1894521382171304E-2</v>
       </c>
       <c r="J31">
-        <f>J12-dhap4!J12</f>
-        <v>-5.8930181232855483E-2</v>
+        <f>J13-dhap4!J13</f>
+        <v>2.7156139437906512E-2</v>
       </c>
       <c r="L31">
-        <f>L12-dhap4!L12</f>
-        <v>-2.3832793228401039E-4</v>
+        <f>L13-dhap4!L13</f>
+        <v>-4.9471866342420789E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <f>B13-dhap4!B13</f>
-        <v>7.8864663152329595E-2</v>
+        <f>B14-dhap4!B14</f>
+        <v>0.17368764172227291</v>
       </c>
       <c r="D32">
-        <f>D13-dhap4!D13</f>
-        <v>0.167454642431523</v>
+        <f>D14-dhap4!D14</f>
+        <v>4.2674525427884968E-2</v>
       </c>
       <c r="F32">
-        <f>F13-dhap4!F13</f>
-        <v>4.3713845113009075E-2</v>
+        <f>F14-dhap4!F14</f>
+        <v>0.13009534208028684</v>
       </c>
       <c r="H32">
-        <f>H13-dhap4!H13</f>
-        <v>2.4702914952952071E-3</v>
+        <f>H14-dhap4!H14</f>
+        <v>0.49853996782092702</v>
       </c>
       <c r="J32">
-        <f>J13-dhap4!J13</f>
-        <v>3.1009710709337279E-2</v>
+        <f>J14-dhap4!J14</f>
+        <v>0.15245235494111753</v>
       </c>
       <c r="L32">
-        <f>L13-dhap4!L13</f>
-        <v>6.9059018601917432E-3</v>
+        <f>L14-dhap4!L14</f>
+        <v>0.38947464183173841</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <f>B14-dhap4!B14</f>
-        <v>0.10431140162088881</v>
+        <f>B15-dhap4!B15</f>
+        <v>3.9883341366283409E-2</v>
       </c>
       <c r="D33">
-        <f>D14-dhap4!D14</f>
-        <v>0.20026651151754349</v>
+        <f>D15-dhap4!D15</f>
+        <v>0.19758276840239619</v>
       </c>
       <c r="F33">
-        <f>F14-dhap4!F14</f>
-        <v>-0.36878066792108177</v>
+        <f>F15-dhap4!F15</f>
+        <v>-6.2339937317310801E-2</v>
       </c>
       <c r="H33">
-        <f>H14-dhap4!H14</f>
-        <v>8.4294502374637204E-2</v>
+        <f>H15-dhap4!H15</f>
+        <v>0.15683691995681792</v>
       </c>
       <c r="J33">
-        <f>J14-dhap4!J14</f>
-        <v>8.0289212975577229E-2</v>
+        <f>J15-dhap4!J15</f>
+        <v>7.273939905254645E-2</v>
       </c>
       <c r="L33">
-        <f>L14-dhap4!L14</f>
-        <v>0.21868434991868946</v>
+        <f>L15-dhap4!L15</f>
+        <v>0.14591954596824996</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <f>B15-dhap4!B15</f>
-        <v>-4.4391160148250508E-3</v>
+        <f>B16-dhap4!B16</f>
+        <v>-0.13909514163952741</v>
       </c>
       <c r="D34">
-        <f>D15-dhap4!D15</f>
-        <v>0.21220824990707887</v>
+        <f>D16-dhap4!D16</f>
+        <v>-2.5397114165905954E-2</v>
       </c>
       <c r="F34">
-        <f>F15-dhap4!F15</f>
-        <v>-0.63817683128785763</v>
+        <f>F16-dhap4!F16</f>
+        <v>9.3176931144834718E-2</v>
       </c>
       <c r="H34">
-        <f>H15-dhap4!H15</f>
-        <v>0.18160779471485577</v>
+        <f>H16-dhap4!H16</f>
+        <v>3.6544301807073021E-2</v>
       </c>
       <c r="J34">
-        <f>J15-dhap4!J15</f>
-        <v>3.655726191244657E-2</v>
+        <f>J16-dhap4!J16</f>
+        <v>-0.12218778056578544</v>
       </c>
       <c r="L34">
-        <f>L15-dhap4!L15</f>
-        <v>0.15562644337872045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35">
-        <f>B16-dhap4!B16</f>
-        <v>-0.13003769709462576</v>
-      </c>
-      <c r="D35">
-        <f>D16-dhap4!D16</f>
-        <v>9.9752662012297932E-4</v>
-      </c>
-      <c r="F35">
-        <f>F16-dhap4!F16</f>
-        <v>-0.5236715517673155</v>
-      </c>
-      <c r="H35">
-        <f>H16-dhap4!H16</f>
-        <v>-0.10039144534606836</v>
-      </c>
-      <c r="J35">
-        <f>J16-dhap4!J16</f>
-        <v>7.9679671709575184E-2</v>
-      </c>
-      <c r="L35">
         <f>L16-dhap4!L16</f>
         <v>0</v>
       </c>
@@ -33083,342 +34246,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.4434426448330233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="N1:S16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N2" s="14">
-        <v>0.762384490029694</v>
-      </c>
-      <c r="O2" s="15">
-        <v>0.44624975588118598</v>
-      </c>
-      <c r="P2" s="16">
-        <v>0.78551996118716705</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>0.29160072506103601</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0.82577386681059695</v>
-      </c>
-      <c r="S2" s="7">
-        <v>4.5710095337786E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N3" s="14">
-        <v>8.2901279432195593E-2</v>
-      </c>
-      <c r="O3" s="9">
-        <v>9.0782211164155292E-3</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0.52024738694317496</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>7.2269282640789106E-2</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0.76388269721491497</v>
-      </c>
-      <c r="S3" s="19">
-        <v>0.45347930983877699</v>
-      </c>
-    </row>
-    <row r="4" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N4" s="14">
-        <v>6.6225124959576706E-2</v>
-      </c>
-      <c r="O4" s="15">
-        <v>0.61881514010194805</v>
-      </c>
-      <c r="P4" s="10">
-        <v>1.6347989883004101E-2</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>1.1178235493982801E-2</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0.41128551861353002</v>
-      </c>
-      <c r="S4" s="7">
-        <v>2.5966862137770701E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N5" s="14">
-        <v>0.33061324554751997</v>
-      </c>
-      <c r="O5" s="15">
-        <v>0.58761063110676703</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0.876273721691745</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>0.12610118972802201</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0.84451617033304205</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0.34787221257796602</v>
-      </c>
-    </row>
-    <row r="6" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N6" s="14">
-        <v>0.41886387925431101</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0.54683519144140802</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0.60936795919082498</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>0.51888455220311103</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0.92811381976317897</v>
-      </c>
-      <c r="S6" s="19">
-        <v>0.117144834533319</v>
-      </c>
-    </row>
-    <row r="7" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N7" s="14">
-        <v>0.73074475229926095</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0.482119508817688</v>
-      </c>
-      <c r="P7" s="16">
-        <v>7.7299330333445299E-2</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>0.41648763304756098</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0.92618166088133702</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1.5741522728162101E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N8" s="12">
-        <v>3.9736164584284001E-2</v>
-      </c>
-      <c r="O8" s="9">
-        <v>2.23753114222145E-3</v>
-      </c>
-      <c r="P8" s="10">
-        <v>2.4759724199063201E-3</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>0.42442038054964198</v>
-      </c>
-      <c r="R8" s="18">
-        <v>0.57583799773840905</v>
-      </c>
-      <c r="S8" s="7">
-        <v>1.1238296525258799E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N9" s="14">
-        <v>0.30555896896170998</v>
-      </c>
-      <c r="O9" s="15">
-        <v>0.220796800536256</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0.34273266373509897</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>1.6849469393969401E-2</v>
-      </c>
-      <c r="R9" s="18">
-        <v>0.80207673397527102</v>
-      </c>
-      <c r="S9" s="19">
-        <v>8.3557084326203193E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N10" s="14">
-        <v>0.40967747091093998</v>
-      </c>
-      <c r="O10" s="9">
-        <v>4.93615335741312E-2</v>
-      </c>
-      <c r="P10" s="16">
-        <v>7.5060611423136706E-2</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>5.3349459021998002E-2</v>
-      </c>
-      <c r="R10" s="18">
-        <v>0.83537027035042999</v>
-      </c>
-      <c r="S10" s="7">
-        <v>2.0751052693414899E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N11" s="14">
-        <v>0.312866167848105</v>
-      </c>
-      <c r="O11" s="15">
-        <v>0.36919882166698498</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0.32044779172975002</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>1.01926877470356</v>
-      </c>
-      <c r="R11" s="18">
-        <v>0.41730594570108798</v>
-      </c>
-      <c r="S11" s="19">
-        <v>0.32964773522541801</v>
-      </c>
-    </row>
-    <row r="12" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N12" s="14">
-        <v>0.673063017606508</v>
-      </c>
-      <c r="O12" s="15">
-        <v>0.48391674975244903</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0.37967438937929698</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>0.61551986182630103</v>
-      </c>
-      <c r="R12" s="18">
-        <v>0.96518223885221099</v>
-      </c>
-      <c r="S12" s="19">
-        <v>0.77989454444137896</v>
-      </c>
-    </row>
-    <row r="13" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N13" s="14">
-        <v>9.5712795892028399E-2</v>
-      </c>
-      <c r="O13" s="15">
-        <v>0.44634237725270698</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0.31255665386579601</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>0.98678976939878205</v>
-      </c>
-      <c r="R13" s="18">
-        <v>0.517815470814041</v>
-      </c>
-      <c r="S13" s="19">
-        <v>0.297478016852251</v>
-      </c>
-    </row>
-    <row r="14" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N14" s="14">
-        <v>0.174295602147962</v>
-      </c>
-      <c r="O14" s="15">
-        <v>0.86844583111990603</v>
-      </c>
-      <c r="P14" s="10">
-        <v>4.3268390080787603E-2</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>8.3521584494051695E-3</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0.81524617305381997</v>
-      </c>
-      <c r="S14" s="19">
-        <v>6.5292475138674894E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="12">
-        <v>4.0424970068182499E-3</v>
-      </c>
-      <c r="O15" s="15">
-        <v>5.7965913592618802E-2</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0.218104991549528</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>1.17388410353965E-2</v>
-      </c>
-      <c r="R15" s="18">
-        <v>0.21974386864794401</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0.26584607245743602</v>
-      </c>
-    </row>
-    <row r="16" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N16" s="12">
-        <v>8.8957362296602296E-3</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0.31603437363464698</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0.250267714639267</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>1.01343777505961</v>
-      </c>
-      <c r="R16" s="18">
-        <v>0.88243598341370999</v>
-      </c>
-      <c r="S16" s="19">
-        <v>0.45617091532496501</v>
+        <v>1.4760844231147061</v>
       </c>
     </row>
   </sheetData>
@@ -33428,332 +34256,1118 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="N1:S16"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S16"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N2" s="14">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.44325947225759649</v>
+      </c>
+      <c r="C2" s="14">
         <v>0.762384490029694</v>
       </c>
-      <c r="O2" s="15">
+      <c r="D2">
+        <v>0.13268020637699676</v>
+      </c>
+      <c r="E2" s="15">
         <v>0.44624975588118598</v>
       </c>
-      <c r="P2" s="16">
+      <c r="F2">
+        <v>1.3596341086186523</v>
+      </c>
+      <c r="G2" s="16">
         <v>0.78551996118716705</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="H2">
+        <v>0.124008318768719</v>
+      </c>
+      <c r="I2" s="17">
         <v>0.29160072506103601</v>
       </c>
-      <c r="R2" s="18">
+      <c r="J2">
+        <v>0.19964830210412457</v>
+      </c>
+      <c r="K2" s="18">
         <v>0.82577386681059695</v>
       </c>
-      <c r="S2" s="7">
+      <c r="L2">
+        <v>1.1875522213411989</v>
+      </c>
+      <c r="M2" s="7">
         <v>4.5710095337786E-2</v>
       </c>
     </row>
-    <row r="3" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N3" s="14">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.35721726153263667</v>
+      </c>
+      <c r="C3" s="14">
         <v>8.2901279432195593E-2</v>
       </c>
-      <c r="O3" s="9">
+      <c r="D3">
+        <v>1.0517467736638961</v>
+      </c>
+      <c r="E3" s="9">
         <v>9.0782211164155292E-3</v>
       </c>
-      <c r="P3" s="16">
+      <c r="F3">
+        <v>0.50786706273900151</v>
+      </c>
+      <c r="G3" s="16">
         <v>0.52024738694317496</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="H3">
+        <v>0.45751694034791596</v>
+      </c>
+      <c r="I3" s="17">
         <v>7.2269282640789106E-2</v>
       </c>
-      <c r="R3" s="18">
+      <c r="J3">
+        <v>1.2413307934798183</v>
+      </c>
+      <c r="K3" s="18">
         <v>0.76388269721491497</v>
       </c>
-      <c r="S3" s="19">
+      <c r="L3">
+        <v>1.427532538740345</v>
+      </c>
+      <c r="M3" s="19">
         <v>0.45347930983877699</v>
       </c>
     </row>
-    <row r="4" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N4" s="14">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.72086927135374101</v>
+      </c>
+      <c r="C4" s="14">
         <v>6.6225124959576706E-2</v>
       </c>
-      <c r="O4" s="15">
+      <c r="D4">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="E4" s="15">
         <v>0.61881514010194805</v>
       </c>
-      <c r="P4" s="10">
+      <c r="F4">
+        <v>0.83475365197106821</v>
+      </c>
+      <c r="G4" s="10">
         <v>1.6347989883004101E-2</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="H4">
+        <v>1.1317583924195833</v>
+      </c>
+      <c r="I4" s="11">
         <v>1.1178235493982801E-2</v>
       </c>
-      <c r="R4" s="18">
+      <c r="J4">
+        <v>1.1051102056902664</v>
+      </c>
+      <c r="K4" s="18">
         <v>0.41128551861353002</v>
       </c>
-      <c r="S4" s="7">
+      <c r="L4">
+        <v>0.84035969615263495</v>
+      </c>
+      <c r="M4" s="7">
         <v>2.5966862137770701E-2</v>
       </c>
     </row>
-    <row r="5" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N5" s="14">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.47595022871536047</v>
+      </c>
+      <c r="C5" s="14">
         <v>0.33061324554751997</v>
       </c>
-      <c r="O5" s="15">
+      <c r="D5">
+        <v>0.55050345591266892</v>
+      </c>
+      <c r="E5" s="15">
         <v>0.58761063110676703</v>
       </c>
-      <c r="P5" s="16">
+      <c r="F5">
+        <v>0.77109217217433546</v>
+      </c>
+      <c r="G5" s="16">
         <v>0.876273721691745</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="H5">
+        <v>0.84337951581849058</v>
+      </c>
+      <c r="I5" s="17">
         <v>0.12610118972802201</v>
       </c>
-      <c r="R5" s="18">
+      <c r="J5">
+        <v>0.5599627871173336</v>
+      </c>
+      <c r="K5" s="18">
         <v>0.84451617033304205</v>
       </c>
-      <c r="S5" s="19">
+      <c r="L5">
+        <v>0.21970417308426202</v>
+      </c>
+      <c r="M5" s="19">
         <v>0.34787221257796602</v>
       </c>
     </row>
-    <row r="6" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N6" s="14">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.45479844133053099</v>
+      </c>
+      <c r="C6" s="14">
         <v>0.41886387925431101</v>
       </c>
-      <c r="O6" s="15">
+      <c r="D6">
+        <v>0.17380139994281638</v>
+      </c>
+      <c r="E6" s="15">
         <v>0.54683519144140802</v>
       </c>
-      <c r="P6" s="16">
+      <c r="F6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="G6" s="16">
         <v>0.60936795919082498</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="H6">
+        <v>0.21916875916366999</v>
+      </c>
+      <c r="I6" s="17">
         <v>0.51888455220311103</v>
       </c>
-      <c r="R6" s="18">
+      <c r="J6">
+        <v>0.24178273806551065</v>
+      </c>
+      <c r="K6" s="18">
         <v>0.92811381976317897</v>
       </c>
-      <c r="S6" s="19">
+      <c r="L6">
+        <v>0.13430588664337054</v>
+      </c>
+      <c r="M6" s="19">
         <v>0.117144834533319</v>
       </c>
     </row>
-    <row r="7" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N7" s="14">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.9405029647740497</v>
+      </c>
+      <c r="C7" s="14">
         <v>0.73074475229926095</v>
       </c>
-      <c r="O7" s="15">
+      <c r="D7">
+        <v>1.4075136988561026</v>
+      </c>
+      <c r="E7" s="15">
         <v>0.482119508817688</v>
       </c>
-      <c r="P7" s="16">
+      <c r="F7">
+        <v>1.8636293352242859</v>
+      </c>
+      <c r="G7" s="16">
         <v>7.7299330333445299E-2</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="H7">
+        <v>0.4916199175</v>
+      </c>
+      <c r="I7" s="17">
         <v>0.41648763304756098</v>
       </c>
-      <c r="R7" s="18">
+      <c r="J7">
+        <v>1.628290996381083</v>
+      </c>
+      <c r="K7" s="18">
         <v>0.92618166088133702</v>
       </c>
-      <c r="S7" s="7">
+      <c r="L7">
+        <v>0.53352945472475433</v>
+      </c>
+      <c r="M7" s="7">
         <v>1.5741522728162101E-2</v>
       </c>
     </row>
-    <row r="8" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N8" s="12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.62834130637483843</v>
+      </c>
+      <c r="C8" s="12">
         <v>3.9736164584284001E-2</v>
       </c>
-      <c r="O8" s="9">
+      <c r="D8">
+        <v>0.73381235939887679</v>
+      </c>
+      <c r="E8" s="9">
         <v>2.23753114222145E-3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="F8">
+        <v>0.310928262790445</v>
+      </c>
+      <c r="G8" s="10">
         <v>2.4759724199063201E-3</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="H8">
+        <v>2.7819706069563099</v>
+      </c>
+      <c r="I8" s="17">
         <v>0.42442038054964198</v>
       </c>
-      <c r="R8" s="18">
+      <c r="J8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="K8" s="18">
         <v>0.57583799773840905</v>
       </c>
-      <c r="S8" s="7">
+      <c r="L8">
+        <v>0.54519033347722201</v>
+      </c>
+      <c r="M8" s="7">
         <v>1.1238296525258799E-3</v>
       </c>
     </row>
-    <row r="9" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N9" s="14">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.5151313497252461</v>
+      </c>
+      <c r="C9" s="14">
         <v>0.30555896896170998</v>
       </c>
-      <c r="O9" s="15">
+      <c r="D9">
+        <v>0.29691249909334511</v>
+      </c>
+      <c r="E9" s="15">
         <v>0.220796800536256</v>
       </c>
-      <c r="P9" s="16">
+      <c r="F9">
+        <v>0.85066868055168232</v>
+      </c>
+      <c r="G9" s="16">
         <v>0.34273266373509897</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="H9">
+        <v>0.25855186403289848</v>
+      </c>
+      <c r="I9" s="11">
         <v>1.6849469393969401E-2</v>
       </c>
-      <c r="R9" s="18">
+      <c r="J9">
+        <v>0.57416629219765281</v>
+      </c>
+      <c r="K9" s="18">
         <v>0.80207673397527102</v>
       </c>
-      <c r="S9" s="19">
+      <c r="L9">
+        <v>0.27663869537363994</v>
+      </c>
+      <c r="M9" s="19">
         <v>8.3557084326203193E-2</v>
       </c>
     </row>
-    <row r="10" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N10" s="14">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.99285189498340465</v>
+      </c>
+      <c r="C10" s="14">
         <v>0.40967747091093998</v>
       </c>
-      <c r="O10" s="9">
+      <c r="D10">
+        <v>0.27431542900946598</v>
+      </c>
+      <c r="E10" s="9">
         <v>4.93615335741312E-2</v>
       </c>
-      <c r="P10" s="16">
+      <c r="F10">
+        <v>0.95166223244277104</v>
+      </c>
+      <c r="G10" s="16">
         <v>7.5060611423136706E-2</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="H10">
+        <v>0.19061430953629951</v>
+      </c>
+      <c r="I10" s="17">
         <v>5.3349459021998002E-2</v>
       </c>
-      <c r="R10" s="18">
+      <c r="J10">
+        <v>1.1848382874958401</v>
+      </c>
+      <c r="K10" s="18">
         <v>0.83537027035042999</v>
       </c>
-      <c r="S10" s="7">
+      <c r="L10">
+        <v>0.3051527242353182</v>
+      </c>
+      <c r="M10" s="7">
         <v>2.0751052693414899E-3</v>
       </c>
     </row>
-    <row r="11" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N11" s="14">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2.0731109833820467</v>
+      </c>
+      <c r="C11" s="14">
         <v>0.312866167848105</v>
       </c>
-      <c r="O11" s="15">
+      <c r="D11">
+        <v>1.0089956841730834</v>
+      </c>
+      <c r="E11" s="15">
         <v>0.36919882166698498</v>
       </c>
-      <c r="P11" s="16">
+      <c r="F11">
+        <v>0.27109189654249871</v>
+      </c>
+      <c r="G11" s="16">
         <v>0.32044779172975002</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="H11">
+        <v>0.14031764784486581</v>
+      </c>
+      <c r="I11" s="17">
         <v>1.01926877470356</v>
       </c>
-      <c r="R11" s="18">
+      <c r="J11">
+        <v>0.65524707464767207</v>
+      </c>
+      <c r="K11" s="18">
         <v>0.41730594570108798</v>
       </c>
-      <c r="S11" s="19">
+      <c r="L11">
+        <v>1.2720413499065832</v>
+      </c>
+      <c r="M11" s="19">
         <v>0.32964773522541801</v>
       </c>
     </row>
-    <row r="12" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N12" s="14">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.29069202061582444</v>
+      </c>
+      <c r="C12" s="14">
         <v>0.673063017606508</v>
       </c>
-      <c r="O12" s="15">
+      <c r="D12">
+        <v>0.60900463060432808</v>
+      </c>
+      <c r="E12" s="15">
         <v>0.48391674975244903</v>
       </c>
-      <c r="P12" s="16">
+      <c r="F12">
+        <v>0.45273866545323399</v>
+      </c>
+      <c r="G12" s="16">
         <v>0.37967438937929698</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="H12">
+        <v>0.21213043851485261</v>
+      </c>
+      <c r="I12" s="17">
         <v>0.61551986182630103</v>
       </c>
-      <c r="R12" s="18">
+      <c r="J12">
+        <v>0.31908102381470055</v>
+      </c>
+      <c r="K12" s="18">
         <v>0.96518223885221099</v>
       </c>
-      <c r="S12" s="19">
+      <c r="L12">
+        <v>0.24787793816426176</v>
+      </c>
+      <c r="M12" s="19">
         <v>0.77989454444137896</v>
       </c>
     </row>
-    <row r="13" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N13" s="14">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.45165798193351342</v>
+      </c>
+      <c r="C13" s="14">
         <v>9.5712795892028399E-2</v>
       </c>
-      <c r="O13" s="15">
+      <c r="D13">
+        <v>0.23819370307047871</v>
+      </c>
+      <c r="E13" s="15">
         <v>0.44634237725270698</v>
       </c>
-      <c r="P13" s="16">
+      <c r="F13">
+        <v>0.29029346182852955</v>
+      </c>
+      <c r="G13" s="16">
         <v>0.31255665386579601</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="H13">
+        <v>0.54992711132400174</v>
+      </c>
+      <c r="I13" s="17">
         <v>0.98678976939878205</v>
       </c>
-      <c r="R13" s="18">
+      <c r="J13">
+        <v>0.2944452164443585</v>
+      </c>
+      <c r="K13" s="18">
         <v>0.517815470814041</v>
       </c>
-      <c r="S13" s="19">
+      <c r="L13">
+        <v>0.24418910898710591</v>
+      </c>
+      <c r="M13" s="19">
         <v>0.297478016852251</v>
       </c>
     </row>
-    <row r="14" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N14" s="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.67914781305819294</v>
+      </c>
+      <c r="C14" s="14">
         <v>0.174295602147962</v>
       </c>
-      <c r="O14" s="15">
+      <c r="D14">
+        <v>0.70667901535708821</v>
+      </c>
+      <c r="E14" s="15">
         <v>0.86844583111990603</v>
       </c>
-      <c r="P14" s="10">
+      <c r="F14">
+        <v>1.137913966938201</v>
+      </c>
+      <c r="G14" s="10">
         <v>4.3268390080787603E-2</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="H14">
+        <v>0.30057566966756066</v>
+      </c>
+      <c r="I14" s="11">
         <v>8.3521584494051695E-3</v>
       </c>
-      <c r="R14" s="18">
+      <c r="J14">
+        <v>0.39455644122463873</v>
+      </c>
+      <c r="K14" s="18">
         <v>0.81524617305381997</v>
       </c>
-      <c r="S14" s="19">
+      <c r="L14">
+        <v>0.46350032464944985</v>
+      </c>
+      <c r="M14" s="19">
         <v>6.5292475138674894E-2</v>
       </c>
     </row>
-    <row r="15" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="12">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.38876244658913434</v>
+      </c>
+      <c r="C15" s="12">
         <v>4.0424970068182499E-3</v>
       </c>
-      <c r="O15" s="15">
+      <c r="D15">
+        <v>0.77623919848867418</v>
+      </c>
+      <c r="E15" s="15">
         <v>5.7965913592618802E-2</v>
       </c>
-      <c r="P15" s="16">
+      <c r="F15">
+        <v>1.6560246615692416</v>
+      </c>
+      <c r="G15" s="16">
         <v>0.218104991549528</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="H15">
+        <v>0.62044886302659485</v>
+      </c>
+      <c r="I15" s="11">
         <v>1.17388410353965E-2</v>
       </c>
-      <c r="R15" s="18">
+      <c r="J15">
+        <v>0.78861663136541316</v>
+      </c>
+      <c r="K15" s="18">
         <v>0.21974386864794401</v>
       </c>
-      <c r="S15" s="19">
+      <c r="L15">
+        <v>0.45333405866781645</v>
+      </c>
+      <c r="M15" s="19">
         <v>0.26584607245743602</v>
       </c>
     </row>
-    <row r="16" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N16" s="12">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2.3016728479461759</v>
+      </c>
+      <c r="C16" s="12">
         <v>8.8957362296602296E-3</v>
       </c>
-      <c r="O16" s="15">
+      <c r="D16">
+        <v>0.6802428223504221</v>
+      </c>
+      <c r="E16" s="15">
         <v>0.31603437363464698</v>
       </c>
-      <c r="P16" s="16">
+      <c r="F16">
+        <v>1.2797739428045249</v>
+      </c>
+      <c r="G16" s="16">
         <v>0.250267714639267</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="H16">
+        <v>1.1258438911699027</v>
+      </c>
+      <c r="I16" s="17">
         <v>1.01343777505961</v>
       </c>
-      <c r="R16" s="18">
+      <c r="J16">
+        <v>0.45434464473058628</v>
+      </c>
+      <c r="K16" s="18">
         <v>0.88243598341370999</v>
       </c>
-      <c r="S16" s="19">
+      <c r="L16">
+        <v>3.1590337508333337</v>
+      </c>
+      <c r="M16" s="19">
         <v>0.45617091532496501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>B2-dhap4!B2</f>
+        <v>2.8864768460611145E-2</v>
+      </c>
+      <c r="D21">
+        <f>D2-dhap4!D2</f>
+        <v>3.6598539195904584E-2</v>
+      </c>
+      <c r="F21">
+        <f>F2-dhap4!F2</f>
+        <v>5.3592846037092912E-2</v>
+      </c>
+      <c r="H21">
+        <f>H2-dhap4!H2</f>
+        <v>-2.1955928803476424E-2</v>
+      </c>
+      <c r="J21">
+        <f>J2-dhap4!J2</f>
+        <v>-1.0959375100483226E-2</v>
+      </c>
+      <c r="L21">
+        <f>L2-dhap4!L2</f>
+        <v>0.3405942454896258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f>B3-dhap4!B3</f>
+        <v>0.10362699796979885</v>
+      </c>
+      <c r="D22">
+        <f>D3-dhap4!D3</f>
+        <v>0.75137720420804666</v>
+      </c>
+      <c r="F22">
+        <f>F3-dhap4!F3</f>
+        <v>-0.12640634204988088</v>
+      </c>
+      <c r="H22">
+        <f>H3-dhap4!H3</f>
+        <v>0.14131888028341233</v>
+      </c>
+      <c r="J22">
+        <f>J3-dhap4!J3</f>
+        <v>4.8019749002692125E-2</v>
+      </c>
+      <c r="L22">
+        <f>L3-dhap4!L3</f>
+        <v>0.23248410925299945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f>B4-dhap4!B4</f>
+        <v>-0.10855556974830716</v>
+      </c>
+      <c r="D23">
+        <f>D4-dhap4!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F4-dhap4!F4</f>
+        <v>-3.3166406703207252E-2</v>
+      </c>
+      <c r="H23">
+        <f>H4-dhap4!H4</f>
+        <v>3.7406068842416929E-2</v>
+      </c>
+      <c r="J23">
+        <f>J4-dhap4!J4</f>
+        <v>0.33539504171145762</v>
+      </c>
+      <c r="L23">
+        <f>L4-dhap4!L4</f>
+        <v>0.16289681491083796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>B5-dhap4!B5</f>
+        <v>-3.6077099159846082E-2</v>
+      </c>
+      <c r="D24">
+        <f>D5-dhap4!D5</f>
+        <v>-0.35342218814062809</v>
+      </c>
+      <c r="F24">
+        <f>F5-dhap4!F5</f>
+        <v>1.9148907914063873E-3</v>
+      </c>
+      <c r="H24">
+        <f>H5-dhap4!H5</f>
+        <v>-4.2348203373860027E-2</v>
+      </c>
+      <c r="J24">
+        <f>J5-dhap4!J5</f>
+        <v>5.6674963019809455E-2</v>
+      </c>
+      <c r="L24">
+        <f>L5-dhap4!L5</f>
+        <v>-8.9998495505981824E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>B6-dhap4!B6</f>
+        <v>-1.9529110246622239E-2</v>
+      </c>
+      <c r="D25">
+        <f>D6-dhap4!D6</f>
+        <v>-2.7596917499196155E-2</v>
+      </c>
+      <c r="F25">
+        <f>F6-dhap4!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>H6-dhap4!H6</f>
+        <v>3.2409526046149106E-2</v>
+      </c>
+      <c r="J25">
+        <f>J6-dhap4!J6</f>
+        <v>4.7359279700975865E-3</v>
+      </c>
+      <c r="L25">
+        <f>L6-dhap4!L6</f>
+        <v>-3.7915139803549602E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>B7-dhap4!B7</f>
+        <v>-0.20961370757679743</v>
+      </c>
+      <c r="D26">
+        <f>D7-dhap4!D7</f>
+        <v>0.24648571415261822</v>
+      </c>
+      <c r="F26">
+        <f>F7-dhap4!F7</f>
+        <v>0.51903390250431158</v>
+      </c>
+      <c r="H26">
+        <f>H7-dhap4!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J7-dhap4!J7</f>
+        <v>0.2069047546963847</v>
+      </c>
+      <c r="L26">
+        <f>L7-dhap4!L7</f>
+        <v>-2.6140624261137724E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>B8-dhap4!B8</f>
+        <v>1.060000732175348E-2</v>
+      </c>
+      <c r="D27">
+        <f>D8-dhap4!D8</f>
+        <v>4.9756967375260253E-2</v>
+      </c>
+      <c r="F27">
+        <f>F8-dhap4!F8</f>
+        <v>1.4209147748203033E-2</v>
+      </c>
+      <c r="H27">
+        <f>H8-dhap4!H8</f>
+        <v>-4.5664676302267893E-2</v>
+      </c>
+      <c r="J27">
+        <f>J8-dhap4!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L8-dhap4!L8</f>
+        <v>2.1273161402035168E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>B9-dhap4!B9</f>
+        <v>5.166020286617462E-2</v>
+      </c>
+      <c r="D28">
+        <f>D9-dhap4!D9</f>
+        <v>-8.7754378366363017E-2</v>
+      </c>
+      <c r="F28">
+        <f>F9-dhap4!F9</f>
+        <v>8.1363840725335979E-2</v>
+      </c>
+      <c r="H28">
+        <f>H9-dhap4!H9</f>
+        <v>5.16407960853425E-2</v>
+      </c>
+      <c r="J28">
+        <f>J9-dhap4!J9</f>
+        <v>0.12514975027752945</v>
+      </c>
+      <c r="L28">
+        <f>L9-dhap4!L9</f>
+        <v>2.667594668583792E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>B10-dhap4!B10</f>
+        <v>1.0373011562460288E-2</v>
+      </c>
+      <c r="D29">
+        <f>D10-dhap4!D10</f>
+        <v>-3.1305141154894245E-2</v>
+      </c>
+      <c r="F29">
+        <f>F10-dhap4!F10</f>
+        <v>-1.8959326543184329E-2</v>
+      </c>
+      <c r="H29">
+        <f>H10-dhap4!H10</f>
+        <v>1.2427188647950421E-2</v>
+      </c>
+      <c r="J29">
+        <f>J10-dhap4!J10</f>
+        <v>-8.4836329317350412E-4</v>
+      </c>
+      <c r="L29">
+        <f>L10-dhap4!L10</f>
+        <v>3.5395821104895808E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B11-dhap4!B11</f>
+        <v>0.27676360279959411</v>
+      </c>
+      <c r="D30">
+        <f>D11-dhap4!D11</f>
+        <v>0.1328655132990838</v>
+      </c>
+      <c r="F30">
+        <f>F11-dhap4!F11</f>
+        <v>-0.1179106061424266</v>
+      </c>
+      <c r="H30">
+        <f>H11-dhap4!H11</f>
+        <v>-3.3660899733663319E-2</v>
+      </c>
+      <c r="J30">
+        <f>J11-dhap4!J11</f>
+        <v>0.12149772142571913</v>
+      </c>
+      <c r="L30">
+        <f>L11-dhap4!L11</f>
+        <v>-7.5408568586554647E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>B12-dhap4!B12</f>
+        <v>-1.832550968215696E-2</v>
+      </c>
+      <c r="D31">
+        <f>D12-dhap4!D12</f>
+        <v>-8.9548882235882643E-2</v>
+      </c>
+      <c r="F31">
+        <f>F12-dhap4!F12</f>
+        <v>-1.6902296548972906E-2</v>
+      </c>
+      <c r="H31">
+        <f>H12-dhap4!H12</f>
+        <v>2.101236175259602E-2</v>
+      </c>
+      <c r="J31">
+        <f>J12-dhap4!J12</f>
+        <v>-1.0195089393501E-3</v>
+      </c>
+      <c r="L31">
+        <f>L12-dhap4!L12</f>
+        <v>1.5740345615503637E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f>B13-dhap4!B13</f>
+        <v>4.8067081792505906E-2</v>
+      </c>
+      <c r="D32">
+        <f>D13-dhap4!D13</f>
+        <v>1.1991561379513432E-2</v>
+      </c>
+      <c r="F32">
+        <f>F13-dhap4!F13</f>
+        <v>1.0079494779811349E-2</v>
+      </c>
+      <c r="H32">
+        <f>H13-dhap4!H13</f>
+        <v>8.5437000036076571E-2</v>
+      </c>
+      <c r="J32">
+        <f>J13-dhap4!J13</f>
+        <v>5.3440233190597652E-2</v>
+      </c>
+      <c r="L32">
+        <f>L13-dhap4!L13</f>
+        <v>-7.0288531714136487E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>B14-dhap4!B14</f>
+        <v>-5.4907552564090412E-2</v>
+      </c>
+      <c r="D33">
+        <f>D14-dhap4!D14</f>
+        <v>8.2940912006989609E-2</v>
+      </c>
+      <c r="F33">
+        <f>F14-dhap4!F14</f>
+        <v>9.5528803407808782E-2</v>
+      </c>
+      <c r="H33">
+        <f>H14-dhap4!H14</f>
+        <v>4.7032254792028771E-2</v>
+      </c>
+      <c r="J33">
+        <f>J14-dhap4!J14</f>
+        <v>0.10775636677747674</v>
+      </c>
+      <c r="L33">
+        <f>L14-dhap4!L14</f>
+        <v>-6.3902406107730403E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f>B15-dhap4!B15</f>
+        <v>-1.6141193267677545E-2</v>
+      </c>
+      <c r="D34">
+        <f>D15-dhap4!D15</f>
+        <v>4.232520543783902E-2</v>
+      </c>
+      <c r="F34">
+        <f>F15-dhap4!F15</f>
+        <v>0.1671042356173158</v>
+      </c>
+      <c r="H34">
+        <f>H15-dhap4!H15</f>
+        <v>-0.10340857757571165</v>
+      </c>
+      <c r="J34">
+        <f>J15-dhap4!J15</f>
+        <v>0.12772457433945938</v>
+      </c>
+      <c r="L34">
+        <f>L15-dhap4!L15</f>
+        <v>-5.0646367333188891E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B16-dhap4!B16</f>
+        <v>-2.0668372790799694E-3</v>
+      </c>
+      <c r="D35">
+        <f>D16-dhap4!D16</f>
+        <v>6.7844876008748001E-3</v>
+      </c>
+      <c r="F35">
+        <f>F16-dhap4!F16</f>
+        <v>-4.4592949995170272E-4</v>
+      </c>
+      <c r="H35">
+        <f>H16-dhap4!H16</f>
+        <v>-2.9267186036312509E-3</v>
+      </c>
+      <c r="J35">
+        <f>J16-dhap4!J16</f>
+        <v>-6.5124918133162568E-3</v>
+      </c>
+      <c r="L35">
+        <f>L16-dhap4!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.5009483703776725</v>
       </c>
     </row>
   </sheetData>
@@ -34483,8 +36097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35587,6 +37201,9 @@
       <c r="U32" t="s">
         <v>166</v>
       </c>
+      <c r="V32">
+        <v>1.4760844231147061</v>
+      </c>
       <c r="W32">
         <v>1.42628994475691</v>
       </c>
@@ -35595,12 +37212,21 @@
       <c r="U33" t="s">
         <v>173</v>
       </c>
+      <c r="V33">
+        <v>1.5009483703776725</v>
+      </c>
       <c r="W33">
         <v>1.42628994475691</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
     <mergeCell ref="N14:S14"/>
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
@@ -35610,12 +37236,6 @@
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
